--- a/public/templates/AAP-Report.xlsx
+++ b/public/templates/AAP-Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Val-Ai\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EDF4A14-002F-4430-BCC1-6F1B4833A793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6C4027-3E96-4136-B6C1-50702E98CB37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="593" firstSheet="1" activeTab="6" xr2:uid="{AAAEEB8D-0C92-435D-A786-907566042286}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="593" firstSheet="1" activeTab="5" xr2:uid="{AAAEEB8D-0C92-435D-A786-907566042286}"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="11" state="hidden" r:id="rId1"/>
@@ -3104,6 +3104,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="29" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -3227,47 +3245,32 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="29" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
@@ -3279,18 +3282,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -13951,71 +13951,6 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>557893</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>35944</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>25</xdr:col>
-          <xdr:colOff>17972</xdr:colOff>
-          <xdr:row>20</xdr:row>
-          <xdr:rowOff>197688</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="6" name="Picture 5">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Photos!$C$4:$M$14" spid="_x0000_s29766"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-            <a:srcRect/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="8034119" y="1383821"/>
-              <a:ext cx="6478028" cy="3306792"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
@@ -14043,7 +13978,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -14147,7 +14082,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -14199,7 +14134,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -14251,7 +14186,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -14595,7 +14530,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Photos!$AO$4:$AY$33" spid="_x0000_s25941"/>
+                  <a14:cameraTool cellRange="Photos!$AO$4:$AY$33" spid="_x0000_s25945"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -14660,7 +14595,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Photos!$BB$4:$BL$33" spid="_x0000_s25942"/>
+                  <a14:cameraTool cellRange="Photos!$BB$4:$BL$33" spid="_x0000_s25946"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -20303,7 +20238,7 @@
   <dimension ref="A2:BL33"/>
   <sheetViews>
     <sheetView zoomScale="73" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="AB6" sqref="AB6"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="21.75" customHeight="1"/>
@@ -25677,13 +25612,13 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D43A2F3-A272-4C8B-8638-6EB9FD686CB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D43A2F3-A272-4C8B-8638-6EB9FD686CB5}">
   <sheetPr codeName="Sheet4">
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="D5:AL48"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" zoomScale="106" zoomScaleNormal="100" zoomScalePageLayoutView="106" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="F1" zoomScale="82" zoomScaleNormal="100" zoomScalePageLayoutView="82" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="18" customHeight="1"/>
   <cols>
@@ -25693,68 +25628,68 @@
   </cols>
   <sheetData>
     <row r="5" spans="4:38" ht="18" customHeight="1">
-      <c r="O5" s="141" t="s">
+      <c r="O5" s="147" t="s">
         <v>557</v>
       </c>
-      <c r="P5" s="141"/>
-      <c r="Q5" s="141"/>
-      <c r="R5" s="141"/>
-      <c r="S5" s="141"/>
-      <c r="T5" s="141"/>
-      <c r="U5" s="141"/>
-      <c r="V5" s="142">
+      <c r="P5" s="147"/>
+      <c r="Q5" s="147"/>
+      <c r="R5" s="147"/>
+      <c r="S5" s="147"/>
+      <c r="T5" s="147"/>
+      <c r="U5" s="147"/>
+      <c r="V5" s="148">
         <f>Fillout!B24</f>
         <v>45835</v>
       </c>
-      <c r="W5" s="142"/>
-      <c r="X5" s="142"/>
-      <c r="Y5" s="142"/>
-      <c r="AB5" s="141" t="s">
+      <c r="W5" s="148"/>
+      <c r="X5" s="148"/>
+      <c r="Y5" s="148"/>
+      <c r="AB5" s="147" t="s">
         <v>558</v>
       </c>
-      <c r="AC5" s="141"/>
-      <c r="AD5" s="141"/>
-      <c r="AE5" s="141"/>
-      <c r="AF5" s="141"/>
-      <c r="AG5" s="141"/>
-      <c r="AH5" s="141"/>
-      <c r="AI5" s="142"/>
-      <c r="AJ5" s="142"/>
-      <c r="AK5" s="142"/>
-      <c r="AL5" s="142"/>
+      <c r="AC5" s="147"/>
+      <c r="AD5" s="147"/>
+      <c r="AE5" s="147"/>
+      <c r="AF5" s="147"/>
+      <c r="AG5" s="147"/>
+      <c r="AH5" s="147"/>
+      <c r="AI5" s="148"/>
+      <c r="AJ5" s="148"/>
+      <c r="AK5" s="148"/>
+      <c r="AL5" s="148"/>
     </row>
     <row r="6" spans="4:38" ht="18" customHeight="1">
-      <c r="O6" s="141"/>
-      <c r="P6" s="141"/>
-      <c r="Q6" s="141"/>
-      <c r="R6" s="141"/>
-      <c r="S6" s="141"/>
-      <c r="T6" s="141"/>
-      <c r="U6" s="141"/>
-      <c r="V6" s="142"/>
-      <c r="W6" s="142"/>
-      <c r="X6" s="142"/>
-      <c r="Y6" s="142"/>
-      <c r="AB6" s="141"/>
-      <c r="AC6" s="141"/>
-      <c r="AD6" s="141"/>
-      <c r="AE6" s="141"/>
-      <c r="AF6" s="141"/>
-      <c r="AG6" s="141"/>
-      <c r="AH6" s="141"/>
-      <c r="AI6" s="142"/>
-      <c r="AJ6" s="142"/>
-      <c r="AK6" s="142"/>
-      <c r="AL6" s="142"/>
+      <c r="O6" s="147"/>
+      <c r="P6" s="147"/>
+      <c r="Q6" s="147"/>
+      <c r="R6" s="147"/>
+      <c r="S6" s="147"/>
+      <c r="T6" s="147"/>
+      <c r="U6" s="147"/>
+      <c r="V6" s="148"/>
+      <c r="W6" s="148"/>
+      <c r="X6" s="148"/>
+      <c r="Y6" s="148"/>
+      <c r="AB6" s="147"/>
+      <c r="AC6" s="147"/>
+      <c r="AD6" s="147"/>
+      <c r="AE6" s="147"/>
+      <c r="AF6" s="147"/>
+      <c r="AG6" s="147"/>
+      <c r="AH6" s="147"/>
+      <c r="AI6" s="148"/>
+      <c r="AJ6" s="148"/>
+      <c r="AK6" s="148"/>
+      <c r="AL6" s="148"/>
     </row>
     <row r="8" spans="4:38" ht="18" customHeight="1">
-      <c r="D8" s="183" t="s">
+      <c r="D8" s="142" t="s">
         <v>573</v>
       </c>
-      <c r="E8" s="183"/>
-      <c r="F8" s="183"/>
-      <c r="G8" s="183"/>
-      <c r="H8" s="183"/>
+      <c r="E8" s="142"/>
+      <c r="F8" s="142"/>
+      <c r="G8" s="142"/>
+      <c r="H8" s="142"/>
       <c r="O8" s="101"/>
       <c r="P8" s="101"/>
       <c r="Q8" s="101"/>
@@ -25783,11 +25718,11 @@
       </c>
     </row>
     <row r="9" spans="4:38" ht="18" customHeight="1">
-      <c r="D9" s="183"/>
-      <c r="E9" s="183"/>
-      <c r="F9" s="183"/>
-      <c r="G9" s="183"/>
-      <c r="H9" s="183"/>
+      <c r="D9" s="142"/>
+      <c r="E9" s="142"/>
+      <c r="F9" s="142"/>
+      <c r="G9" s="142"/>
+      <c r="H9" s="142"/>
       <c r="O9" s="101"/>
       <c r="P9" s="101"/>
       <c r="Q9" s="101"/>
@@ -25838,14 +25773,14 @@
       </c>
     </row>
     <row r="11" spans="4:38" ht="18" customHeight="1">
-      <c r="D11" s="186" t="str">
+      <c r="D11" s="145" t="str">
         <f>IF(ISBLANK(Fillout!G2),"",Fillout!G2)</f>
         <v>29 Willan Drive</v>
       </c>
-      <c r="E11" s="186"/>
-      <c r="F11" s="186"/>
-      <c r="G11" s="186"/>
-      <c r="H11" s="186"/>
+      <c r="E11" s="145"/>
+      <c r="F11" s="145"/>
+      <c r="G11" s="145"/>
+      <c r="H11" s="145"/>
       <c r="O11" s="101"/>
       <c r="P11" s="101"/>
       <c r="Q11" s="101"/>
@@ -25870,14 +25805,14 @@
       </c>
     </row>
     <row r="12" spans="4:38" ht="18" customHeight="1">
-      <c r="D12" s="187" t="str">
+      <c r="D12" s="146" t="str">
         <f>Fillout!B8</f>
         <v>Cartwright NSW 2168</v>
       </c>
-      <c r="E12" s="187"/>
-      <c r="F12" s="187"/>
-      <c r="G12" s="187"/>
-      <c r="H12" s="187"/>
+      <c r="E12" s="146"/>
+      <c r="F12" s="146"/>
+      <c r="G12" s="146"/>
+      <c r="H12" s="146"/>
       <c r="O12" s="101"/>
       <c r="P12" s="101"/>
       <c r="Q12" s="101"/>
@@ -26150,22 +26085,22 @@
       <c r="J22" s="132"/>
       <c r="K22" s="131"/>
       <c r="N22" s="79"/>
-      <c r="O22" s="164" t="s">
+      <c r="O22" s="170" t="s">
         <v>567</v>
       </c>
-      <c r="P22" s="165"/>
-      <c r="Q22" s="166"/>
-      <c r="R22" s="155" t="str">
+      <c r="P22" s="171"/>
+      <c r="Q22" s="172"/>
+      <c r="R22" s="161" t="str">
         <f>UPPER(Fillout!B6)</f>
         <v>29 WILLAN DRIVE CARTWRIGHT NSW 2168</v>
       </c>
-      <c r="S22" s="156"/>
-      <c r="T22" s="156"/>
-      <c r="U22" s="156"/>
-      <c r="V22" s="156"/>
-      <c r="W22" s="156"/>
-      <c r="X22" s="156"/>
-      <c r="Y22" s="157"/>
+      <c r="S22" s="162"/>
+      <c r="T22" s="162"/>
+      <c r="U22" s="162"/>
+      <c r="V22" s="162"/>
+      <c r="W22" s="162"/>
+      <c r="X22" s="162"/>
+      <c r="Y22" s="163"/>
       <c r="AB22" s="27" t="s">
         <v>249</v>
       </c>
@@ -26194,17 +26129,17 @@
       <c r="J23" s="132"/>
       <c r="K23" s="131"/>
       <c r="N23" s="79"/>
-      <c r="O23" s="167"/>
-      <c r="P23" s="168"/>
-      <c r="Q23" s="169"/>
-      <c r="R23" s="158"/>
-      <c r="S23" s="159"/>
-      <c r="T23" s="159"/>
-      <c r="U23" s="159"/>
-      <c r="V23" s="159"/>
-      <c r="W23" s="159"/>
-      <c r="X23" s="159"/>
-      <c r="Y23" s="160"/>
+      <c r="O23" s="173"/>
+      <c r="P23" s="174"/>
+      <c r="Q23" s="175"/>
+      <c r="R23" s="164"/>
+      <c r="S23" s="165"/>
+      <c r="T23" s="165"/>
+      <c r="U23" s="165"/>
+      <c r="V23" s="165"/>
+      <c r="W23" s="165"/>
+      <c r="X23" s="165"/>
+      <c r="Y23" s="166"/>
       <c r="AB23" s="30"/>
       <c r="AC23" s="30" t="s">
         <v>323</v>
@@ -26256,11 +26191,11 @@
     </row>
     <row r="25" spans="4:38" ht="18" customHeight="1">
       <c r="N25" s="79"/>
-      <c r="O25" s="149" t="s">
+      <c r="O25" s="155" t="s">
         <v>569</v>
       </c>
-      <c r="P25" s="150"/>
-      <c r="Q25" s="151"/>
+      <c r="P25" s="156"/>
+      <c r="Q25" s="157"/>
       <c r="R25" s="32"/>
       <c r="S25" s="32"/>
       <c r="T25" s="32"/>
@@ -26283,20 +26218,20 @@
     </row>
     <row r="26" spans="4:38" ht="18" customHeight="1">
       <c r="N26" s="79"/>
-      <c r="O26" s="152"/>
-      <c r="P26" s="153"/>
-      <c r="Q26" s="154"/>
-      <c r="R26" s="161" t="str">
+      <c r="O26" s="158"/>
+      <c r="P26" s="159"/>
+      <c r="Q26" s="160"/>
+      <c r="R26" s="167" t="str">
         <f>IF(Fillout!D2&lt;&gt;"",Fillout!D2,"")</f>
         <v>Ilhana Coralic</v>
       </c>
-      <c r="S26" s="162"/>
-      <c r="T26" s="162"/>
-      <c r="U26" s="162"/>
-      <c r="V26" s="162"/>
-      <c r="W26" s="162"/>
-      <c r="X26" s="162"/>
-      <c r="Y26" s="163"/>
+      <c r="S26" s="168"/>
+      <c r="T26" s="168"/>
+      <c r="U26" s="168"/>
+      <c r="V26" s="168"/>
+      <c r="W26" s="168"/>
+      <c r="X26" s="168"/>
+      <c r="Y26" s="169"/>
       <c r="AB26" s="30"/>
       <c r="AC26" s="30"/>
       <c r="AD26" s="30"/>
@@ -26307,9 +26242,9 @@
     </row>
     <row r="27" spans="4:38" ht="18" customHeight="1">
       <c r="N27" s="79"/>
-      <c r="O27" s="152"/>
-      <c r="P27" s="153"/>
-      <c r="Q27" s="154"/>
+      <c r="O27" s="158"/>
+      <c r="P27" s="159"/>
+      <c r="Q27" s="160"/>
       <c r="X27" s="14"/>
       <c r="Y27" s="80"/>
       <c r="AB27" s="27" t="s">
@@ -26330,22 +26265,22 @@
     </row>
     <row r="28" spans="4:38" ht="18" customHeight="1">
       <c r="N28" s="79"/>
-      <c r="O28" s="170" t="s">
+      <c r="O28" s="176" t="s">
         <v>571</v>
       </c>
-      <c r="P28" s="171"/>
-      <c r="Q28" s="172"/>
-      <c r="R28" s="143" t="str">
+      <c r="P28" s="177"/>
+      <c r="Q28" s="178"/>
+      <c r="R28" s="149" t="str">
         <f>Fillout!B5</f>
         <v>To determine the current market value for Stamp Duty purposes only.</v>
       </c>
-      <c r="S28" s="144"/>
-      <c r="T28" s="144"/>
-      <c r="U28" s="144"/>
-      <c r="V28" s="144"/>
-      <c r="W28" s="144"/>
-      <c r="X28" s="144"/>
-      <c r="Y28" s="145"/>
+      <c r="S28" s="150"/>
+      <c r="T28" s="150"/>
+      <c r="U28" s="150"/>
+      <c r="V28" s="150"/>
+      <c r="W28" s="150"/>
+      <c r="X28" s="150"/>
+      <c r="Y28" s="151"/>
       <c r="AB28" s="27"/>
       <c r="AC28" s="27"/>
       <c r="AD28" s="27"/>
@@ -26360,17 +26295,17 @@
     </row>
     <row r="29" spans="4:38" ht="18" customHeight="1">
       <c r="N29" s="79"/>
-      <c r="O29" s="173"/>
-      <c r="P29" s="174"/>
-      <c r="Q29" s="175"/>
-      <c r="R29" s="146"/>
-      <c r="S29" s="147"/>
-      <c r="T29" s="147"/>
-      <c r="U29" s="147"/>
-      <c r="V29" s="147"/>
-      <c r="W29" s="147"/>
-      <c r="X29" s="147"/>
-      <c r="Y29" s="148"/>
+      <c r="O29" s="179"/>
+      <c r="P29" s="180"/>
+      <c r="Q29" s="181"/>
+      <c r="R29" s="152"/>
+      <c r="S29" s="153"/>
+      <c r="T29" s="153"/>
+      <c r="U29" s="153"/>
+      <c r="V29" s="153"/>
+      <c r="W29" s="153"/>
+      <c r="X29" s="153"/>
+      <c r="Y29" s="154"/>
       <c r="AB29" s="27" t="s">
         <v>215</v>
       </c>
@@ -26419,13 +26354,13 @@
       <c r="Q31" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="R31" s="182">
+      <c r="R31" s="141">
         <f>Fillout!B24</f>
         <v>45835</v>
       </c>
-      <c r="S31" s="182"/>
-      <c r="T31" s="182"/>
-      <c r="U31" s="182"/>
+      <c r="S31" s="141"/>
+      <c r="T31" s="141"/>
+      <c r="U31" s="141"/>
       <c r="V31" s="18"/>
       <c r="W31" s="18"/>
       <c r="X31" s="18"/>
@@ -26478,13 +26413,13 @@
       <c r="Q33" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="R33" s="182">
+      <c r="R33" s="141">
         <f>Fillout!B23</f>
         <v>45835</v>
       </c>
-      <c r="S33" s="182"/>
-      <c r="T33" s="182"/>
-      <c r="U33" s="182"/>
+      <c r="S33" s="141"/>
+      <c r="T33" s="141"/>
+      <c r="U33" s="141"/>
       <c r="V33" s="18"/>
       <c r="W33" s="18"/>
       <c r="X33" s="18"/>
@@ -26566,17 +26501,17 @@
       <c r="Q36" s="33" t="s">
         <v>250</v>
       </c>
-      <c r="R36" s="184">
+      <c r="R36" s="143">
         <f>Fillout!B184</f>
         <v>800000</v>
       </c>
-      <c r="S36" s="184"/>
-      <c r="T36" s="184"/>
-      <c r="U36" s="184"/>
-      <c r="V36" s="184"/>
-      <c r="W36" s="184"/>
-      <c r="X36" s="184"/>
-      <c r="Y36" s="185"/>
+      <c r="S36" s="143"/>
+      <c r="T36" s="143"/>
+      <c r="U36" s="143"/>
+      <c r="V36" s="143"/>
+      <c r="W36" s="143"/>
+      <c r="X36" s="143"/>
+      <c r="Y36" s="144"/>
       <c r="AB36" s="27"/>
       <c r="AC36" s="27"/>
       <c r="AD36" s="27"/>
@@ -26625,17 +26560,17 @@
       <c r="Q38" s="70" t="s">
         <v>576</v>
       </c>
-      <c r="R38" s="176" t="str">
+      <c r="R38" s="182" t="str">
         <f>Fillout!E184</f>
         <v>$800,000.00 (Eight Hundred Thousand Dollars)</v>
       </c>
-      <c r="S38" s="177"/>
-      <c r="T38" s="177"/>
-      <c r="U38" s="177"/>
-      <c r="V38" s="177"/>
-      <c r="W38" s="177"/>
-      <c r="X38" s="177"/>
-      <c r="Y38" s="178"/>
+      <c r="S38" s="183"/>
+      <c r="T38" s="183"/>
+      <c r="U38" s="183"/>
+      <c r="V38" s="183"/>
+      <c r="W38" s="183"/>
+      <c r="X38" s="183"/>
+      <c r="Y38" s="184"/>
       <c r="AB38" s="27"/>
       <c r="AC38" s="27"/>
       <c r="AD38" s="27"/>
@@ -26653,14 +26588,14 @@
       <c r="O39" s="14"/>
       <c r="P39" s="15"/>
       <c r="Q39" s="33"/>
-      <c r="R39" s="179"/>
-      <c r="S39" s="180"/>
-      <c r="T39" s="180"/>
-      <c r="U39" s="180"/>
-      <c r="V39" s="180"/>
-      <c r="W39" s="180"/>
-      <c r="X39" s="180"/>
-      <c r="Y39" s="181"/>
+      <c r="R39" s="185"/>
+      <c r="S39" s="186"/>
+      <c r="T39" s="186"/>
+      <c r="U39" s="186"/>
+      <c r="V39" s="186"/>
+      <c r="W39" s="186"/>
+      <c r="X39" s="186"/>
+      <c r="Y39" s="187"/>
       <c r="AB39" s="27" t="s">
         <v>251</v>
       </c>
@@ -26790,13 +26725,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="R33:U33"/>
-    <mergeCell ref="D8:H9"/>
-    <mergeCell ref="R36:Y36"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="R31:U31"/>
     <mergeCell ref="I45:L46"/>
     <mergeCell ref="O5:U6"/>
     <mergeCell ref="V5:Y6"/>
@@ -26809,6 +26737,13 @@
     <mergeCell ref="O22:Q23"/>
     <mergeCell ref="O28:Q29"/>
     <mergeCell ref="R38:Y39"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="R33:U33"/>
+    <mergeCell ref="D8:H9"/>
+    <mergeCell ref="R36:Y36"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="R31:U31"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D23" r:id="rId1" xr:uid="{D34E3AA7-FDB1-406F-A078-A7B0FCB09EAC}"/>
@@ -26825,8 +26760,7 @@
     <brk id="26" max="1048575" man="1"/>
   </colBreaks>
   <drawing r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
-  <legacyDrawingHF r:id="rId5"/>
+  <legacyDrawingHF r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -26837,7 +26771,7 @@
   </sheetPr>
   <dimension ref="B4:DY40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="45" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="45" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageLayout" zoomScale="45" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="45" workbookViewId="0">
       <selection activeCell="CG17" sqref="CG17"/>
     </sheetView>
   </sheetViews>
@@ -26861,19 +26795,19 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:129" ht="21.75" customHeight="1">
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="147" t="s">
         <v>577</v>
       </c>
-      <c r="C4" s="141"/>
-      <c r="D4" s="141"/>
-      <c r="E4" s="141"/>
-      <c r="F4" s="141"/>
-      <c r="G4" s="141"/>
-      <c r="H4" s="141"/>
-      <c r="I4" s="141"/>
-      <c r="J4" s="141"/>
-      <c r="K4" s="141"/>
-      <c r="L4" s="141"/>
+      <c r="C4" s="147"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="147"/>
+      <c r="G4" s="147"/>
+      <c r="H4" s="147"/>
+      <c r="I4" s="147"/>
+      <c r="J4" s="147"/>
+      <c r="K4" s="147"/>
+      <c r="L4" s="147"/>
       <c r="O4" s="61" t="s">
         <v>578</v>
       </c>
@@ -26887,32 +26821,32 @@
       <c r="W4" s="47"/>
       <c r="X4" s="47"/>
       <c r="Y4" s="47"/>
-      <c r="AB4" s="141" t="s">
+      <c r="AB4" s="147" t="s">
         <v>579</v>
       </c>
-      <c r="AC4" s="141"/>
-      <c r="AD4" s="141"/>
-      <c r="AE4" s="141"/>
-      <c r="AF4" s="141"/>
-      <c r="AG4" s="141"/>
-      <c r="AH4" s="141"/>
-      <c r="AI4" s="141"/>
-      <c r="AJ4" s="141"/>
-      <c r="AK4" s="141"/>
-      <c r="AL4" s="141"/>
-      <c r="AO4" s="141" t="s">
+      <c r="AC4" s="147"/>
+      <c r="AD4" s="147"/>
+      <c r="AE4" s="147"/>
+      <c r="AF4" s="147"/>
+      <c r="AG4" s="147"/>
+      <c r="AH4" s="147"/>
+      <c r="AI4" s="147"/>
+      <c r="AJ4" s="147"/>
+      <c r="AK4" s="147"/>
+      <c r="AL4" s="147"/>
+      <c r="AO4" s="147" t="s">
         <v>580</v>
       </c>
-      <c r="AP4" s="141"/>
-      <c r="AQ4" s="141"/>
-      <c r="AR4" s="141"/>
-      <c r="AS4" s="141"/>
-      <c r="AT4" s="141"/>
-      <c r="AU4" s="141"/>
-      <c r="AV4" s="141"/>
-      <c r="AW4" s="141"/>
-      <c r="AX4" s="141"/>
-      <c r="AY4" s="141"/>
+      <c r="AP4" s="147"/>
+      <c r="AQ4" s="147"/>
+      <c r="AR4" s="147"/>
+      <c r="AS4" s="147"/>
+      <c r="AT4" s="147"/>
+      <c r="AU4" s="147"/>
+      <c r="AV4" s="147"/>
+      <c r="AW4" s="147"/>
+      <c r="AX4" s="147"/>
+      <c r="AY4" s="147"/>
       <c r="BB4" s="61" t="str">
         <f>IF(Fillout!B23&lt;&gt;Fillout!B24,"5.2 Current Condition &amp; Repairs","5.2 Condition &amp; Repairs")</f>
         <v>5.2 Condition &amp; Repairs</v>
@@ -26920,71 +26854,71 @@
       <c r="BO4" s="61" t="s">
         <v>581</v>
       </c>
-      <c r="CB4" s="141" t="s">
+      <c r="CB4" s="147" t="s">
         <v>582</v>
       </c>
-      <c r="CC4" s="141"/>
-      <c r="CD4" s="141"/>
-      <c r="CE4" s="141"/>
-      <c r="CF4" s="141"/>
-      <c r="CG4" s="141"/>
-      <c r="CH4" s="141"/>
-      <c r="CI4" s="141"/>
-      <c r="CJ4" s="141"/>
-      <c r="CK4" s="141"/>
-      <c r="CL4" s="141"/>
-      <c r="CO4" s="141" t="s">
+      <c r="CC4" s="147"/>
+      <c r="CD4" s="147"/>
+      <c r="CE4" s="147"/>
+      <c r="CF4" s="147"/>
+      <c r="CG4" s="147"/>
+      <c r="CH4" s="147"/>
+      <c r="CI4" s="147"/>
+      <c r="CJ4" s="147"/>
+      <c r="CK4" s="147"/>
+      <c r="CL4" s="147"/>
+      <c r="CO4" s="147" t="s">
         <v>583</v>
       </c>
-      <c r="CP4" s="141"/>
-      <c r="CQ4" s="141"/>
-      <c r="CR4" s="141"/>
-      <c r="CS4" s="141"/>
-      <c r="CT4" s="141"/>
-      <c r="CU4" s="141"/>
-      <c r="CV4" s="141"/>
-      <c r="CW4" s="141"/>
-      <c r="CX4" s="141"/>
-      <c r="CY4" s="141"/>
-      <c r="DB4" s="141" t="s">
+      <c r="CP4" s="147"/>
+      <c r="CQ4" s="147"/>
+      <c r="CR4" s="147"/>
+      <c r="CS4" s="147"/>
+      <c r="CT4" s="147"/>
+      <c r="CU4" s="147"/>
+      <c r="CV4" s="147"/>
+      <c r="CW4" s="147"/>
+      <c r="CX4" s="147"/>
+      <c r="CY4" s="147"/>
+      <c r="DB4" s="147" t="s">
         <v>584</v>
       </c>
-      <c r="DC4" s="141"/>
-      <c r="DD4" s="141"/>
-      <c r="DE4" s="141"/>
-      <c r="DF4" s="141"/>
-      <c r="DG4" s="141"/>
-      <c r="DH4" s="141"/>
-      <c r="DI4" s="141"/>
-      <c r="DJ4" s="141"/>
-      <c r="DK4" s="141"/>
-      <c r="DL4" s="141"/>
-      <c r="DO4" s="141" t="s">
+      <c r="DC4" s="147"/>
+      <c r="DD4" s="147"/>
+      <c r="DE4" s="147"/>
+      <c r="DF4" s="147"/>
+      <c r="DG4" s="147"/>
+      <c r="DH4" s="147"/>
+      <c r="DI4" s="147"/>
+      <c r="DJ4" s="147"/>
+      <c r="DK4" s="147"/>
+      <c r="DL4" s="147"/>
+      <c r="DO4" s="147" t="s">
         <v>585</v>
       </c>
-      <c r="DP4" s="141"/>
-      <c r="DQ4" s="141"/>
-      <c r="DR4" s="141"/>
-      <c r="DS4" s="141"/>
-      <c r="DT4" s="141"/>
-      <c r="DU4" s="141"/>
-      <c r="DV4" s="141"/>
-      <c r="DW4" s="141"/>
-      <c r="DX4" s="141"/>
-      <c r="DY4" s="141"/>
+      <c r="DP4" s="147"/>
+      <c r="DQ4" s="147"/>
+      <c r="DR4" s="147"/>
+      <c r="DS4" s="147"/>
+      <c r="DT4" s="147"/>
+      <c r="DU4" s="147"/>
+      <c r="DV4" s="147"/>
+      <c r="DW4" s="147"/>
+      <c r="DX4" s="147"/>
+      <c r="DY4" s="147"/>
     </row>
     <row r="5" spans="2:129" ht="24" customHeight="1">
-      <c r="B5" s="141"/>
-      <c r="C5" s="141"/>
-      <c r="D5" s="141"/>
-      <c r="E5" s="141"/>
-      <c r="F5" s="141"/>
-      <c r="G5" s="141"/>
-      <c r="H5" s="141"/>
-      <c r="I5" s="141"/>
-      <c r="J5" s="141"/>
-      <c r="K5" s="141"/>
-      <c r="L5" s="141"/>
+      <c r="B5" s="147"/>
+      <c r="C5" s="147"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="147"/>
+      <c r="K5" s="147"/>
+      <c r="L5" s="147"/>
       <c r="Q5" s="46"/>
       <c r="R5" s="47"/>
       <c r="S5" s="47"/>
@@ -26994,89 +26928,89 @@
       <c r="W5" s="47"/>
       <c r="X5" s="47"/>
       <c r="Y5" s="47"/>
-      <c r="AB5" s="141"/>
-      <c r="AC5" s="141"/>
-      <c r="AD5" s="141"/>
-      <c r="AE5" s="141"/>
-      <c r="AF5" s="141"/>
-      <c r="AG5" s="141"/>
-      <c r="AH5" s="141"/>
-      <c r="AI5" s="141"/>
-      <c r="AJ5" s="141"/>
-      <c r="AK5" s="141"/>
-      <c r="AL5" s="141"/>
-      <c r="AO5" s="141"/>
-      <c r="AP5" s="141"/>
-      <c r="AQ5" s="141"/>
-      <c r="AR5" s="141"/>
-      <c r="AS5" s="141"/>
-      <c r="AT5" s="141"/>
-      <c r="AU5" s="141"/>
-      <c r="AV5" s="141"/>
-      <c r="AW5" s="141"/>
-      <c r="AX5" s="141"/>
-      <c r="AY5" s="141"/>
+      <c r="AB5" s="147"/>
+      <c r="AC5" s="147"/>
+      <c r="AD5" s="147"/>
+      <c r="AE5" s="147"/>
+      <c r="AF5" s="147"/>
+      <c r="AG5" s="147"/>
+      <c r="AH5" s="147"/>
+      <c r="AI5" s="147"/>
+      <c r="AJ5" s="147"/>
+      <c r="AK5" s="147"/>
+      <c r="AL5" s="147"/>
+      <c r="AO5" s="147"/>
+      <c r="AP5" s="147"/>
+      <c r="AQ5" s="147"/>
+      <c r="AR5" s="147"/>
+      <c r="AS5" s="147"/>
+      <c r="AT5" s="147"/>
+      <c r="AU5" s="147"/>
+      <c r="AV5" s="147"/>
+      <c r="AW5" s="147"/>
+      <c r="AX5" s="147"/>
+      <c r="AY5" s="147"/>
       <c r="BB5" s="61"/>
-      <c r="CB5" s="141"/>
-      <c r="CC5" s="141"/>
-      <c r="CD5" s="141"/>
-      <c r="CE5" s="141"/>
-      <c r="CF5" s="141"/>
-      <c r="CG5" s="141"/>
-      <c r="CH5" s="141"/>
-      <c r="CI5" s="141"/>
-      <c r="CJ5" s="141"/>
-      <c r="CK5" s="141"/>
-      <c r="CL5" s="141"/>
-      <c r="CO5" s="141"/>
-      <c r="CP5" s="141"/>
-      <c r="CQ5" s="141"/>
-      <c r="CR5" s="141"/>
-      <c r="CS5" s="141"/>
-      <c r="CT5" s="141"/>
-      <c r="CU5" s="141"/>
-      <c r="CV5" s="141"/>
-      <c r="CW5" s="141"/>
-      <c r="CX5" s="141"/>
-      <c r="CY5" s="141"/>
-      <c r="DB5" s="141"/>
-      <c r="DC5" s="141"/>
-      <c r="DD5" s="141"/>
-      <c r="DE5" s="141"/>
-      <c r="DF5" s="141"/>
-      <c r="DG5" s="141"/>
-      <c r="DH5" s="141"/>
-      <c r="DI5" s="141"/>
-      <c r="DJ5" s="141"/>
-      <c r="DK5" s="141"/>
-      <c r="DL5" s="141"/>
-      <c r="DO5" s="141"/>
-      <c r="DP5" s="141"/>
-      <c r="DQ5" s="141"/>
-      <c r="DR5" s="141"/>
-      <c r="DS5" s="141"/>
-      <c r="DT5" s="141"/>
-      <c r="DU5" s="141"/>
-      <c r="DV5" s="141"/>
-      <c r="DW5" s="141"/>
-      <c r="DX5" s="141"/>
-      <c r="DY5" s="141"/>
+      <c r="CB5" s="147"/>
+      <c r="CC5" s="147"/>
+      <c r="CD5" s="147"/>
+      <c r="CE5" s="147"/>
+      <c r="CF5" s="147"/>
+      <c r="CG5" s="147"/>
+      <c r="CH5" s="147"/>
+      <c r="CI5" s="147"/>
+      <c r="CJ5" s="147"/>
+      <c r="CK5" s="147"/>
+      <c r="CL5" s="147"/>
+      <c r="CO5" s="147"/>
+      <c r="CP5" s="147"/>
+      <c r="CQ5" s="147"/>
+      <c r="CR5" s="147"/>
+      <c r="CS5" s="147"/>
+      <c r="CT5" s="147"/>
+      <c r="CU5" s="147"/>
+      <c r="CV5" s="147"/>
+      <c r="CW5" s="147"/>
+      <c r="CX5" s="147"/>
+      <c r="CY5" s="147"/>
+      <c r="DB5" s="147"/>
+      <c r="DC5" s="147"/>
+      <c r="DD5" s="147"/>
+      <c r="DE5" s="147"/>
+      <c r="DF5" s="147"/>
+      <c r="DG5" s="147"/>
+      <c r="DH5" s="147"/>
+      <c r="DI5" s="147"/>
+      <c r="DJ5" s="147"/>
+      <c r="DK5" s="147"/>
+      <c r="DL5" s="147"/>
+      <c r="DO5" s="147"/>
+      <c r="DP5" s="147"/>
+      <c r="DQ5" s="147"/>
+      <c r="DR5" s="147"/>
+      <c r="DS5" s="147"/>
+      <c r="DT5" s="147"/>
+      <c r="DU5" s="147"/>
+      <c r="DV5" s="147"/>
+      <c r="DW5" s="147"/>
+      <c r="DX5" s="147"/>
+      <c r="DY5" s="147"/>
     </row>
     <row r="6" spans="2:129" ht="21.75" customHeight="1">
       <c r="Q6" s="46" t="s">
         <v>250</v>
       </c>
-      <c r="R6" s="191" t="str">
+      <c r="R6" s="202" t="str">
         <f>Fillout!C184</f>
         <v>$800,000.00</v>
       </c>
-      <c r="S6" s="191"/>
-      <c r="T6" s="191"/>
-      <c r="U6" s="191"/>
-      <c r="V6" s="191"/>
-      <c r="W6" s="191"/>
-      <c r="X6" s="191"/>
-      <c r="Y6" s="191"/>
+      <c r="S6" s="202"/>
+      <c r="T6" s="202"/>
+      <c r="U6" s="202"/>
+      <c r="V6" s="202"/>
+      <c r="W6" s="202"/>
+      <c r="X6" s="202"/>
+      <c r="Y6" s="202"/>
       <c r="BD6" s="71" t="s">
         <v>195</v>
       </c>
@@ -27128,22 +27062,22 @@
       <c r="W7" s="47"/>
       <c r="X7" s="47"/>
       <c r="Y7" s="47"/>
-      <c r="AB7" s="192" t="str">
+      <c r="AB7" s="203" t="str">
         <f>Fillout!B59 &amp;"
 " &amp;Fillout!B60</f>
         <v>The Subject property is situated in Cartwright, is a suburb in south western of Sydney, in the state of New South Wales, Australia, located 38 kilometres south-west of the Sydney central business district. The local government area of City of Liverpool. The nearest bus stop at Hoxton Park Rd at Balmain Rd is 240 metres away. The nearest shopping centre is available 1.4 kilometres away from the subject property. The nearest schools, Cartwright Public School and Miller Technology High School, are 500 metres and 1.6 kilometres away respectively from the property. Road transport to the Sydney by car takes around 38 minutes.
 The subject property is located in a well-established residential neighbourhood, comprising predominantly of dwellings of varying age and styles of a complementary nature. The property is situated within close distance to the local shop, school, park, train and bus transport.</v>
       </c>
-      <c r="AC7" s="192"/>
-      <c r="AD7" s="192"/>
-      <c r="AE7" s="192"/>
-      <c r="AF7" s="192"/>
-      <c r="AG7" s="192"/>
-      <c r="AH7" s="192"/>
-      <c r="AI7" s="192"/>
-      <c r="AJ7" s="192"/>
-      <c r="AK7" s="192"/>
-      <c r="AL7" s="192"/>
+      <c r="AC7" s="203"/>
+      <c r="AD7" s="203"/>
+      <c r="AE7" s="203"/>
+      <c r="AF7" s="203"/>
+      <c r="AG7" s="203"/>
+      <c r="AH7" s="203"/>
+      <c r="AI7" s="203"/>
+      <c r="AJ7" s="203"/>
+      <c r="AK7" s="203"/>
+      <c r="AL7" s="203"/>
       <c r="AO7" s="44"/>
       <c r="AP7" s="45"/>
       <c r="AQ7" s="71" t="s">
@@ -27195,19 +27129,19 @@
       <c r="CX7" s="72" t="s">
         <v>247</v>
       </c>
-      <c r="DB7" s="203" t="s">
+      <c r="DB7" s="191" t="s">
         <v>590</v>
       </c>
-      <c r="DC7" s="203"/>
-      <c r="DD7" s="203"/>
-      <c r="DE7" s="203"/>
-      <c r="DF7" s="203"/>
-      <c r="DG7" s="203"/>
-      <c r="DH7" s="203"/>
-      <c r="DI7" s="203"/>
-      <c r="DJ7" s="203"/>
-      <c r="DK7" s="203"/>
-      <c r="DL7" s="203"/>
+      <c r="DC7" s="191"/>
+      <c r="DD7" s="191"/>
+      <c r="DE7" s="191"/>
+      <c r="DF7" s="191"/>
+      <c r="DG7" s="191"/>
+      <c r="DH7" s="191"/>
+      <c r="DI7" s="191"/>
+      <c r="DJ7" s="191"/>
+      <c r="DK7" s="191"/>
+      <c r="DL7" s="191"/>
     </row>
     <row r="8" spans="2:129" ht="21.75" customHeight="1">
       <c r="B8" s="45"/>
@@ -27223,33 +27157,33 @@
       <c r="L8" s="47"/>
       <c r="O8" s="45"/>
       <c r="P8" s="45"/>
-      <c r="AB8" s="192"/>
-      <c r="AC8" s="192"/>
-      <c r="AD8" s="192"/>
-      <c r="AE8" s="192"/>
-      <c r="AF8" s="192"/>
-      <c r="AG8" s="192"/>
-      <c r="AH8" s="192"/>
-      <c r="AI8" s="192"/>
-      <c r="AJ8" s="192"/>
-      <c r="AK8" s="192"/>
-      <c r="AL8" s="192"/>
+      <c r="AB8" s="203"/>
+      <c r="AC8" s="203"/>
+      <c r="AD8" s="203"/>
+      <c r="AE8" s="203"/>
+      <c r="AF8" s="203"/>
+      <c r="AG8" s="203"/>
+      <c r="AH8" s="203"/>
+      <c r="AI8" s="203"/>
+      <c r="AJ8" s="203"/>
+      <c r="AK8" s="203"/>
+      <c r="AL8" s="203"/>
       <c r="AO8" s="48"/>
       <c r="AP8" s="48"/>
       <c r="AQ8" s="71" t="s">
         <v>213</v>
       </c>
-      <c r="AR8" s="194" t="str">
+      <c r="AR8" s="193" t="str">
         <f ca="1">Fillout!B138</f>
         <v>An irregular shaped land parcel positioned at the road height position. The pedestrian access provided along Willan Drive is good and the site appears to have satisfactory surface drainage.</v>
       </c>
-      <c r="AS8" s="194"/>
-      <c r="AT8" s="194"/>
-      <c r="AU8" s="194"/>
-      <c r="AV8" s="194"/>
-      <c r="AW8" s="194"/>
-      <c r="AX8" s="194"/>
-      <c r="AY8" s="194"/>
+      <c r="AS8" s="193"/>
+      <c r="AT8" s="193"/>
+      <c r="AU8" s="193"/>
+      <c r="AV8" s="193"/>
+      <c r="AW8" s="193"/>
+      <c r="AX8" s="193"/>
+      <c r="AY8" s="193"/>
       <c r="BD8" s="71" t="s">
         <v>591</v>
       </c>
@@ -27273,17 +27207,17 @@
       </c>
       <c r="BR8" s="83"/>
       <c r="CO8" s="56"/>
-      <c r="DB8" s="203"/>
-      <c r="DC8" s="203"/>
-      <c r="DD8" s="203"/>
-      <c r="DE8" s="203"/>
-      <c r="DF8" s="203"/>
-      <c r="DG8" s="203"/>
-      <c r="DH8" s="203"/>
-      <c r="DI8" s="203"/>
-      <c r="DJ8" s="203"/>
-      <c r="DK8" s="203"/>
-      <c r="DL8" s="203"/>
+      <c r="DB8" s="191"/>
+      <c r="DC8" s="191"/>
+      <c r="DD8" s="191"/>
+      <c r="DE8" s="191"/>
+      <c r="DF8" s="191"/>
+      <c r="DG8" s="191"/>
+      <c r="DH8" s="191"/>
+      <c r="DI8" s="191"/>
+      <c r="DJ8" s="191"/>
+      <c r="DK8" s="191"/>
+      <c r="DL8" s="191"/>
     </row>
     <row r="9" spans="2:129" ht="21.75" customHeight="1">
       <c r="B9" s="48"/>
@@ -27307,38 +27241,38 @@
       <c r="Q9" s="46" t="s">
         <v>593</v>
       </c>
-      <c r="R9" s="190" t="s">
+      <c r="R9" s="201" t="s">
         <v>594</v>
       </c>
-      <c r="S9" s="190"/>
-      <c r="T9" s="190"/>
-      <c r="U9" s="190"/>
-      <c r="V9" s="190"/>
-      <c r="W9" s="190"/>
-      <c r="X9" s="190"/>
-      <c r="Y9" s="190"/>
-      <c r="AB9" s="192"/>
-      <c r="AC9" s="192"/>
-      <c r="AD9" s="192"/>
-      <c r="AE9" s="192"/>
-      <c r="AF9" s="192"/>
-      <c r="AG9" s="192"/>
-      <c r="AH9" s="192"/>
-      <c r="AI9" s="192"/>
-      <c r="AJ9" s="192"/>
-      <c r="AK9" s="192"/>
-      <c r="AL9" s="192"/>
+      <c r="S9" s="201"/>
+      <c r="T9" s="201"/>
+      <c r="U9" s="201"/>
+      <c r="V9" s="201"/>
+      <c r="W9" s="201"/>
+      <c r="X9" s="201"/>
+      <c r="Y9" s="201"/>
+      <c r="AB9" s="203"/>
+      <c r="AC9" s="203"/>
+      <c r="AD9" s="203"/>
+      <c r="AE9" s="203"/>
+      <c r="AF9" s="203"/>
+      <c r="AG9" s="203"/>
+      <c r="AH9" s="203"/>
+      <c r="AI9" s="203"/>
+      <c r="AJ9" s="203"/>
+      <c r="AK9" s="203"/>
+      <c r="AL9" s="203"/>
       <c r="AO9" s="49"/>
       <c r="AP9" s="49"/>
       <c r="AQ9" s="71"/>
-      <c r="AR9" s="194"/>
-      <c r="AS9" s="194"/>
-      <c r="AT9" s="194"/>
-      <c r="AU9" s="194"/>
-      <c r="AV9" s="194"/>
-      <c r="AW9" s="194"/>
-      <c r="AX9" s="194"/>
-      <c r="AY9" s="194"/>
+      <c r="AR9" s="193"/>
+      <c r="AS9" s="193"/>
+      <c r="AT9" s="193"/>
+      <c r="AU9" s="193"/>
+      <c r="AV9" s="193"/>
+      <c r="AW9" s="193"/>
+      <c r="AX9" s="193"/>
+      <c r="AY9" s="193"/>
       <c r="BD9" s="71" t="s">
         <v>199</v>
       </c>
@@ -27353,30 +27287,30 @@
       <c r="BJ9" s="83"/>
       <c r="BK9" s="83"/>
       <c r="BL9" s="83"/>
-      <c r="CO9" s="141" t="s">
+      <c r="CO9" s="147" t="s">
         <v>595</v>
       </c>
-      <c r="CP9" s="141"/>
-      <c r="CQ9" s="141"/>
-      <c r="CR9" s="141"/>
-      <c r="CS9" s="141"/>
-      <c r="CT9" s="141"/>
-      <c r="CU9" s="141"/>
-      <c r="CV9" s="141"/>
-      <c r="CW9" s="141"/>
-      <c r="CX9" s="141"/>
-      <c r="CY9" s="141"/>
-      <c r="DB9" s="203"/>
-      <c r="DC9" s="203"/>
-      <c r="DD9" s="203"/>
-      <c r="DE9" s="203"/>
-      <c r="DF9" s="203"/>
-      <c r="DG9" s="203"/>
-      <c r="DH9" s="203"/>
-      <c r="DI9" s="203"/>
-      <c r="DJ9" s="203"/>
-      <c r="DK9" s="203"/>
-      <c r="DL9" s="203"/>
+      <c r="CP9" s="147"/>
+      <c r="CQ9" s="147"/>
+      <c r="CR9" s="147"/>
+      <c r="CS9" s="147"/>
+      <c r="CT9" s="147"/>
+      <c r="CU9" s="147"/>
+      <c r="CV9" s="147"/>
+      <c r="CW9" s="147"/>
+      <c r="CX9" s="147"/>
+      <c r="CY9" s="147"/>
+      <c r="DB9" s="191"/>
+      <c r="DC9" s="191"/>
+      <c r="DD9" s="191"/>
+      <c r="DE9" s="191"/>
+      <c r="DF9" s="191"/>
+      <c r="DG9" s="191"/>
+      <c r="DH9" s="191"/>
+      <c r="DI9" s="191"/>
+      <c r="DJ9" s="191"/>
+      <c r="DK9" s="191"/>
+      <c r="DL9" s="191"/>
     </row>
     <row r="10" spans="2:129" ht="21.75" customHeight="1">
       <c r="B10" s="49"/>
@@ -27400,28 +27334,28 @@
       <c r="Q10" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="R10" s="190">
+      <c r="R10" s="201">
         <f>Fillout!B23</f>
         <v>45835</v>
       </c>
-      <c r="S10" s="190"/>
-      <c r="T10" s="190"/>
-      <c r="U10" s="190"/>
-      <c r="V10" s="190"/>
-      <c r="W10" s="190"/>
-      <c r="X10" s="190"/>
-      <c r="Y10" s="190"/>
-      <c r="AB10" s="192"/>
-      <c r="AC10" s="192"/>
-      <c r="AD10" s="192"/>
-      <c r="AE10" s="192"/>
-      <c r="AF10" s="192"/>
-      <c r="AG10" s="192"/>
-      <c r="AH10" s="192"/>
-      <c r="AI10" s="192"/>
-      <c r="AJ10" s="192"/>
-      <c r="AK10" s="192"/>
-      <c r="AL10" s="192"/>
+      <c r="S10" s="201"/>
+      <c r="T10" s="201"/>
+      <c r="U10" s="201"/>
+      <c r="V10" s="201"/>
+      <c r="W10" s="201"/>
+      <c r="X10" s="201"/>
+      <c r="Y10" s="201"/>
+      <c r="AB10" s="203"/>
+      <c r="AC10" s="203"/>
+      <c r="AD10" s="203"/>
+      <c r="AE10" s="203"/>
+      <c r="AF10" s="203"/>
+      <c r="AG10" s="203"/>
+      <c r="AH10" s="203"/>
+      <c r="AI10" s="203"/>
+      <c r="AJ10" s="203"/>
+      <c r="AK10" s="203"/>
+      <c r="AL10" s="203"/>
       <c r="AO10" s="49"/>
       <c r="AP10" s="49"/>
       <c r="AQ10" s="71" t="s">
@@ -27450,28 +27384,28 @@
       <c r="BJ10" s="83"/>
       <c r="BK10" s="83"/>
       <c r="BL10" s="83"/>
-      <c r="CO10" s="141"/>
-      <c r="CP10" s="141"/>
-      <c r="CQ10" s="141"/>
-      <c r="CR10" s="141"/>
-      <c r="CS10" s="141"/>
-      <c r="CT10" s="141"/>
-      <c r="CU10" s="141"/>
-      <c r="CV10" s="141"/>
-      <c r="CW10" s="141"/>
-      <c r="CX10" s="141"/>
-      <c r="CY10" s="141"/>
-      <c r="DB10" s="203"/>
-      <c r="DC10" s="203"/>
-      <c r="DD10" s="203"/>
-      <c r="DE10" s="203"/>
-      <c r="DF10" s="203"/>
-      <c r="DG10" s="203"/>
-      <c r="DH10" s="203"/>
-      <c r="DI10" s="203"/>
-      <c r="DJ10" s="203"/>
-      <c r="DK10" s="203"/>
-      <c r="DL10" s="203"/>
+      <c r="CO10" s="147"/>
+      <c r="CP10" s="147"/>
+      <c r="CQ10" s="147"/>
+      <c r="CR10" s="147"/>
+      <c r="CS10" s="147"/>
+      <c r="CT10" s="147"/>
+      <c r="CU10" s="147"/>
+      <c r="CV10" s="147"/>
+      <c r="CW10" s="147"/>
+      <c r="CX10" s="147"/>
+      <c r="CY10" s="147"/>
+      <c r="DB10" s="191"/>
+      <c r="DC10" s="191"/>
+      <c r="DD10" s="191"/>
+      <c r="DE10" s="191"/>
+      <c r="DF10" s="191"/>
+      <c r="DG10" s="191"/>
+      <c r="DH10" s="191"/>
+      <c r="DI10" s="191"/>
+      <c r="DJ10" s="191"/>
+      <c r="DK10" s="191"/>
+      <c r="DL10" s="191"/>
     </row>
     <row r="11" spans="2:129" ht="21.75" customHeight="1">
       <c r="B11" s="48"/>
@@ -27479,44 +27413,44 @@
       <c r="D11" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="E11" s="189" t="str">
+      <c r="E11" s="196" t="str">
         <f>Fillout!B5&amp;" Please note this report does not meet practice standards for mortgage purposes and is specifically not suitable for that purpose."</f>
         <v>To determine the current market value for Stamp Duty purposes only. Please note this report does not meet practice standards for mortgage purposes and is specifically not suitable for that purpose.</v>
       </c>
-      <c r="F11" s="189"/>
-      <c r="G11" s="189"/>
-      <c r="H11" s="189"/>
-      <c r="I11" s="189"/>
-      <c r="J11" s="189"/>
-      <c r="K11" s="189"/>
-      <c r="L11" s="189"/>
+      <c r="F11" s="196"/>
+      <c r="G11" s="196"/>
+      <c r="H11" s="196"/>
+      <c r="I11" s="196"/>
+      <c r="J11" s="196"/>
+      <c r="K11" s="196"/>
+      <c r="L11" s="196"/>
       <c r="O11" s="48"/>
       <c r="P11" s="49"/>
       <c r="Q11" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="R11" s="190">
+      <c r="R11" s="201">
         <f>Fillout!B24</f>
         <v>45835</v>
       </c>
-      <c r="S11" s="190"/>
-      <c r="T11" s="190"/>
-      <c r="U11" s="190"/>
-      <c r="V11" s="190"/>
-      <c r="W11" s="190"/>
-      <c r="X11" s="190"/>
-      <c r="Y11" s="190"/>
-      <c r="AB11" s="192"/>
-      <c r="AC11" s="192"/>
-      <c r="AD11" s="192"/>
-      <c r="AE11" s="192"/>
-      <c r="AF11" s="192"/>
-      <c r="AG11" s="192"/>
-      <c r="AH11" s="192"/>
-      <c r="AI11" s="192"/>
-      <c r="AJ11" s="192"/>
-      <c r="AK11" s="192"/>
-      <c r="AL11" s="192"/>
+      <c r="S11" s="201"/>
+      <c r="T11" s="201"/>
+      <c r="U11" s="201"/>
+      <c r="V11" s="201"/>
+      <c r="W11" s="201"/>
+      <c r="X11" s="201"/>
+      <c r="Y11" s="201"/>
+      <c r="AB11" s="203"/>
+      <c r="AC11" s="203"/>
+      <c r="AD11" s="203"/>
+      <c r="AE11" s="203"/>
+      <c r="AF11" s="203"/>
+      <c r="AG11" s="203"/>
+      <c r="AH11" s="203"/>
+      <c r="AI11" s="203"/>
+      <c r="AJ11" s="203"/>
+      <c r="AK11" s="203"/>
+      <c r="AL11" s="203"/>
       <c r="AO11" s="48"/>
       <c r="AP11" s="49"/>
       <c r="AQ11" s="71" t="s">
@@ -27537,73 +27471,73 @@
         <f ca="1">IF(Data!FW6="",Data!FX6,_xlfn.CONCAT(Data!FW6," | ",Data!FX6))</f>
         <v>Prime Cost Items | Bathroom</v>
       </c>
-      <c r="BE11" s="188" t="str">
+      <c r="BE11" s="189" t="str">
         <f ca="1">Data!FY6</f>
         <v>Toilet suite, Shower, Vanity and Exhaust fan</v>
       </c>
-      <c r="BF11" s="188"/>
-      <c r="BG11" s="188"/>
-      <c r="BH11" s="188"/>
-      <c r="BI11" s="188"/>
-      <c r="BJ11" s="188"/>
-      <c r="BK11" s="188"/>
-      <c r="BL11" s="188"/>
+      <c r="BF11" s="189"/>
+      <c r="BG11" s="189"/>
+      <c r="BH11" s="189"/>
+      <c r="BI11" s="189"/>
+      <c r="BJ11" s="189"/>
+      <c r="BK11" s="189"/>
+      <c r="BL11" s="189"/>
       <c r="BM11" s="62"/>
       <c r="CO11" s="56"/>
       <c r="CP11" s="56"/>
       <c r="CQ11" s="56"/>
       <c r="CR11" s="56"/>
-      <c r="DB11" s="203"/>
-      <c r="DC11" s="203"/>
-      <c r="DD11" s="203"/>
-      <c r="DE11" s="203"/>
-      <c r="DF11" s="203"/>
-      <c r="DG11" s="203"/>
-      <c r="DH11" s="203"/>
-      <c r="DI11" s="203"/>
-      <c r="DJ11" s="203"/>
-      <c r="DK11" s="203"/>
-      <c r="DL11" s="203"/>
+      <c r="DB11" s="191"/>
+      <c r="DC11" s="191"/>
+      <c r="DD11" s="191"/>
+      <c r="DE11" s="191"/>
+      <c r="DF11" s="191"/>
+      <c r="DG11" s="191"/>
+      <c r="DH11" s="191"/>
+      <c r="DI11" s="191"/>
+      <c r="DJ11" s="191"/>
+      <c r="DK11" s="191"/>
+      <c r="DL11" s="191"/>
     </row>
     <row r="12" spans="2:129" ht="21.75" customHeight="1">
       <c r="B12" s="49"/>
       <c r="C12" s="49"/>
       <c r="D12" s="46"/>
-      <c r="E12" s="189"/>
-      <c r="F12" s="189"/>
-      <c r="G12" s="189"/>
-      <c r="H12" s="189"/>
-      <c r="I12" s="189"/>
-      <c r="J12" s="189"/>
-      <c r="K12" s="189"/>
-      <c r="L12" s="189"/>
+      <c r="E12" s="196"/>
+      <c r="F12" s="196"/>
+      <c r="G12" s="196"/>
+      <c r="H12" s="196"/>
+      <c r="I12" s="196"/>
+      <c r="J12" s="196"/>
+      <c r="K12" s="196"/>
+      <c r="L12" s="196"/>
       <c r="O12" s="49"/>
       <c r="P12" s="49"/>
       <c r="Q12" s="46" t="s">
         <v>603</v>
       </c>
-      <c r="R12" s="190">
+      <c r="R12" s="201">
         <f>Fillout!B22</f>
         <v>45835</v>
       </c>
-      <c r="S12" s="190"/>
-      <c r="T12" s="190"/>
-      <c r="U12" s="190"/>
-      <c r="V12" s="190"/>
-      <c r="W12" s="190"/>
-      <c r="X12" s="190"/>
-      <c r="Y12" s="190"/>
-      <c r="AB12" s="192"/>
-      <c r="AC12" s="192"/>
-      <c r="AD12" s="192"/>
-      <c r="AE12" s="192"/>
-      <c r="AF12" s="192"/>
-      <c r="AG12" s="192"/>
-      <c r="AH12" s="192"/>
-      <c r="AI12" s="192"/>
-      <c r="AJ12" s="192"/>
-      <c r="AK12" s="192"/>
-      <c r="AL12" s="192"/>
+      <c r="S12" s="201"/>
+      <c r="T12" s="201"/>
+      <c r="U12" s="201"/>
+      <c r="V12" s="201"/>
+      <c r="W12" s="201"/>
+      <c r="X12" s="201"/>
+      <c r="Y12" s="201"/>
+      <c r="AB12" s="203"/>
+      <c r="AC12" s="203"/>
+      <c r="AD12" s="203"/>
+      <c r="AE12" s="203"/>
+      <c r="AF12" s="203"/>
+      <c r="AG12" s="203"/>
+      <c r="AH12" s="203"/>
+      <c r="AI12" s="203"/>
+      <c r="AJ12" s="203"/>
+      <c r="AK12" s="203"/>
+      <c r="AL12" s="203"/>
       <c r="AO12" s="44"/>
       <c r="AP12" s="49"/>
       <c r="AQ12" s="46"/>
@@ -27620,30 +27554,30 @@
         <f ca="1">IF(Data!FW7="",Data!FX7,_xlfn.CONCAT(Data!FW7," | ",Data!FX7))</f>
         <v>Kitchen</v>
       </c>
-      <c r="BE12" s="188" t="str">
+      <c r="BE12" s="189" t="str">
         <f ca="1">Data!FY7</f>
         <v>Double bowl sink, Cooktop, Oven, Freestanding cooktop and Dishwasher</v>
       </c>
-      <c r="BF12" s="188"/>
-      <c r="BG12" s="188"/>
-      <c r="BH12" s="188"/>
-      <c r="BI12" s="188"/>
-      <c r="BJ12" s="188"/>
-      <c r="BK12" s="188"/>
-      <c r="BL12" s="188"/>
-      <c r="BO12" s="141" t="s">
+      <c r="BF12" s="189"/>
+      <c r="BG12" s="189"/>
+      <c r="BH12" s="189"/>
+      <c r="BI12" s="189"/>
+      <c r="BJ12" s="189"/>
+      <c r="BK12" s="189"/>
+      <c r="BL12" s="189"/>
+      <c r="BO12" s="147" t="s">
         <v>604</v>
       </c>
-      <c r="BP12" s="141"/>
-      <c r="BQ12" s="141"/>
-      <c r="BR12" s="141"/>
-      <c r="BS12" s="141"/>
-      <c r="BT12" s="141"/>
-      <c r="BU12" s="141"/>
-      <c r="BV12" s="141"/>
-      <c r="BW12" s="141"/>
-      <c r="BX12" s="141"/>
-      <c r="BY12" s="141"/>
+      <c r="BP12" s="147"/>
+      <c r="BQ12" s="147"/>
+      <c r="BR12" s="147"/>
+      <c r="BS12" s="147"/>
+      <c r="BT12" s="147"/>
+      <c r="BU12" s="147"/>
+      <c r="BV12" s="147"/>
+      <c r="BW12" s="147"/>
+      <c r="BX12" s="147"/>
+      <c r="BY12" s="147"/>
       <c r="CB12"/>
       <c r="CC12"/>
       <c r="CD12"/>
@@ -27659,43 +27593,43 @@
         <v>605</v>
       </c>
       <c r="CR12" s="56"/>
-      <c r="DB12" s="203"/>
-      <c r="DC12" s="203"/>
-      <c r="DD12" s="203"/>
-      <c r="DE12" s="203"/>
-      <c r="DF12" s="203"/>
-      <c r="DG12" s="203"/>
-      <c r="DH12" s="203"/>
-      <c r="DI12" s="203"/>
-      <c r="DJ12" s="203"/>
-      <c r="DK12" s="203"/>
-      <c r="DL12" s="203"/>
+      <c r="DB12" s="191"/>
+      <c r="DC12" s="191"/>
+      <c r="DD12" s="191"/>
+      <c r="DE12" s="191"/>
+      <c r="DF12" s="191"/>
+      <c r="DG12" s="191"/>
+      <c r="DH12" s="191"/>
+      <c r="DI12" s="191"/>
+      <c r="DJ12" s="191"/>
+      <c r="DK12" s="191"/>
+      <c r="DL12" s="191"/>
     </row>
     <row r="13" spans="2:129" ht="21.75" customHeight="1">
       <c r="B13" s="48"/>
       <c r="C13" s="49"/>
       <c r="D13" s="46"/>
-      <c r="E13" s="189"/>
-      <c r="F13" s="189"/>
-      <c r="G13" s="189"/>
-      <c r="H13" s="189"/>
-      <c r="I13" s="189"/>
-      <c r="J13" s="189"/>
-      <c r="K13" s="189"/>
-      <c r="L13" s="189"/>
+      <c r="E13" s="196"/>
+      <c r="F13" s="196"/>
+      <c r="G13" s="196"/>
+      <c r="H13" s="196"/>
+      <c r="I13" s="196"/>
+      <c r="J13" s="196"/>
+      <c r="K13" s="196"/>
+      <c r="L13" s="196"/>
       <c r="O13" s="48"/>
       <c r="P13" s="49"/>
-      <c r="AB13" s="192"/>
-      <c r="AC13" s="192"/>
-      <c r="AD13" s="192"/>
-      <c r="AE13" s="192"/>
-      <c r="AF13" s="192"/>
-      <c r="AG13" s="192"/>
-      <c r="AH13" s="192"/>
-      <c r="AI13" s="192"/>
-      <c r="AJ13" s="192"/>
-      <c r="AK13" s="192"/>
-      <c r="AL13" s="192"/>
+      <c r="AB13" s="203"/>
+      <c r="AC13" s="203"/>
+      <c r="AD13" s="203"/>
+      <c r="AE13" s="203"/>
+      <c r="AF13" s="203"/>
+      <c r="AG13" s="203"/>
+      <c r="AH13" s="203"/>
+      <c r="AI13" s="203"/>
+      <c r="AJ13" s="203"/>
+      <c r="AK13" s="203"/>
+      <c r="AL13" s="203"/>
       <c r="AO13" s="49"/>
       <c r="AP13" s="49"/>
       <c r="AQ13" s="46"/>
@@ -27712,28 +27646,28 @@
         <f ca="1">IF(Data!FW8="",Data!FX8,_xlfn.CONCAT(Data!FW8," | ",Data!FX8))</f>
         <v>Laundry</v>
       </c>
-      <c r="BE13" s="188" t="str">
+      <c r="BE13" s="189" t="str">
         <f ca="1">Data!FY8</f>
         <v>Stainless steel laundry tub</v>
       </c>
-      <c r="BF13" s="188"/>
-      <c r="BG13" s="188"/>
-      <c r="BH13" s="188"/>
-      <c r="BI13" s="188"/>
-      <c r="BJ13" s="188"/>
-      <c r="BK13" s="188"/>
-      <c r="BL13" s="188"/>
-      <c r="BO13" s="141"/>
-      <c r="BP13" s="141"/>
-      <c r="BQ13" s="141"/>
-      <c r="BR13" s="141"/>
-      <c r="BS13" s="141"/>
-      <c r="BT13" s="141"/>
-      <c r="BU13" s="141"/>
-      <c r="BV13" s="141"/>
-      <c r="BW13" s="141"/>
-      <c r="BX13" s="141"/>
-      <c r="BY13" s="141"/>
+      <c r="BF13" s="189"/>
+      <c r="BG13" s="189"/>
+      <c r="BH13" s="189"/>
+      <c r="BI13" s="189"/>
+      <c r="BJ13" s="189"/>
+      <c r="BK13" s="189"/>
+      <c r="BL13" s="189"/>
+      <c r="BO13" s="147"/>
+      <c r="BP13" s="147"/>
+      <c r="BQ13" s="147"/>
+      <c r="BR13" s="147"/>
+      <c r="BS13" s="147"/>
+      <c r="BT13" s="147"/>
+      <c r="BU13" s="147"/>
+      <c r="BV13" s="147"/>
+      <c r="BW13" s="147"/>
+      <c r="BX13" s="147"/>
+      <c r="BY13" s="147"/>
       <c r="CB13"/>
       <c r="CC13"/>
       <c r="CD13"/>
@@ -27745,17 +27679,17 @@
       <c r="CJ13"/>
       <c r="CK13"/>
       <c r="CL13"/>
-      <c r="DB13" s="203"/>
-      <c r="DC13" s="203"/>
-      <c r="DD13" s="203"/>
-      <c r="DE13" s="203"/>
-      <c r="DF13" s="203"/>
-      <c r="DG13" s="203"/>
-      <c r="DH13" s="203"/>
-      <c r="DI13" s="203"/>
-      <c r="DJ13" s="203"/>
-      <c r="DK13" s="203"/>
-      <c r="DL13" s="203"/>
+      <c r="DB13" s="191"/>
+      <c r="DC13" s="191"/>
+      <c r="DD13" s="191"/>
+      <c r="DE13" s="191"/>
+      <c r="DF13" s="191"/>
+      <c r="DG13" s="191"/>
+      <c r="DH13" s="191"/>
+      <c r="DI13" s="191"/>
+      <c r="DJ13" s="191"/>
+      <c r="DK13" s="191"/>
+      <c r="DL13" s="191"/>
     </row>
     <row r="14" spans="2:129" ht="21.75" customHeight="1">
       <c r="B14" s="44" t="s">
@@ -27776,16 +27710,16 @@
       <c r="Q14" s="46" t="s">
         <v>607</v>
       </c>
-      <c r="R14" s="197" t="s">
+      <c r="R14" s="198" t="s">
         <v>608</v>
       </c>
-      <c r="S14" s="197"/>
-      <c r="T14" s="197"/>
-      <c r="U14" s="197"/>
-      <c r="V14" s="197"/>
-      <c r="W14" s="197"/>
-      <c r="X14" s="197"/>
-      <c r="Y14" s="197"/>
+      <c r="S14" s="198"/>
+      <c r="T14" s="198"/>
+      <c r="U14" s="198"/>
+      <c r="V14" s="198"/>
+      <c r="W14" s="198"/>
+      <c r="X14" s="198"/>
+      <c r="Y14" s="198"/>
       <c r="AB14" s="51"/>
       <c r="AC14" s="114" t="s">
         <v>253</v>
@@ -27814,42 +27748,42 @@
         <f ca="1">IF(Data!FW9="",Data!FX9,_xlfn.CONCAT(Data!FW9," | ",Data!FX9))</f>
         <v>General</v>
       </c>
-      <c r="BE14" s="188" t="str">
+      <c r="BE14" s="189" t="str">
         <f ca="1">Data!FY9</f>
         <v>Hot water system</v>
       </c>
-      <c r="BF14" s="188"/>
-      <c r="BG14" s="188"/>
-      <c r="BH14" s="188"/>
-      <c r="BI14" s="188"/>
-      <c r="BJ14" s="188"/>
-      <c r="BK14" s="188"/>
-      <c r="BL14" s="188"/>
-      <c r="CO14" s="201" t="str">
+      <c r="BF14" s="189"/>
+      <c r="BG14" s="189"/>
+      <c r="BH14" s="189"/>
+      <c r="BI14" s="189"/>
+      <c r="BJ14" s="189"/>
+      <c r="BK14" s="189"/>
+      <c r="BL14" s="189"/>
+      <c r="CO14" s="188" t="str">
         <f>Fillout!C173</f>
         <v>Sales evidence reflects 9 Avondale Place Cartwright has a similar Land size and has 3 bedrooms, 1 bathrooms and single garage, with vinyl cladding walls and a colorbond roof. In comparison to subject: Similar Land size. Inferior Location. Superior Accommodation. Overall Inferior. On balance, the considered indicative market value of the subject property is $800,000.</v>
       </c>
-      <c r="CP14" s="201"/>
-      <c r="CQ14" s="201"/>
-      <c r="CR14" s="201"/>
-      <c r="CS14" s="201"/>
-      <c r="CT14" s="201"/>
-      <c r="CU14" s="201"/>
-      <c r="CV14" s="201"/>
-      <c r="CW14" s="201"/>
-      <c r="CX14" s="201"/>
-      <c r="CY14" s="201"/>
-      <c r="DB14" s="203"/>
-      <c r="DC14" s="203"/>
-      <c r="DD14" s="203"/>
-      <c r="DE14" s="203"/>
-      <c r="DF14" s="203"/>
-      <c r="DG14" s="203"/>
-      <c r="DH14" s="203"/>
-      <c r="DI14" s="203"/>
-      <c r="DJ14" s="203"/>
-      <c r="DK14" s="203"/>
-      <c r="DL14" s="203"/>
+      <c r="CP14" s="188"/>
+      <c r="CQ14" s="188"/>
+      <c r="CR14" s="188"/>
+      <c r="CS14" s="188"/>
+      <c r="CT14" s="188"/>
+      <c r="CU14" s="188"/>
+      <c r="CV14" s="188"/>
+      <c r="CW14" s="188"/>
+      <c r="CX14" s="188"/>
+      <c r="CY14" s="188"/>
+      <c r="DB14" s="191"/>
+      <c r="DC14" s="191"/>
+      <c r="DD14" s="191"/>
+      <c r="DE14" s="191"/>
+      <c r="DF14" s="191"/>
+      <c r="DG14" s="191"/>
+      <c r="DH14" s="191"/>
+      <c r="DI14" s="191"/>
+      <c r="DJ14" s="191"/>
+      <c r="DK14" s="191"/>
+      <c r="DL14" s="191"/>
     </row>
     <row r="15" spans="2:129" ht="21.75" customHeight="1">
       <c r="B15" s="49"/>
@@ -27865,14 +27799,14 @@
       <c r="O15" s="49"/>
       <c r="P15" s="49"/>
       <c r="Q15" s="46"/>
-      <c r="R15" s="197"/>
-      <c r="S15" s="197"/>
-      <c r="T15" s="197"/>
-      <c r="U15" s="197"/>
-      <c r="V15" s="197"/>
-      <c r="W15" s="197"/>
-      <c r="X15" s="197"/>
-      <c r="Y15" s="197"/>
+      <c r="R15" s="198"/>
+      <c r="S15" s="198"/>
+      <c r="T15" s="198"/>
+      <c r="U15" s="198"/>
+      <c r="V15" s="198"/>
+      <c r="W15" s="198"/>
+      <c r="X15" s="198"/>
+      <c r="Y15" s="198"/>
       <c r="AO15" s="49"/>
       <c r="AP15" s="49"/>
       <c r="AQ15" s="46"/>
@@ -27889,52 +27823,52 @@
         <f ca="1">IF(Data!FW10="",Data!FX10,_xlfn.CONCAT(Data!FW10," | ",Data!FX10))</f>
         <v>Features &amp; Fixtures | Bedroom 1</v>
       </c>
-      <c r="BE15" s="188" t="str">
+      <c r="BE15" s="189" t="str">
         <f ca="1">Data!FY10</f>
         <v>Tile flooring, Blinds and Aluminium framed windows</v>
       </c>
-      <c r="BF15" s="188"/>
-      <c r="BG15" s="188"/>
-      <c r="BH15" s="188"/>
-      <c r="BI15" s="188"/>
-      <c r="BJ15" s="188"/>
-      <c r="BK15" s="188"/>
-      <c r="BL15" s="188"/>
-      <c r="BO15" s="202" t="s">
+      <c r="BF15" s="189"/>
+      <c r="BG15" s="189"/>
+      <c r="BH15" s="189"/>
+      <c r="BI15" s="189"/>
+      <c r="BJ15" s="189"/>
+      <c r="BK15" s="189"/>
+      <c r="BL15" s="189"/>
+      <c r="BO15" s="190" t="s">
         <v>609</v>
       </c>
-      <c r="BP15" s="202"/>
-      <c r="BQ15" s="202"/>
-      <c r="BR15" s="202"/>
-      <c r="BS15" s="202"/>
-      <c r="BT15" s="202"/>
-      <c r="BU15" s="202"/>
-      <c r="BV15" s="202"/>
-      <c r="BW15" s="202"/>
-      <c r="BX15" s="202"/>
-      <c r="BY15" s="202"/>
-      <c r="CO15" s="201"/>
-      <c r="CP15" s="201"/>
-      <c r="CQ15" s="201"/>
-      <c r="CR15" s="201"/>
-      <c r="CS15" s="201"/>
-      <c r="CT15" s="201"/>
-      <c r="CU15" s="201"/>
-      <c r="CV15" s="201"/>
-      <c r="CW15" s="201"/>
-      <c r="CX15" s="201"/>
-      <c r="CY15" s="201"/>
-      <c r="DB15" s="203"/>
-      <c r="DC15" s="203"/>
-      <c r="DD15" s="203"/>
-      <c r="DE15" s="203"/>
-      <c r="DF15" s="203"/>
-      <c r="DG15" s="203"/>
-      <c r="DH15" s="203"/>
-      <c r="DI15" s="203"/>
-      <c r="DJ15" s="203"/>
-      <c r="DK15" s="203"/>
-      <c r="DL15" s="203"/>
+      <c r="BP15" s="190"/>
+      <c r="BQ15" s="190"/>
+      <c r="BR15" s="190"/>
+      <c r="BS15" s="190"/>
+      <c r="BT15" s="190"/>
+      <c r="BU15" s="190"/>
+      <c r="BV15" s="190"/>
+      <c r="BW15" s="190"/>
+      <c r="BX15" s="190"/>
+      <c r="BY15" s="190"/>
+      <c r="CO15" s="188"/>
+      <c r="CP15" s="188"/>
+      <c r="CQ15" s="188"/>
+      <c r="CR15" s="188"/>
+      <c r="CS15" s="188"/>
+      <c r="CT15" s="188"/>
+      <c r="CU15" s="188"/>
+      <c r="CV15" s="188"/>
+      <c r="CW15" s="188"/>
+      <c r="CX15" s="188"/>
+      <c r="CY15" s="188"/>
+      <c r="DB15" s="191"/>
+      <c r="DC15" s="191"/>
+      <c r="DD15" s="191"/>
+      <c r="DE15" s="191"/>
+      <c r="DF15" s="191"/>
+      <c r="DG15" s="191"/>
+      <c r="DH15" s="191"/>
+      <c r="DI15" s="191"/>
+      <c r="DJ15" s="191"/>
+      <c r="DK15" s="191"/>
+      <c r="DL15" s="191"/>
     </row>
     <row r="16" spans="2:129" ht="21.75" customHeight="1">
       <c r="B16" s="48"/>
@@ -27958,16 +27892,16 @@
       <c r="Q16" s="46" t="s">
         <v>610</v>
       </c>
-      <c r="R16" s="197" t="s">
+      <c r="R16" s="198" t="s">
         <v>611</v>
       </c>
-      <c r="S16" s="197"/>
-      <c r="T16" s="197"/>
-      <c r="U16" s="197"/>
-      <c r="V16" s="197"/>
-      <c r="W16" s="197"/>
-      <c r="X16" s="197"/>
-      <c r="Y16" s="197"/>
+      <c r="S16" s="198"/>
+      <c r="T16" s="198"/>
+      <c r="U16" s="198"/>
+      <c r="V16" s="198"/>
+      <c r="W16" s="198"/>
+      <c r="X16" s="198"/>
+      <c r="Y16" s="198"/>
       <c r="AG16" s="57"/>
       <c r="AH16" s="57"/>
       <c r="AI16" s="57"/>
@@ -27990,50 +27924,50 @@
         <f ca="1">IF(Data!FW11="",Data!FX11,_xlfn.CONCAT(Data!FW11," | ",Data!FX11))</f>
         <v>Bedroom 2</v>
       </c>
-      <c r="BE16" s="188" t="str">
+      <c r="BE16" s="189" t="str">
         <f ca="1">Data!FY11</f>
         <v>Tile flooring, Blinds and Aluminium framed windows</v>
       </c>
-      <c r="BF16" s="188"/>
-      <c r="BG16" s="188"/>
-      <c r="BH16" s="188"/>
-      <c r="BI16" s="188"/>
-      <c r="BJ16" s="188"/>
-      <c r="BK16" s="188"/>
-      <c r="BL16" s="188"/>
-      <c r="BO16" s="202"/>
-      <c r="BP16" s="202"/>
-      <c r="BQ16" s="202"/>
-      <c r="BR16" s="202"/>
-      <c r="BS16" s="202"/>
-      <c r="BT16" s="202"/>
-      <c r="BU16" s="202"/>
-      <c r="BV16" s="202"/>
-      <c r="BW16" s="202"/>
-      <c r="BX16" s="202"/>
-      <c r="BY16" s="202"/>
-      <c r="CO16" s="201"/>
-      <c r="CP16" s="201"/>
-      <c r="CQ16" s="201"/>
-      <c r="CR16" s="201"/>
-      <c r="CS16" s="201"/>
-      <c r="CT16" s="201"/>
-      <c r="CU16" s="201"/>
-      <c r="CV16" s="201"/>
-      <c r="CW16" s="201"/>
-      <c r="CX16" s="201"/>
-      <c r="CY16" s="201"/>
-      <c r="DB16" s="203"/>
-      <c r="DC16" s="203"/>
-      <c r="DD16" s="203"/>
-      <c r="DE16" s="203"/>
-      <c r="DF16" s="203"/>
-      <c r="DG16" s="203"/>
-      <c r="DH16" s="203"/>
-      <c r="DI16" s="203"/>
-      <c r="DJ16" s="203"/>
-      <c r="DK16" s="203"/>
-      <c r="DL16" s="203"/>
+      <c r="BF16" s="189"/>
+      <c r="BG16" s="189"/>
+      <c r="BH16" s="189"/>
+      <c r="BI16" s="189"/>
+      <c r="BJ16" s="189"/>
+      <c r="BK16" s="189"/>
+      <c r="BL16" s="189"/>
+      <c r="BO16" s="190"/>
+      <c r="BP16" s="190"/>
+      <c r="BQ16" s="190"/>
+      <c r="BR16" s="190"/>
+      <c r="BS16" s="190"/>
+      <c r="BT16" s="190"/>
+      <c r="BU16" s="190"/>
+      <c r="BV16" s="190"/>
+      <c r="BW16" s="190"/>
+      <c r="BX16" s="190"/>
+      <c r="BY16" s="190"/>
+      <c r="CO16" s="188"/>
+      <c r="CP16" s="188"/>
+      <c r="CQ16" s="188"/>
+      <c r="CR16" s="188"/>
+      <c r="CS16" s="188"/>
+      <c r="CT16" s="188"/>
+      <c r="CU16" s="188"/>
+      <c r="CV16" s="188"/>
+      <c r="CW16" s="188"/>
+      <c r="CX16" s="188"/>
+      <c r="CY16" s="188"/>
+      <c r="DB16" s="191"/>
+      <c r="DC16" s="191"/>
+      <c r="DD16" s="191"/>
+      <c r="DE16" s="191"/>
+      <c r="DF16" s="191"/>
+      <c r="DG16" s="191"/>
+      <c r="DH16" s="191"/>
+      <c r="DI16" s="191"/>
+      <c r="DJ16" s="191"/>
+      <c r="DK16" s="191"/>
+      <c r="DL16" s="191"/>
     </row>
     <row r="17" spans="2:116" ht="21.75" customHeight="1">
       <c r="B17" s="49"/>
@@ -28041,28 +27975,28 @@
       <c r="D17" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="E17" s="196" t="str">
+      <c r="E17" s="197" t="str">
         <f ca="1">Fillout!B137</f>
         <v>The subject property is set on a irregular shaped allotment, on a moderate slope from rear to front, and has satisfactory site drainage in dry conditions. The dimensions are approximately 15.1 metres of frontage and 29.3 metres of depth. The site area is approximately 562 Square Metres (SQM), subject to survey. It is located towards the eastern end of Willan Drive with Nebo Pl being the nearest connected street. It’s a Circa 1960 built Vinyl Cladding house with Concrete tile roofing.  The property consists of 3 bedrooms, 1 bathroom, single garage, with kitchen, dining, lounge and laundry. The subject property has a land area of 562 sqm and an internal area of 110 sqm approximately.</v>
       </c>
-      <c r="F17" s="196"/>
-      <c r="G17" s="196"/>
-      <c r="H17" s="196"/>
-      <c r="I17" s="196"/>
-      <c r="J17" s="196"/>
-      <c r="K17" s="196"/>
-      <c r="L17" s="196"/>
+      <c r="F17" s="197"/>
+      <c r="G17" s="197"/>
+      <c r="H17" s="197"/>
+      <c r="I17" s="197"/>
+      <c r="J17" s="197"/>
+      <c r="K17" s="197"/>
+      <c r="L17" s="197"/>
       <c r="O17" s="49"/>
       <c r="P17" s="49"/>
       <c r="Q17" s="46"/>
-      <c r="R17" s="197"/>
-      <c r="S17" s="197"/>
-      <c r="T17" s="197"/>
-      <c r="U17" s="197"/>
-      <c r="V17" s="197"/>
-      <c r="W17" s="197"/>
-      <c r="X17" s="197"/>
-      <c r="Y17" s="197"/>
+      <c r="R17" s="198"/>
+      <c r="S17" s="198"/>
+      <c r="T17" s="198"/>
+      <c r="U17" s="198"/>
+      <c r="V17" s="198"/>
+      <c r="W17" s="198"/>
+      <c r="X17" s="198"/>
+      <c r="Y17" s="198"/>
       <c r="AO17" s="51"/>
       <c r="AP17" s="45"/>
       <c r="AQ17" s="46"/>
@@ -28079,28 +28013,28 @@
         <f ca="1">IF(Data!FW12="",Data!FX12,_xlfn.CONCAT(Data!FW12," | ",Data!FX12))</f>
         <v>Bedroom 3</v>
       </c>
-      <c r="BE17" s="188" t="str">
+      <c r="BE17" s="189" t="str">
         <f ca="1">Data!FY12</f>
         <v>Tile flooring, Blinds and Aluminium framed windows</v>
       </c>
-      <c r="BF17" s="188"/>
-      <c r="BG17" s="188"/>
-      <c r="BH17" s="188"/>
-      <c r="BI17" s="188"/>
-      <c r="BJ17" s="188"/>
-      <c r="BK17" s="188"/>
-      <c r="BL17" s="188"/>
-      <c r="BO17" s="202"/>
-      <c r="BP17" s="202"/>
-      <c r="BQ17" s="202"/>
-      <c r="BR17" s="202"/>
-      <c r="BS17" s="202"/>
-      <c r="BT17" s="202"/>
-      <c r="BU17" s="202"/>
-      <c r="BV17" s="202"/>
-      <c r="BW17" s="202"/>
-      <c r="BX17" s="202"/>
-      <c r="BY17" s="202"/>
+      <c r="BF17" s="189"/>
+      <c r="BG17" s="189"/>
+      <c r="BH17" s="189"/>
+      <c r="BI17" s="189"/>
+      <c r="BJ17" s="189"/>
+      <c r="BK17" s="189"/>
+      <c r="BL17" s="189"/>
+      <c r="BO17" s="190"/>
+      <c r="BP17" s="190"/>
+      <c r="BQ17" s="190"/>
+      <c r="BR17" s="190"/>
+      <c r="BS17" s="190"/>
+      <c r="BT17" s="190"/>
+      <c r="BU17" s="190"/>
+      <c r="BV17" s="190"/>
+      <c r="BW17" s="190"/>
+      <c r="BX17" s="190"/>
+      <c r="BY17" s="190"/>
       <c r="CO17" s="60"/>
       <c r="CP17" s="60"/>
       <c r="CQ17" s="60"/>
@@ -28112,30 +28046,30 @@
       <c r="CW17" s="60"/>
       <c r="CX17" s="60"/>
       <c r="CY17" s="60"/>
-      <c r="DB17" s="203"/>
-      <c r="DC17" s="203"/>
-      <c r="DD17" s="203"/>
-      <c r="DE17" s="203"/>
-      <c r="DF17" s="203"/>
-      <c r="DG17" s="203"/>
-      <c r="DH17" s="203"/>
-      <c r="DI17" s="203"/>
-      <c r="DJ17" s="203"/>
-      <c r="DK17" s="203"/>
-      <c r="DL17" s="203"/>
+      <c r="DB17" s="191"/>
+      <c r="DC17" s="191"/>
+      <c r="DD17" s="191"/>
+      <c r="DE17" s="191"/>
+      <c r="DF17" s="191"/>
+      <c r="DG17" s="191"/>
+      <c r="DH17" s="191"/>
+      <c r="DI17" s="191"/>
+      <c r="DJ17" s="191"/>
+      <c r="DK17" s="191"/>
+      <c r="DL17" s="191"/>
     </row>
     <row r="18" spans="2:116" ht="21.75" customHeight="1">
       <c r="B18" s="49"/>
       <c r="C18" s="48"/>
       <c r="D18" s="46"/>
-      <c r="E18" s="196"/>
-      <c r="F18" s="196"/>
-      <c r="G18" s="196"/>
-      <c r="H18" s="196"/>
-      <c r="I18" s="196"/>
-      <c r="J18" s="196"/>
-      <c r="K18" s="196"/>
-      <c r="L18" s="196"/>
+      <c r="E18" s="197"/>
+      <c r="F18" s="197"/>
+      <c r="G18" s="197"/>
+      <c r="H18" s="197"/>
+      <c r="I18" s="197"/>
+      <c r="J18" s="197"/>
+      <c r="K18" s="197"/>
+      <c r="L18" s="197"/>
       <c r="O18" s="49"/>
       <c r="P18" s="48"/>
       <c r="Q18" s="46" t="s">
@@ -28160,28 +28094,28 @@
         <f ca="1">IF(Data!FW13="",Data!FX13,_xlfn.CONCAT(Data!FW13," | ",Data!FX13))</f>
         <v>Bathroom</v>
       </c>
-      <c r="BE18" s="188" t="str">
+      <c r="BE18" s="189" t="str">
         <f ca="1">Data!FY13</f>
         <v>Tile flooring, Bath tub, Fitted mirror and Aluminium framed windows</v>
       </c>
-      <c r="BF18" s="188"/>
-      <c r="BG18" s="188"/>
-      <c r="BH18" s="188"/>
-      <c r="BI18" s="188"/>
-      <c r="BJ18" s="188"/>
-      <c r="BK18" s="188"/>
-      <c r="BL18" s="188"/>
-      <c r="BO18" s="202"/>
-      <c r="BP18" s="202"/>
-      <c r="BQ18" s="202"/>
-      <c r="BR18" s="202"/>
-      <c r="BS18" s="202"/>
-      <c r="BT18" s="202"/>
-      <c r="BU18" s="202"/>
-      <c r="BV18" s="202"/>
-      <c r="BW18" s="202"/>
-      <c r="BX18" s="202"/>
-      <c r="BY18" s="202"/>
+      <c r="BF18" s="189"/>
+      <c r="BG18" s="189"/>
+      <c r="BH18" s="189"/>
+      <c r="BI18" s="189"/>
+      <c r="BJ18" s="189"/>
+      <c r="BK18" s="189"/>
+      <c r="BL18" s="189"/>
+      <c r="BO18" s="190"/>
+      <c r="BP18" s="190"/>
+      <c r="BQ18" s="190"/>
+      <c r="BR18" s="190"/>
+      <c r="BS18" s="190"/>
+      <c r="BT18" s="190"/>
+      <c r="BU18" s="190"/>
+      <c r="BV18" s="190"/>
+      <c r="BW18" s="190"/>
+      <c r="BX18" s="190"/>
+      <c r="BY18" s="190"/>
       <c r="CO18" s="66" t="s">
         <v>613</v>
       </c>
@@ -28194,29 +28128,29 @@
       <c r="CW18" s="60"/>
       <c r="CX18" s="60"/>
       <c r="CY18" s="60"/>
-      <c r="DB18" s="203"/>
-      <c r="DC18" s="203"/>
-      <c r="DD18" s="203"/>
-      <c r="DE18" s="203"/>
-      <c r="DF18" s="203"/>
-      <c r="DG18" s="203"/>
-      <c r="DH18" s="203"/>
-      <c r="DI18" s="203"/>
-      <c r="DJ18" s="203"/>
-      <c r="DK18" s="203"/>
-      <c r="DL18" s="203"/>
+      <c r="DB18" s="191"/>
+      <c r="DC18" s="191"/>
+      <c r="DD18" s="191"/>
+      <c r="DE18" s="191"/>
+      <c r="DF18" s="191"/>
+      <c r="DG18" s="191"/>
+      <c r="DH18" s="191"/>
+      <c r="DI18" s="191"/>
+      <c r="DJ18" s="191"/>
+      <c r="DK18" s="191"/>
+      <c r="DL18" s="191"/>
     </row>
     <row r="19" spans="2:116" ht="21.75" customHeight="1">
       <c r="B19" s="51"/>
       <c r="C19" s="45"/>
-      <c r="E19" s="196"/>
-      <c r="F19" s="196"/>
-      <c r="G19" s="196"/>
-      <c r="H19" s="196"/>
-      <c r="I19" s="196"/>
-      <c r="J19" s="196"/>
-      <c r="K19" s="196"/>
-      <c r="L19" s="196"/>
+      <c r="E19" s="197"/>
+      <c r="F19" s="197"/>
+      <c r="G19" s="197"/>
+      <c r="H19" s="197"/>
+      <c r="I19" s="197"/>
+      <c r="J19" s="197"/>
+      <c r="K19" s="197"/>
+      <c r="L19" s="197"/>
       <c r="O19" s="51"/>
       <c r="P19" s="45"/>
       <c r="AO19" s="51"/>
@@ -28238,29 +28172,29 @@
         <f ca="1">IF(Data!FW14="",Data!FX14,_xlfn.CONCAT(Data!FW14," | ",Data!FX14))</f>
         <v>Kitchen</v>
       </c>
-      <c r="BE19" s="188" t="str">
+      <c r="BE19" s="189" t="str">
         <f ca="1">Data!FY14</f>
         <v>Tile flooring, Blinds, Kitchen cupboards, Overhead cupboards and Aluminium framed windows</v>
       </c>
-      <c r="BF19" s="188"/>
-      <c r="BG19" s="188"/>
-      <c r="BH19" s="188"/>
-      <c r="BI19" s="188"/>
-      <c r="BJ19" s="188"/>
-      <c r="BK19" s="188"/>
-      <c r="BL19" s="188"/>
-      <c r="BM19" s="188"/>
-      <c r="BO19" s="202"/>
-      <c r="BP19" s="202"/>
-      <c r="BQ19" s="202"/>
-      <c r="BR19" s="202"/>
-      <c r="BS19" s="202"/>
-      <c r="BT19" s="202"/>
-      <c r="BU19" s="202"/>
-      <c r="BV19" s="202"/>
-      <c r="BW19" s="202"/>
-      <c r="BX19" s="202"/>
-      <c r="BY19" s="202"/>
+      <c r="BF19" s="189"/>
+      <c r="BG19" s="189"/>
+      <c r="BH19" s="189"/>
+      <c r="BI19" s="189"/>
+      <c r="BJ19" s="189"/>
+      <c r="BK19" s="189"/>
+      <c r="BL19" s="189"/>
+      <c r="BM19" s="189"/>
+      <c r="BO19" s="190"/>
+      <c r="BP19" s="190"/>
+      <c r="BQ19" s="190"/>
+      <c r="BR19" s="190"/>
+      <c r="BS19" s="190"/>
+      <c r="BT19" s="190"/>
+      <c r="BU19" s="190"/>
+      <c r="BV19" s="190"/>
+      <c r="BW19" s="190"/>
+      <c r="BX19" s="190"/>
+      <c r="BY19" s="190"/>
       <c r="CQ19" s="65"/>
       <c r="CR19" s="65"/>
       <c r="CS19" s="65"/>
@@ -28270,44 +28204,44 @@
       <c r="CW19" s="65"/>
       <c r="CX19" s="65"/>
       <c r="CY19" s="65"/>
-      <c r="DB19" s="203"/>
-      <c r="DC19" s="203"/>
-      <c r="DD19" s="203"/>
-      <c r="DE19" s="203"/>
-      <c r="DF19" s="203"/>
-      <c r="DG19" s="203"/>
-      <c r="DH19" s="203"/>
-      <c r="DI19" s="203"/>
-      <c r="DJ19" s="203"/>
-      <c r="DK19" s="203"/>
-      <c r="DL19" s="203"/>
+      <c r="DB19" s="191"/>
+      <c r="DC19" s="191"/>
+      <c r="DD19" s="191"/>
+      <c r="DE19" s="191"/>
+      <c r="DF19" s="191"/>
+      <c r="DG19" s="191"/>
+      <c r="DH19" s="191"/>
+      <c r="DI19" s="191"/>
+      <c r="DJ19" s="191"/>
+      <c r="DK19" s="191"/>
+      <c r="DL19" s="191"/>
     </row>
     <row r="20" spans="2:116" ht="21.75" customHeight="1">
       <c r="B20" s="51"/>
       <c r="C20" s="45"/>
-      <c r="E20" s="196"/>
-      <c r="F20" s="196"/>
-      <c r="G20" s="196"/>
-      <c r="H20" s="196"/>
-      <c r="I20" s="196"/>
-      <c r="J20" s="196"/>
-      <c r="K20" s="196"/>
-      <c r="L20" s="196"/>
+      <c r="E20" s="197"/>
+      <c r="F20" s="197"/>
+      <c r="G20" s="197"/>
+      <c r="H20" s="197"/>
+      <c r="I20" s="197"/>
+      <c r="J20" s="197"/>
+      <c r="K20" s="197"/>
+      <c r="L20" s="197"/>
       <c r="O20" s="51"/>
       <c r="P20" s="45"/>
       <c r="Q20" s="46" t="s">
         <v>614</v>
       </c>
-      <c r="R20" s="198" t="s">
+      <c r="R20" s="199" t="s">
         <v>615</v>
       </c>
-      <c r="S20" s="198"/>
-      <c r="T20" s="198"/>
-      <c r="U20" s="198"/>
-      <c r="V20" s="198"/>
-      <c r="W20" s="198"/>
-      <c r="X20" s="198"/>
-      <c r="Y20" s="198"/>
+      <c r="S20" s="199"/>
+      <c r="T20" s="199"/>
+      <c r="U20" s="199"/>
+      <c r="V20" s="199"/>
+      <c r="W20" s="199"/>
+      <c r="X20" s="199"/>
+      <c r="Y20" s="199"/>
       <c r="AO20" s="51"/>
       <c r="AP20" s="45"/>
       <c r="AQ20" s="46"/>
@@ -28324,28 +28258,28 @@
         <f ca="1">IF(Data!FW15="",Data!FX15,_xlfn.CONCAT(Data!FW15," | ",Data!FX15))</f>
         <v>Dining</v>
       </c>
-      <c r="BE20" s="188" t="str">
+      <c r="BE20" s="189" t="str">
         <f ca="1">Data!FY15</f>
         <v>Tile flooring, Blinds, Sliding door and Aluminium framed windows</v>
       </c>
-      <c r="BF20" s="188"/>
-      <c r="BG20" s="188"/>
-      <c r="BH20" s="188"/>
-      <c r="BI20" s="188"/>
-      <c r="BJ20" s="188"/>
-      <c r="BK20" s="188"/>
-      <c r="BL20" s="188"/>
-      <c r="BO20" s="202"/>
-      <c r="BP20" s="202"/>
-      <c r="BQ20" s="202"/>
-      <c r="BR20" s="202"/>
-      <c r="BS20" s="202"/>
-      <c r="BT20" s="202"/>
-      <c r="BU20" s="202"/>
-      <c r="BV20" s="202"/>
-      <c r="BW20" s="202"/>
-      <c r="BX20" s="202"/>
-      <c r="BY20" s="202"/>
+      <c r="BF20" s="189"/>
+      <c r="BG20" s="189"/>
+      <c r="BH20" s="189"/>
+      <c r="BI20" s="189"/>
+      <c r="BJ20" s="189"/>
+      <c r="BK20" s="189"/>
+      <c r="BL20" s="189"/>
+      <c r="BO20" s="190"/>
+      <c r="BP20" s="190"/>
+      <c r="BQ20" s="190"/>
+      <c r="BR20" s="190"/>
+      <c r="BS20" s="190"/>
+      <c r="BT20" s="190"/>
+      <c r="BU20" s="190"/>
+      <c r="BV20" s="190"/>
+      <c r="BW20" s="190"/>
+      <c r="BX20" s="190"/>
+      <c r="BY20" s="190"/>
       <c r="CO20" s="55"/>
       <c r="CP20" s="68" t="s">
         <v>248</v>
@@ -28354,75 +28288,75 @@
         <f>TEXT(Fillout!B182,"$#,##0.00")</f>
         <v>$600,000.00</v>
       </c>
-      <c r="DB20" s="203"/>
-      <c r="DC20" s="203"/>
-      <c r="DD20" s="203"/>
-      <c r="DE20" s="203"/>
-      <c r="DF20" s="203"/>
-      <c r="DG20" s="203"/>
-      <c r="DH20" s="203"/>
-      <c r="DI20" s="203"/>
-      <c r="DJ20" s="203"/>
-      <c r="DK20" s="203"/>
-      <c r="DL20" s="203"/>
+      <c r="DB20" s="191"/>
+      <c r="DC20" s="191"/>
+      <c r="DD20" s="191"/>
+      <c r="DE20" s="191"/>
+      <c r="DF20" s="191"/>
+      <c r="DG20" s="191"/>
+      <c r="DH20" s="191"/>
+      <c r="DI20" s="191"/>
+      <c r="DJ20" s="191"/>
+      <c r="DK20" s="191"/>
+      <c r="DL20" s="191"/>
     </row>
     <row r="21" spans="2:116" ht="21.75" customHeight="1">
       <c r="B21" s="51"/>
       <c r="C21" s="45"/>
       <c r="D21" s="134"/>
-      <c r="E21" s="196"/>
-      <c r="F21" s="196"/>
-      <c r="G21" s="196"/>
-      <c r="H21" s="196"/>
-      <c r="I21" s="196"/>
-      <c r="J21" s="196"/>
-      <c r="K21" s="196"/>
-      <c r="L21" s="196"/>
+      <c r="E21" s="197"/>
+      <c r="F21" s="197"/>
+      <c r="G21" s="197"/>
+      <c r="H21" s="197"/>
+      <c r="I21" s="197"/>
+      <c r="J21" s="197"/>
+      <c r="K21" s="197"/>
+      <c r="L21" s="197"/>
       <c r="O21" s="51"/>
       <c r="P21" s="45"/>
       <c r="Q21" s="46"/>
-      <c r="R21" s="198"/>
-      <c r="S21" s="198"/>
-      <c r="T21" s="198"/>
-      <c r="U21" s="198"/>
-      <c r="V21" s="198"/>
-      <c r="W21" s="198"/>
-      <c r="X21" s="198"/>
-      <c r="Y21" s="198"/>
+      <c r="R21" s="199"/>
+      <c r="S21" s="199"/>
+      <c r="T21" s="199"/>
+      <c r="U21" s="199"/>
+      <c r="V21" s="199"/>
+      <c r="W21" s="199"/>
+      <c r="X21" s="199"/>
+      <c r="Y21" s="199"/>
       <c r="AD21" s="97" t="str">
         <f>_xlfn.CONCAT("Source: Bing Map")</f>
         <v>Source: Bing Map</v>
       </c>
-      <c r="AO21" s="141" t="s">
+      <c r="AO21" s="147" t="s">
         <v>616</v>
       </c>
-      <c r="AP21" s="141"/>
-      <c r="AQ21" s="141"/>
-      <c r="AR21" s="141"/>
-      <c r="AS21" s="141"/>
-      <c r="AT21" s="141"/>
-      <c r="AU21" s="141"/>
-      <c r="AV21" s="141"/>
-      <c r="AW21" s="141"/>
-      <c r="AX21" s="141"/>
-      <c r="AY21" s="141"/>
+      <c r="AP21" s="147"/>
+      <c r="AQ21" s="147"/>
+      <c r="AR21" s="147"/>
+      <c r="AS21" s="147"/>
+      <c r="AT21" s="147"/>
+      <c r="AU21" s="147"/>
+      <c r="AV21" s="147"/>
+      <c r="AW21" s="147"/>
+      <c r="AX21" s="147"/>
+      <c r="AY21" s="147"/>
       <c r="BC21" s="63"/>
       <c r="BD21" s="114" t="str">
         <f ca="1">IF(Data!FW16="",Data!FX16,_xlfn.CONCAT(Data!FW16," | ",Data!FX16))</f>
         <v>Lounge</v>
       </c>
-      <c r="BE21" s="188" t="str">
+      <c r="BE21" s="189" t="str">
         <f ca="1">Data!FY16</f>
         <v>Tile flooring, Blinds and Aluminium framed windows</v>
       </c>
-      <c r="BF21" s="188"/>
-      <c r="BG21" s="188"/>
-      <c r="BH21" s="188"/>
-      <c r="BI21" s="188"/>
-      <c r="BJ21" s="188"/>
-      <c r="BK21" s="188"/>
-      <c r="BL21" s="188"/>
-      <c r="BM21" s="188"/>
+      <c r="BF21" s="189"/>
+      <c r="BG21" s="189"/>
+      <c r="BH21" s="189"/>
+      <c r="BI21" s="189"/>
+      <c r="BJ21" s="189"/>
+      <c r="BK21" s="189"/>
+      <c r="BL21" s="189"/>
+      <c r="BM21" s="189"/>
       <c r="CO21" s="68"/>
       <c r="CP21" s="68" t="s">
         <v>249</v>
@@ -28431,30 +28365,30 @@
         <f>TEXT(Fillout!B183,"$#,##0.00")</f>
         <v>$200,000.00</v>
       </c>
-      <c r="DB21" s="203"/>
-      <c r="DC21" s="203"/>
-      <c r="DD21" s="203"/>
-      <c r="DE21" s="203"/>
-      <c r="DF21" s="203"/>
-      <c r="DG21" s="203"/>
-      <c r="DH21" s="203"/>
-      <c r="DI21" s="203"/>
-      <c r="DJ21" s="203"/>
-      <c r="DK21" s="203"/>
-      <c r="DL21" s="203"/>
+      <c r="DB21" s="191"/>
+      <c r="DC21" s="191"/>
+      <c r="DD21" s="191"/>
+      <c r="DE21" s="191"/>
+      <c r="DF21" s="191"/>
+      <c r="DG21" s="191"/>
+      <c r="DH21" s="191"/>
+      <c r="DI21" s="191"/>
+      <c r="DJ21" s="191"/>
+      <c r="DK21" s="191"/>
+      <c r="DL21" s="191"/>
     </row>
     <row r="22" spans="2:116" ht="21.75" customHeight="1">
       <c r="B22" s="51"/>
       <c r="C22" s="45"/>
       <c r="D22" s="134"/>
-      <c r="E22" s="196"/>
-      <c r="F22" s="196"/>
-      <c r="G22" s="196"/>
-      <c r="H22" s="196"/>
-      <c r="I22" s="196"/>
-      <c r="J22" s="196"/>
-      <c r="K22" s="196"/>
-      <c r="L22" s="196"/>
+      <c r="E22" s="197"/>
+      <c r="F22" s="197"/>
+      <c r="G22" s="197"/>
+      <c r="H22" s="197"/>
+      <c r="I22" s="197"/>
+      <c r="J22" s="197"/>
+      <c r="K22" s="197"/>
+      <c r="L22" s="197"/>
       <c r="O22" s="51"/>
       <c r="P22" s="45"/>
       <c r="Q22" s="46"/>
@@ -28473,47 +28407,47 @@
         <f>IF(Fillout!B58,"Electricity, town water, sewerage, gas and telephone services are all connected","Electricity, town water, sewerage and telephone services are all connected")</f>
         <v>Electricity, town water, sewerage, gas and telephone services are all connected</v>
       </c>
-      <c r="AO22" s="141"/>
-      <c r="AP22" s="141"/>
-      <c r="AQ22" s="141"/>
-      <c r="AR22" s="141"/>
-      <c r="AS22" s="141"/>
-      <c r="AT22" s="141"/>
-      <c r="AU22" s="141"/>
-      <c r="AV22" s="141"/>
-      <c r="AW22" s="141"/>
-      <c r="AX22" s="141"/>
-      <c r="AY22" s="141"/>
+      <c r="AO22" s="147"/>
+      <c r="AP22" s="147"/>
+      <c r="AQ22" s="147"/>
+      <c r="AR22" s="147"/>
+      <c r="AS22" s="147"/>
+      <c r="AT22" s="147"/>
+      <c r="AU22" s="147"/>
+      <c r="AV22" s="147"/>
+      <c r="AW22" s="147"/>
+      <c r="AX22" s="147"/>
+      <c r="AY22" s="147"/>
       <c r="BC22" s="63"/>
       <c r="BD22" s="114" t="str">
         <f ca="1">IF(Data!FW17="",Data!FX17,_xlfn.CONCAT(Data!FW17," | ",Data!FX17))</f>
         <v>Laundry</v>
       </c>
-      <c r="BE22" s="188" t="str">
+      <c r="BE22" s="189" t="str">
         <f ca="1">Data!FY17</f>
         <v>Tile flooring and Aluminium framed windows</v>
       </c>
-      <c r="BF22" s="188"/>
-      <c r="BG22" s="188"/>
-      <c r="BH22" s="188"/>
-      <c r="BI22" s="188"/>
-      <c r="BJ22" s="188"/>
-      <c r="BK22" s="188"/>
-      <c r="BL22" s="188"/>
-      <c r="BM22" s="188"/>
-      <c r="BO22" s="141" t="s">
+      <c r="BF22" s="189"/>
+      <c r="BG22" s="189"/>
+      <c r="BH22" s="189"/>
+      <c r="BI22" s="189"/>
+      <c r="BJ22" s="189"/>
+      <c r="BK22" s="189"/>
+      <c r="BL22" s="189"/>
+      <c r="BM22" s="189"/>
+      <c r="BO22" s="147" t="s">
         <v>617</v>
       </c>
-      <c r="BP22" s="141"/>
-      <c r="BQ22" s="141"/>
-      <c r="BR22" s="141"/>
-      <c r="BS22" s="141"/>
-      <c r="BT22" s="141"/>
-      <c r="BU22" s="141"/>
-      <c r="BV22" s="141"/>
-      <c r="BW22" s="141"/>
-      <c r="BX22" s="141"/>
-      <c r="BY22" s="141"/>
+      <c r="BP22" s="147"/>
+      <c r="BQ22" s="147"/>
+      <c r="BR22" s="147"/>
+      <c r="BS22" s="147"/>
+      <c r="BT22" s="147"/>
+      <c r="BU22" s="147"/>
+      <c r="BV22" s="147"/>
+      <c r="BW22" s="147"/>
+      <c r="BX22" s="147"/>
+      <c r="BY22" s="147"/>
       <c r="CO22" s="55"/>
       <c r="CP22" s="68" t="s">
         <v>250</v>
@@ -28522,44 +28456,44 @@
         <f>TEXT(Fillout!B184,"$#,##0.00")</f>
         <v>$800,000.00</v>
       </c>
-      <c r="DB22" s="203"/>
-      <c r="DC22" s="203"/>
-      <c r="DD22" s="203"/>
-      <c r="DE22" s="203"/>
-      <c r="DF22" s="203"/>
-      <c r="DG22" s="203"/>
-      <c r="DH22" s="203"/>
-      <c r="DI22" s="203"/>
-      <c r="DJ22" s="203"/>
-      <c r="DK22" s="203"/>
-      <c r="DL22" s="203"/>
+      <c r="DB22" s="191"/>
+      <c r="DC22" s="191"/>
+      <c r="DD22" s="191"/>
+      <c r="DE22" s="191"/>
+      <c r="DF22" s="191"/>
+      <c r="DG22" s="191"/>
+      <c r="DH22" s="191"/>
+      <c r="DI22" s="191"/>
+      <c r="DJ22" s="191"/>
+      <c r="DK22" s="191"/>
+      <c r="DL22" s="191"/>
     </row>
     <row r="23" spans="2:116" ht="21.75" customHeight="1">
       <c r="B23" s="51"/>
       <c r="C23" s="45"/>
-      <c r="E23" s="196"/>
-      <c r="F23" s="196"/>
-      <c r="G23" s="196"/>
-      <c r="H23" s="196"/>
-      <c r="I23" s="196"/>
-      <c r="J23" s="196"/>
-      <c r="K23" s="196"/>
-      <c r="L23" s="196"/>
+      <c r="E23" s="197"/>
+      <c r="F23" s="197"/>
+      <c r="G23" s="197"/>
+      <c r="H23" s="197"/>
+      <c r="I23" s="197"/>
+      <c r="J23" s="197"/>
+      <c r="K23" s="197"/>
+      <c r="L23" s="197"/>
       <c r="O23" s="51"/>
       <c r="P23" s="45"/>
       <c r="Q23" s="56" t="s">
         <v>618</v>
       </c>
-      <c r="R23" s="193" t="s">
+      <c r="R23" s="200" t="s">
         <v>619</v>
       </c>
-      <c r="S23" s="193"/>
-      <c r="T23" s="193"/>
-      <c r="U23" s="193"/>
-      <c r="V23" s="193"/>
-      <c r="W23" s="193"/>
-      <c r="X23" s="193"/>
-      <c r="Y23" s="193"/>
+      <c r="S23" s="200"/>
+      <c r="T23" s="200"/>
+      <c r="U23" s="200"/>
+      <c r="V23" s="200"/>
+      <c r="W23" s="200"/>
+      <c r="X23" s="200"/>
+      <c r="Y23" s="200"/>
       <c r="AQ23" s="56"/>
       <c r="AR23" s="60"/>
       <c r="AS23" s="60"/>
@@ -28574,28 +28508,28 @@
         <f ca="1">IF(Data!FW18="",Data!FX18,_xlfn.CONCAT(Data!FW18," | ",Data!FX18))</f>
         <v/>
       </c>
-      <c r="BE23" s="188" t="str">
+      <c r="BE23" s="189" t="str">
         <f ca="1">Data!FY18</f>
         <v/>
       </c>
-      <c r="BF23" s="188"/>
-      <c r="BG23" s="188"/>
-      <c r="BH23" s="188"/>
-      <c r="BI23" s="188"/>
-      <c r="BJ23" s="188"/>
-      <c r="BK23" s="188"/>
-      <c r="BL23" s="188"/>
-      <c r="BO23" s="141"/>
-      <c r="BP23" s="141"/>
-      <c r="BQ23" s="141"/>
-      <c r="BR23" s="141"/>
-      <c r="BS23" s="141"/>
-      <c r="BT23" s="141"/>
-      <c r="BU23" s="141"/>
-      <c r="BV23" s="141"/>
-      <c r="BW23" s="141"/>
-      <c r="BX23" s="141"/>
-      <c r="BY23" s="141"/>
+      <c r="BF23" s="189"/>
+      <c r="BG23" s="189"/>
+      <c r="BH23" s="189"/>
+      <c r="BI23" s="189"/>
+      <c r="BJ23" s="189"/>
+      <c r="BK23" s="189"/>
+      <c r="BL23" s="189"/>
+      <c r="BO23" s="147"/>
+      <c r="BP23" s="147"/>
+      <c r="BQ23" s="147"/>
+      <c r="BR23" s="147"/>
+      <c r="BS23" s="147"/>
+      <c r="BT23" s="147"/>
+      <c r="BU23" s="147"/>
+      <c r="BV23" s="147"/>
+      <c r="BW23" s="147"/>
+      <c r="BX23" s="147"/>
+      <c r="BY23" s="147"/>
       <c r="CO23" s="55"/>
       <c r="CP23" s="68" t="s">
         <v>593</v>
@@ -28603,51 +28537,51 @@
       <c r="CQ23" s="69" t="s">
         <v>620</v>
       </c>
-      <c r="DB23" s="203"/>
-      <c r="DC23" s="203"/>
-      <c r="DD23" s="203"/>
-      <c r="DE23" s="203"/>
-      <c r="DF23" s="203"/>
-      <c r="DG23" s="203"/>
-      <c r="DH23" s="203"/>
-      <c r="DI23" s="203"/>
-      <c r="DJ23" s="203"/>
-      <c r="DK23" s="203"/>
-      <c r="DL23" s="203"/>
+      <c r="DB23" s="191"/>
+      <c r="DC23" s="191"/>
+      <c r="DD23" s="191"/>
+      <c r="DE23" s="191"/>
+      <c r="DF23" s="191"/>
+      <c r="DG23" s="191"/>
+      <c r="DH23" s="191"/>
+      <c r="DI23" s="191"/>
+      <c r="DJ23" s="191"/>
+      <c r="DK23" s="191"/>
+      <c r="DL23" s="191"/>
     </row>
     <row r="24" spans="2:116" ht="21.75" customHeight="1">
-      <c r="E24" s="196"/>
-      <c r="F24" s="196"/>
-      <c r="G24" s="196"/>
-      <c r="H24" s="196"/>
-      <c r="I24" s="196"/>
-      <c r="J24" s="196"/>
-      <c r="K24" s="196"/>
-      <c r="L24" s="196"/>
+      <c r="E24" s="197"/>
+      <c r="F24" s="197"/>
+      <c r="G24" s="197"/>
+      <c r="H24" s="197"/>
+      <c r="I24" s="197"/>
+      <c r="J24" s="197"/>
+      <c r="K24" s="197"/>
+      <c r="L24" s="197"/>
       <c r="O24" s="51"/>
       <c r="P24" s="45"/>
       <c r="Q24" s="56"/>
-      <c r="R24" s="193"/>
-      <c r="S24" s="193"/>
-      <c r="T24" s="193"/>
-      <c r="U24" s="193"/>
-      <c r="V24" s="193"/>
-      <c r="W24" s="193"/>
-      <c r="X24" s="193"/>
-      <c r="Y24" s="193"/>
-      <c r="AB24" s="141" t="s">
+      <c r="R24" s="200"/>
+      <c r="S24" s="200"/>
+      <c r="T24" s="200"/>
+      <c r="U24" s="200"/>
+      <c r="V24" s="200"/>
+      <c r="W24" s="200"/>
+      <c r="X24" s="200"/>
+      <c r="Y24" s="200"/>
+      <c r="AB24" s="147" t="s">
         <v>621</v>
       </c>
-      <c r="AC24" s="141"/>
-      <c r="AD24" s="141"/>
-      <c r="AE24" s="141"/>
-      <c r="AF24" s="141"/>
-      <c r="AG24" s="141"/>
-      <c r="AH24" s="141"/>
-      <c r="AI24" s="141"/>
-      <c r="AJ24" s="141"/>
-      <c r="AK24" s="141"/>
-      <c r="AL24" s="141"/>
+      <c r="AC24" s="147"/>
+      <c r="AD24" s="147"/>
+      <c r="AE24" s="147"/>
+      <c r="AF24" s="147"/>
+      <c r="AG24" s="147"/>
+      <c r="AH24" s="147"/>
+      <c r="AI24" s="147"/>
+      <c r="AJ24" s="147"/>
+      <c r="AK24" s="147"/>
+      <c r="AL24" s="147"/>
       <c r="AO24" s="61" t="s">
         <v>622</v>
       </c>
@@ -28665,28 +28599,28 @@
         <f ca="1">IF(Data!FW19="",Data!FX19,_xlfn.CONCAT(Data!FW19," | ",Data!FX19))</f>
         <v/>
       </c>
-      <c r="BE24" s="188" t="str">
+      <c r="BE24" s="189" t="str">
         <f ca="1">Data!FY19</f>
         <v/>
       </c>
-      <c r="BF24" s="188"/>
-      <c r="BG24" s="188"/>
-      <c r="BH24" s="188"/>
-      <c r="BI24" s="188"/>
-      <c r="BJ24" s="188"/>
-      <c r="BK24" s="188"/>
-      <c r="BL24" s="188"/>
-      <c r="DB24" s="203"/>
-      <c r="DC24" s="203"/>
-      <c r="DD24" s="203"/>
-      <c r="DE24" s="203"/>
-      <c r="DF24" s="203"/>
-      <c r="DG24" s="203"/>
-      <c r="DH24" s="203"/>
-      <c r="DI24" s="203"/>
-      <c r="DJ24" s="203"/>
-      <c r="DK24" s="203"/>
-      <c r="DL24" s="203"/>
+      <c r="BF24" s="189"/>
+      <c r="BG24" s="189"/>
+      <c r="BH24" s="189"/>
+      <c r="BI24" s="189"/>
+      <c r="BJ24" s="189"/>
+      <c r="BK24" s="189"/>
+      <c r="BL24" s="189"/>
+      <c r="DB24" s="191"/>
+      <c r="DC24" s="191"/>
+      <c r="DD24" s="191"/>
+      <c r="DE24" s="191"/>
+      <c r="DF24" s="191"/>
+      <c r="DG24" s="191"/>
+      <c r="DH24" s="191"/>
+      <c r="DI24" s="191"/>
+      <c r="DJ24" s="191"/>
+      <c r="DK24" s="191"/>
+      <c r="DL24" s="191"/>
     </row>
     <row r="25" spans="2:116" ht="21.75" customHeight="1">
       <c r="B25" s="51"/>
@@ -28709,29 +28643,29 @@
       <c r="Q25" s="56" t="s">
         <v>623</v>
       </c>
-      <c r="R25" s="193" t="s">
+      <c r="R25" s="200" t="s">
         <v>661</v>
       </c>
-      <c r="S25" s="193"/>
-      <c r="T25" s="193"/>
-      <c r="U25" s="193"/>
-      <c r="V25" s="193"/>
-      <c r="W25" s="193"/>
-      <c r="X25" s="193"/>
-      <c r="Y25" s="193"/>
+      <c r="S25" s="200"/>
+      <c r="T25" s="200"/>
+      <c r="U25" s="200"/>
+      <c r="V25" s="200"/>
+      <c r="W25" s="200"/>
+      <c r="X25" s="200"/>
+      <c r="Y25" s="200"/>
       <c r="Z25" s="51"/>
       <c r="AA25" s="45"/>
-      <c r="AB25" s="141"/>
-      <c r="AC25" s="141"/>
-      <c r="AD25" s="141"/>
-      <c r="AE25" s="141"/>
-      <c r="AF25" s="141"/>
-      <c r="AG25" s="141"/>
-      <c r="AH25" s="141"/>
-      <c r="AI25" s="141"/>
-      <c r="AJ25" s="141"/>
-      <c r="AK25" s="141"/>
-      <c r="AL25" s="141"/>
+      <c r="AB25" s="147"/>
+      <c r="AC25" s="147"/>
+      <c r="AD25" s="147"/>
+      <c r="AE25" s="147"/>
+      <c r="AF25" s="147"/>
+      <c r="AG25" s="147"/>
+      <c r="AH25" s="147"/>
+      <c r="AI25" s="147"/>
+      <c r="AJ25" s="147"/>
+      <c r="AK25" s="147"/>
+      <c r="AL25" s="147"/>
       <c r="AO25" s="44"/>
       <c r="AQ25" s="56"/>
       <c r="AR25" s="60"/>
@@ -28747,17 +28681,17 @@
         <f ca="1">IF(Data!FW20="",Data!FX20,_xlfn.CONCAT(Data!FW20," | ",Data!FX20))</f>
         <v/>
       </c>
-      <c r="BE25" s="188" t="str">
+      <c r="BE25" s="189" t="str">
         <f ca="1">Data!FY20</f>
         <v/>
       </c>
-      <c r="BF25" s="188"/>
-      <c r="BG25" s="188"/>
-      <c r="BH25" s="188"/>
-      <c r="BI25" s="188"/>
-      <c r="BJ25" s="188"/>
-      <c r="BK25" s="188"/>
-      <c r="BL25" s="188"/>
+      <c r="BF25" s="189"/>
+      <c r="BG25" s="189"/>
+      <c r="BH25" s="189"/>
+      <c r="BI25" s="189"/>
+      <c r="BJ25" s="189"/>
+      <c r="BK25" s="189"/>
+      <c r="BL25" s="189"/>
       <c r="BO25" s="55" t="s">
         <v>624</v>
       </c>
@@ -28770,17 +28704,17 @@
       <c r="CU25" s="74"/>
       <c r="CV25" s="74"/>
       <c r="CW25" s="74"/>
-      <c r="DB25" s="203"/>
-      <c r="DC25" s="203"/>
-      <c r="DD25" s="203"/>
-      <c r="DE25" s="203"/>
-      <c r="DF25" s="203"/>
-      <c r="DG25" s="203"/>
-      <c r="DH25" s="203"/>
-      <c r="DI25" s="203"/>
-      <c r="DJ25" s="203"/>
-      <c r="DK25" s="203"/>
-      <c r="DL25" s="203"/>
+      <c r="DB25" s="191"/>
+      <c r="DC25" s="191"/>
+      <c r="DD25" s="191"/>
+      <c r="DE25" s="191"/>
+      <c r="DF25" s="191"/>
+      <c r="DG25" s="191"/>
+      <c r="DH25" s="191"/>
+      <c r="DI25" s="191"/>
+      <c r="DJ25" s="191"/>
+      <c r="DK25" s="191"/>
+      <c r="DL25" s="191"/>
     </row>
     <row r="26" spans="2:116" ht="21.75" customHeight="1">
       <c r="B26" s="51"/>
@@ -28798,14 +28732,14 @@
       <c r="K26" s="54"/>
       <c r="L26" s="54"/>
       <c r="Q26" s="56"/>
-      <c r="R26" s="193"/>
-      <c r="S26" s="193"/>
-      <c r="T26" s="193"/>
-      <c r="U26" s="193"/>
-      <c r="V26" s="193"/>
-      <c r="W26" s="193"/>
-      <c r="X26" s="193"/>
-      <c r="Y26" s="193"/>
+      <c r="R26" s="200"/>
+      <c r="S26" s="200"/>
+      <c r="T26" s="200"/>
+      <c r="U26" s="200"/>
+      <c r="V26" s="200"/>
+      <c r="W26" s="200"/>
+      <c r="X26" s="200"/>
+      <c r="Y26" s="200"/>
       <c r="AH26"/>
       <c r="AQ26" s="71" t="s">
         <v>187</v>
@@ -28826,33 +28760,33 @@
         <f ca="1">IF(Data!FW21="",Data!FX21,_xlfn.CONCAT(Data!FW21," | ",Data!FX21))</f>
         <v/>
       </c>
-      <c r="BE26" s="188" t="str">
+      <c r="BE26" s="189" t="str">
         <f ca="1">Data!FY21</f>
         <v/>
       </c>
-      <c r="BF26" s="188"/>
-      <c r="BG26" s="188"/>
-      <c r="BH26" s="188"/>
-      <c r="BI26" s="188"/>
-      <c r="BJ26" s="188"/>
-      <c r="BK26" s="188"/>
-      <c r="BL26" s="188"/>
-      <c r="BO26" s="202" t="str">
+      <c r="BF26" s="189"/>
+      <c r="BG26" s="189"/>
+      <c r="BH26" s="189"/>
+      <c r="BI26" s="189"/>
+      <c r="BJ26" s="189"/>
+      <c r="BK26" s="189"/>
+      <c r="BL26" s="189"/>
+      <c r="BO26" s="190" t="str">
         <f ca="1">Fillout!B143 &amp; "
 " &amp;Fillout!B144</f>
         <v>Cartwright in NSW belongs to the LGA of the City of Liverpool. The past 12-months growth for median house prices is -2.7%. The current median house price is sitting at $825,000. Property median time on the market 50 days and 16 sold in the past 12 months. The average weekly rental is $560 based on the current median house price, with a gross rental yield of 3.4%.
 The property consists of 3 bedrooms, 1 bathroom, single garage, with kitchen, dining, lounge and laundry. The subject property has a land area of 562 sqm and an internal area of 110 sqm approximately. The property features items such as hot water system. The building condition and the location are both good if holding onto the property over the long term. This has been considered in the assessment of market value of the subject property.</v>
       </c>
-      <c r="BP26" s="202"/>
-      <c r="BQ26" s="202"/>
-      <c r="BR26" s="202"/>
-      <c r="BS26" s="202"/>
-      <c r="BT26" s="202"/>
-      <c r="BU26" s="202"/>
-      <c r="BV26" s="202"/>
-      <c r="BW26" s="202"/>
-      <c r="BX26" s="202"/>
-      <c r="BY26" s="202"/>
+      <c r="BP26" s="190"/>
+      <c r="BQ26" s="190"/>
+      <c r="BR26" s="190"/>
+      <c r="BS26" s="190"/>
+      <c r="BT26" s="190"/>
+      <c r="BU26" s="190"/>
+      <c r="BV26" s="190"/>
+      <c r="BW26" s="190"/>
+      <c r="BX26" s="190"/>
+      <c r="BY26" s="190"/>
       <c r="CO26" s="136"/>
       <c r="CP26" s="136"/>
       <c r="CQ26" s="136"/>
@@ -28864,17 +28798,17 @@
       <c r="CW26" s="136"/>
       <c r="CX26" s="136"/>
       <c r="CY26" s="136"/>
-      <c r="DB26" s="203"/>
-      <c r="DC26" s="203"/>
-      <c r="DD26" s="203"/>
-      <c r="DE26" s="203"/>
-      <c r="DF26" s="203"/>
-      <c r="DG26" s="203"/>
-      <c r="DH26" s="203"/>
-      <c r="DI26" s="203"/>
-      <c r="DJ26" s="203"/>
-      <c r="DK26" s="203"/>
-      <c r="DL26" s="203"/>
+      <c r="DB26" s="191"/>
+      <c r="DC26" s="191"/>
+      <c r="DD26" s="191"/>
+      <c r="DE26" s="191"/>
+      <c r="DF26" s="191"/>
+      <c r="DG26" s="191"/>
+      <c r="DH26" s="191"/>
+      <c r="DI26" s="191"/>
+      <c r="DJ26" s="191"/>
+      <c r="DK26" s="191"/>
+      <c r="DL26" s="191"/>
     </row>
     <row r="27" spans="2:116" ht="21.75" customHeight="1">
       <c r="D27" s="46" t="s">
@@ -28891,14 +28825,14 @@
       <c r="K27" s="53"/>
       <c r="L27" s="53"/>
       <c r="Q27" s="56"/>
-      <c r="R27" s="193"/>
-      <c r="S27" s="193"/>
-      <c r="T27" s="193"/>
-      <c r="U27" s="193"/>
-      <c r="V27" s="193"/>
-      <c r="W27" s="193"/>
-      <c r="X27" s="193"/>
-      <c r="Y27" s="193"/>
+      <c r="R27" s="200"/>
+      <c r="S27" s="200"/>
+      <c r="T27" s="200"/>
+      <c r="U27" s="200"/>
+      <c r="V27" s="200"/>
+      <c r="W27" s="200"/>
+      <c r="X27" s="200"/>
+      <c r="Y27" s="200"/>
       <c r="AD27" s="71" t="s">
         <v>629</v>
       </c>
@@ -28925,28 +28859,28 @@
         <f ca="1">IF(Data!FW22="",Data!FX22,_xlfn.CONCAT(Data!FW22," | ",Data!FX22))</f>
         <v/>
       </c>
-      <c r="BE27" s="188" t="str">
+      <c r="BE27" s="189" t="str">
         <f ca="1">Data!FY22</f>
         <v/>
       </c>
-      <c r="BF27" s="188"/>
-      <c r="BG27" s="188"/>
-      <c r="BH27" s="188"/>
-      <c r="BI27" s="188"/>
-      <c r="BJ27" s="188"/>
-      <c r="BK27" s="188"/>
-      <c r="BL27" s="188"/>
-      <c r="BO27" s="202"/>
-      <c r="BP27" s="202"/>
-      <c r="BQ27" s="202"/>
-      <c r="BR27" s="202"/>
-      <c r="BS27" s="202"/>
-      <c r="BT27" s="202"/>
-      <c r="BU27" s="202"/>
-      <c r="BV27" s="202"/>
-      <c r="BW27" s="202"/>
-      <c r="BX27" s="202"/>
-      <c r="BY27" s="202"/>
+      <c r="BF27" s="189"/>
+      <c r="BG27" s="189"/>
+      <c r="BH27" s="189"/>
+      <c r="BI27" s="189"/>
+      <c r="BJ27" s="189"/>
+      <c r="BK27" s="189"/>
+      <c r="BL27" s="189"/>
+      <c r="BO27" s="190"/>
+      <c r="BP27" s="190"/>
+      <c r="BQ27" s="190"/>
+      <c r="BR27" s="190"/>
+      <c r="BS27" s="190"/>
+      <c r="BT27" s="190"/>
+      <c r="BU27" s="190"/>
+      <c r="BV27" s="190"/>
+      <c r="BW27" s="190"/>
+      <c r="BX27" s="190"/>
+      <c r="BY27" s="190"/>
       <c r="CO27" s="77" t="str">
         <f>IF(Data!C5=FALSE,"We certify the following subject property: ",_xlfn.CONCAT("We certify that the following property has been done by myself on the ",TEXT(Fillout!B22,"dd mmmm yyyy"),":"))</f>
         <v xml:space="preserve">We certify the following subject property: </v>
@@ -28960,17 +28894,17 @@
       <c r="CW27" s="60"/>
       <c r="CX27" s="136"/>
       <c r="CY27" s="136"/>
-      <c r="DB27" s="203"/>
-      <c r="DC27" s="203"/>
-      <c r="DD27" s="203"/>
-      <c r="DE27" s="203"/>
-      <c r="DF27" s="203"/>
-      <c r="DG27" s="203"/>
-      <c r="DH27" s="203"/>
-      <c r="DI27" s="203"/>
-      <c r="DJ27" s="203"/>
-      <c r="DK27" s="203"/>
-      <c r="DL27" s="203"/>
+      <c r="DB27" s="191"/>
+      <c r="DC27" s="191"/>
+      <c r="DD27" s="191"/>
+      <c r="DE27" s="191"/>
+      <c r="DF27" s="191"/>
+      <c r="DG27" s="191"/>
+      <c r="DH27" s="191"/>
+      <c r="DI27" s="191"/>
+      <c r="DJ27" s="191"/>
+      <c r="DK27" s="191"/>
+      <c r="DL27" s="191"/>
     </row>
     <row r="28" spans="2:116" ht="21.75" customHeight="1">
       <c r="D28" s="46" t="s">
@@ -28987,14 +28921,14 @@
       <c r="K28" s="55"/>
       <c r="L28" s="55"/>
       <c r="Q28" s="56"/>
-      <c r="R28" s="193"/>
-      <c r="S28" s="193"/>
-      <c r="T28" s="193"/>
-      <c r="U28" s="193"/>
-      <c r="V28" s="193"/>
-      <c r="W28" s="193"/>
-      <c r="X28" s="193"/>
-      <c r="Y28" s="193"/>
+      <c r="R28" s="200"/>
+      <c r="S28" s="200"/>
+      <c r="T28" s="200"/>
+      <c r="U28" s="200"/>
+      <c r="V28" s="200"/>
+      <c r="W28" s="200"/>
+      <c r="X28" s="200"/>
+      <c r="Y28" s="200"/>
       <c r="AD28" s="71" t="s">
         <v>156</v>
       </c>
@@ -29028,45 +28962,45 @@
         <f ca="1">IF(Data!FW23="",Data!FX23,_xlfn.CONCAT(Data!FW23," | ",Data!FX23))</f>
         <v/>
       </c>
-      <c r="BE28" s="188" t="str">
+      <c r="BE28" s="189" t="str">
         <f ca="1">Data!FY23</f>
         <v/>
       </c>
-      <c r="BF28" s="188"/>
-      <c r="BG28" s="188"/>
-      <c r="BH28" s="188"/>
-      <c r="BI28" s="188"/>
-      <c r="BJ28" s="188"/>
-      <c r="BK28" s="188"/>
-      <c r="BL28" s="188"/>
-      <c r="BO28" s="202"/>
-      <c r="BP28" s="202"/>
-      <c r="BQ28" s="202"/>
-      <c r="BR28" s="202"/>
-      <c r="BS28" s="202"/>
-      <c r="BT28" s="202"/>
-      <c r="BU28" s="202"/>
-      <c r="BV28" s="202"/>
-      <c r="BW28" s="202"/>
-      <c r="BX28" s="202"/>
-      <c r="BY28" s="202"/>
+      <c r="BF28" s="189"/>
+      <c r="BG28" s="189"/>
+      <c r="BH28" s="189"/>
+      <c r="BI28" s="189"/>
+      <c r="BJ28" s="189"/>
+      <c r="BK28" s="189"/>
+      <c r="BL28" s="189"/>
+      <c r="BO28" s="190"/>
+      <c r="BP28" s="190"/>
+      <c r="BQ28" s="190"/>
+      <c r="BR28" s="190"/>
+      <c r="BS28" s="190"/>
+      <c r="BT28" s="190"/>
+      <c r="BU28" s="190"/>
+      <c r="BV28" s="190"/>
+      <c r="BW28" s="190"/>
+      <c r="BX28" s="190"/>
+      <c r="BY28" s="190"/>
       <c r="CO28" s="76" t="str">
         <f>Fillout!B6</f>
         <v>29 Willan Drive Cartwright NSW 2168</v>
       </c>
       <c r="CX28" s="136"/>
       <c r="CY28" s="136"/>
-      <c r="DB28" s="203"/>
-      <c r="DC28" s="203"/>
-      <c r="DD28" s="203"/>
-      <c r="DE28" s="203"/>
-      <c r="DF28" s="203"/>
-      <c r="DG28" s="203"/>
-      <c r="DH28" s="203"/>
-      <c r="DI28" s="203"/>
-      <c r="DJ28" s="203"/>
-      <c r="DK28" s="203"/>
-      <c r="DL28" s="203"/>
+      <c r="DB28" s="191"/>
+      <c r="DC28" s="191"/>
+      <c r="DD28" s="191"/>
+      <c r="DE28" s="191"/>
+      <c r="DF28" s="191"/>
+      <c r="DG28" s="191"/>
+      <c r="DH28" s="191"/>
+      <c r="DI28" s="191"/>
+      <c r="DJ28" s="191"/>
+      <c r="DK28" s="191"/>
+      <c r="DL28" s="191"/>
     </row>
     <row r="29" spans="2:116" ht="21.75" customHeight="1">
       <c r="D29" s="46" t="s">
@@ -29086,30 +29020,30 @@
       <c r="Q29" s="56" t="s">
         <v>634</v>
       </c>
-      <c r="R29" s="193" t="s">
+      <c r="R29" s="200" t="s">
         <v>635</v>
       </c>
-      <c r="S29" s="193"/>
-      <c r="T29" s="193"/>
-      <c r="U29" s="193"/>
-      <c r="V29" s="193"/>
-      <c r="W29" s="193"/>
-      <c r="X29" s="193"/>
-      <c r="Y29" s="193"/>
+      <c r="S29" s="200"/>
+      <c r="T29" s="200"/>
+      <c r="U29" s="200"/>
+      <c r="V29" s="200"/>
+      <c r="W29" s="200"/>
+      <c r="X29" s="200"/>
+      <c r="Y29" s="200"/>
       <c r="AD29" s="71" t="s">
         <v>157</v>
       </c>
-      <c r="AE29" s="200" t="str">
+      <c r="AE29" s="194" t="str">
         <f>IF(Fillout!B32&lt;&gt;"",Fillout!B32,"")</f>
         <v>Permissible uses with development consent include Bed and breakfast, Community care accommodation, Tourist accommodation, Home based business, Informal outdoor recreation, Medical centre, Place of worship, Seniors housing, Railway, Residential aged care facility, Rooming house, Tramway, Roads etc.</v>
       </c>
-      <c r="AF29" s="200"/>
-      <c r="AG29" s="200"/>
-      <c r="AH29" s="200"/>
-      <c r="AI29" s="200"/>
-      <c r="AJ29" s="200"/>
-      <c r="AK29" s="200"/>
-      <c r="AL29" s="200"/>
+      <c r="AF29" s="194"/>
+      <c r="AG29" s="194"/>
+      <c r="AH29" s="194"/>
+      <c r="AI29" s="194"/>
+      <c r="AJ29" s="194"/>
+      <c r="AK29" s="194"/>
+      <c r="AL29" s="194"/>
       <c r="AO29" s="44"/>
       <c r="AQ29" s="71" t="s">
         <v>636</v>
@@ -29130,44 +29064,44 @@
         <f ca="1">IF(Data!FW24="",Data!FX24,_xlfn.CONCAT(Data!FW24," | ",Data!FX24))</f>
         <v/>
       </c>
-      <c r="BE29" s="188" t="str">
+      <c r="BE29" s="189" t="str">
         <f ca="1">Data!FY24</f>
         <v/>
       </c>
-      <c r="BF29" s="188"/>
-      <c r="BG29" s="188"/>
-      <c r="BH29" s="188"/>
-      <c r="BI29" s="188"/>
-      <c r="BJ29" s="188"/>
-      <c r="BK29" s="188"/>
-      <c r="BL29" s="188"/>
-      <c r="BO29" s="202"/>
-      <c r="BP29" s="202"/>
-      <c r="BQ29" s="202"/>
-      <c r="BR29" s="202"/>
-      <c r="BS29" s="202"/>
-      <c r="BT29" s="202"/>
-      <c r="BU29" s="202"/>
-      <c r="BV29" s="202"/>
-      <c r="BW29" s="202"/>
-      <c r="BX29" s="202"/>
-      <c r="BY29" s="202"/>
+      <c r="BF29" s="189"/>
+      <c r="BG29" s="189"/>
+      <c r="BH29" s="189"/>
+      <c r="BI29" s="189"/>
+      <c r="BJ29" s="189"/>
+      <c r="BK29" s="189"/>
+      <c r="BL29" s="189"/>
+      <c r="BO29" s="190"/>
+      <c r="BP29" s="190"/>
+      <c r="BQ29" s="190"/>
+      <c r="BR29" s="190"/>
+      <c r="BS29" s="190"/>
+      <c r="BT29" s="190"/>
+      <c r="BU29" s="190"/>
+      <c r="BV29" s="190"/>
+      <c r="BW29" s="190"/>
+      <c r="BX29" s="190"/>
+      <c r="BY29" s="190"/>
       <c r="CO29" s="77" t="s">
         <v>640</v>
       </c>
       <c r="CX29" s="136"/>
       <c r="CY29" s="136"/>
-      <c r="DB29" s="203"/>
-      <c r="DC29" s="203"/>
-      <c r="DD29" s="203"/>
-      <c r="DE29" s="203"/>
-      <c r="DF29" s="203"/>
-      <c r="DG29" s="203"/>
-      <c r="DH29" s="203"/>
-      <c r="DI29" s="203"/>
-      <c r="DJ29" s="203"/>
-      <c r="DK29" s="203"/>
-      <c r="DL29" s="203"/>
+      <c r="DB29" s="191"/>
+      <c r="DC29" s="191"/>
+      <c r="DD29" s="191"/>
+      <c r="DE29" s="191"/>
+      <c r="DF29" s="191"/>
+      <c r="DG29" s="191"/>
+      <c r="DH29" s="191"/>
+      <c r="DI29" s="191"/>
+      <c r="DJ29" s="191"/>
+      <c r="DK29" s="191"/>
+      <c r="DL29" s="191"/>
     </row>
     <row r="30" spans="2:116" ht="21.75" customHeight="1">
       <c r="F30" s="55"/>
@@ -29178,22 +29112,22 @@
       <c r="K30" s="55"/>
       <c r="L30" s="55"/>
       <c r="Q30" s="56"/>
-      <c r="R30" s="193"/>
-      <c r="S30" s="193"/>
-      <c r="T30" s="193"/>
-      <c r="U30" s="193"/>
-      <c r="V30" s="193"/>
-      <c r="W30" s="193"/>
-      <c r="X30" s="193"/>
-      <c r="Y30" s="193"/>
-      <c r="AE30" s="200"/>
-      <c r="AF30" s="200"/>
-      <c r="AG30" s="200"/>
-      <c r="AH30" s="200"/>
-      <c r="AI30" s="200"/>
-      <c r="AJ30" s="200"/>
-      <c r="AK30" s="200"/>
-      <c r="AL30" s="200"/>
+      <c r="R30" s="200"/>
+      <c r="S30" s="200"/>
+      <c r="T30" s="200"/>
+      <c r="U30" s="200"/>
+      <c r="V30" s="200"/>
+      <c r="W30" s="200"/>
+      <c r="X30" s="200"/>
+      <c r="Y30" s="200"/>
+      <c r="AE30" s="194"/>
+      <c r="AF30" s="194"/>
+      <c r="AG30" s="194"/>
+      <c r="AH30" s="194"/>
+      <c r="AI30" s="194"/>
+      <c r="AJ30" s="194"/>
+      <c r="AK30" s="194"/>
+      <c r="AL30" s="194"/>
       <c r="AQ30" s="71" t="s">
         <v>637</v>
       </c>
@@ -29213,45 +29147,45 @@
         <f ca="1">IF(Data!FW25="",Data!FX25,_xlfn.CONCAT(Data!FW25," | ",Data!FX25))</f>
         <v/>
       </c>
-      <c r="BE30" s="188" t="str">
+      <c r="BE30" s="189" t="str">
         <f ca="1">Data!FY25</f>
         <v/>
       </c>
-      <c r="BF30" s="188"/>
-      <c r="BG30" s="188"/>
-      <c r="BH30" s="188"/>
-      <c r="BI30" s="188"/>
-      <c r="BJ30" s="188"/>
-      <c r="BK30" s="188"/>
-      <c r="BL30" s="188"/>
-      <c r="BO30" s="202"/>
-      <c r="BP30" s="202"/>
-      <c r="BQ30" s="202"/>
-      <c r="BR30" s="202"/>
-      <c r="BS30" s="202"/>
-      <c r="BT30" s="202"/>
-      <c r="BU30" s="202"/>
-      <c r="BV30" s="202"/>
-      <c r="BW30" s="202"/>
-      <c r="BX30" s="202"/>
-      <c r="BY30" s="202"/>
+      <c r="BF30" s="189"/>
+      <c r="BG30" s="189"/>
+      <c r="BH30" s="189"/>
+      <c r="BI30" s="189"/>
+      <c r="BJ30" s="189"/>
+      <c r="BK30" s="189"/>
+      <c r="BL30" s="189"/>
+      <c r="BO30" s="190"/>
+      <c r="BP30" s="190"/>
+      <c r="BQ30" s="190"/>
+      <c r="BR30" s="190"/>
+      <c r="BS30" s="190"/>
+      <c r="BT30" s="190"/>
+      <c r="BU30" s="190"/>
+      <c r="BV30" s="190"/>
+      <c r="BW30" s="190"/>
+      <c r="BX30" s="190"/>
+      <c r="BY30" s="190"/>
       <c r="CO30" s="76" t="str">
         <f>_xlfn.CONCAT("As at ",TEXT(Fillout!B24,"dd mmmm yyyy")," (Date of Valuation)")</f>
         <v>As at 27 June 2025 (Date of Valuation)</v>
       </c>
       <c r="CX30" s="136"/>
       <c r="CY30" s="60"/>
-      <c r="DB30" s="203"/>
-      <c r="DC30" s="203"/>
-      <c r="DD30" s="203"/>
-      <c r="DE30" s="203"/>
-      <c r="DF30" s="203"/>
-      <c r="DG30" s="203"/>
-      <c r="DH30" s="203"/>
-      <c r="DI30" s="203"/>
-      <c r="DJ30" s="203"/>
-      <c r="DK30" s="203"/>
-      <c r="DL30" s="203"/>
+      <c r="DB30" s="191"/>
+      <c r="DC30" s="191"/>
+      <c r="DD30" s="191"/>
+      <c r="DE30" s="191"/>
+      <c r="DF30" s="191"/>
+      <c r="DG30" s="191"/>
+      <c r="DH30" s="191"/>
+      <c r="DI30" s="191"/>
+      <c r="DJ30" s="191"/>
+      <c r="DK30" s="191"/>
+      <c r="DL30" s="191"/>
     </row>
     <row r="31" spans="2:116" ht="21.75" customHeight="1">
       <c r="B31" s="44" t="s">
@@ -29265,23 +29199,23 @@
       <c r="K31" s="55"/>
       <c r="L31" s="55"/>
       <c r="Q31" s="42"/>
-      <c r="R31" s="193"/>
-      <c r="S31" s="193"/>
-      <c r="T31" s="193"/>
-      <c r="U31" s="193"/>
-      <c r="V31" s="193"/>
-      <c r="W31" s="193"/>
-      <c r="X31" s="193"/>
-      <c r="Y31" s="193"/>
+      <c r="R31" s="200"/>
+      <c r="S31" s="200"/>
+      <c r="T31" s="200"/>
+      <c r="U31" s="200"/>
+      <c r="V31" s="200"/>
+      <c r="W31" s="200"/>
+      <c r="X31" s="200"/>
+      <c r="Y31" s="200"/>
       <c r="AD31" s="71"/>
-      <c r="AE31" s="200"/>
-      <c r="AF31" s="200"/>
-      <c r="AG31" s="200"/>
-      <c r="AH31" s="200"/>
-      <c r="AI31" s="200"/>
-      <c r="AJ31" s="200"/>
-      <c r="AK31" s="200"/>
-      <c r="AL31" s="200"/>
+      <c r="AE31" s="194"/>
+      <c r="AF31" s="194"/>
+      <c r="AG31" s="194"/>
+      <c r="AH31" s="194"/>
+      <c r="AI31" s="194"/>
+      <c r="AJ31" s="194"/>
+      <c r="AK31" s="194"/>
+      <c r="AL31" s="194"/>
       <c r="AQ31" s="71" t="s">
         <v>639</v>
       </c>
@@ -29301,43 +29235,43 @@
         <f ca="1">IF(Data!FW26="",Data!FX26,_xlfn.CONCAT(Data!FW26," | ",Data!FX26))</f>
         <v/>
       </c>
-      <c r="BE31" s="188" t="str">
+      <c r="BE31" s="189" t="str">
         <f ca="1">Data!FY26</f>
         <v/>
       </c>
-      <c r="BF31" s="188"/>
-      <c r="BG31" s="188"/>
-      <c r="BH31" s="188"/>
-      <c r="BI31" s="188"/>
-      <c r="BJ31" s="188"/>
-      <c r="BK31" s="188"/>
-      <c r="BL31" s="188"/>
-      <c r="BO31" s="202"/>
-      <c r="BP31" s="202"/>
-      <c r="BQ31" s="202"/>
-      <c r="BR31" s="202"/>
-      <c r="BS31" s="202"/>
-      <c r="BT31" s="202"/>
-      <c r="BU31" s="202"/>
-      <c r="BV31" s="202"/>
-      <c r="BW31" s="202"/>
-      <c r="BX31" s="202"/>
-      <c r="BY31" s="202"/>
+      <c r="BF31" s="189"/>
+      <c r="BG31" s="189"/>
+      <c r="BH31" s="189"/>
+      <c r="BI31" s="189"/>
+      <c r="BJ31" s="189"/>
+      <c r="BK31" s="189"/>
+      <c r="BL31" s="189"/>
+      <c r="BO31" s="190"/>
+      <c r="BP31" s="190"/>
+      <c r="BQ31" s="190"/>
+      <c r="BR31" s="190"/>
+      <c r="BS31" s="190"/>
+      <c r="BT31" s="190"/>
+      <c r="BU31" s="190"/>
+      <c r="BV31" s="190"/>
+      <c r="BW31" s="190"/>
+      <c r="BX31" s="190"/>
+      <c r="BY31" s="190"/>
       <c r="CO31" s="76" t="s">
         <v>645</v>
       </c>
       <c r="CX31" s="136"/>
-      <c r="DB31" s="203"/>
-      <c r="DC31" s="203"/>
-      <c r="DD31" s="203"/>
-      <c r="DE31" s="203"/>
-      <c r="DF31" s="203"/>
-      <c r="DG31" s="203"/>
-      <c r="DH31" s="203"/>
-      <c r="DI31" s="203"/>
-      <c r="DJ31" s="203"/>
-      <c r="DK31" s="203"/>
-      <c r="DL31" s="203"/>
+      <c r="DB31" s="191"/>
+      <c r="DC31" s="191"/>
+      <c r="DD31" s="191"/>
+      <c r="DE31" s="191"/>
+      <c r="DF31" s="191"/>
+      <c r="DG31" s="191"/>
+      <c r="DH31" s="191"/>
+      <c r="DI31" s="191"/>
+      <c r="DJ31" s="191"/>
+      <c r="DK31" s="191"/>
+      <c r="DL31" s="191"/>
     </row>
     <row r="32" spans="2:116" ht="21.75" customHeight="1">
       <c r="D32" s="46"/>
@@ -29353,16 +29287,16 @@
       <c r="Q32" s="56" t="s">
         <v>641</v>
       </c>
-      <c r="R32" s="193" t="s">
+      <c r="R32" s="200" t="s">
         <v>642</v>
       </c>
-      <c r="S32" s="193"/>
-      <c r="T32" s="193"/>
-      <c r="U32" s="193"/>
-      <c r="V32" s="193"/>
-      <c r="W32" s="193"/>
-      <c r="X32" s="193"/>
-      <c r="Y32" s="193"/>
+      <c r="S32" s="200"/>
+      <c r="T32" s="200"/>
+      <c r="U32" s="200"/>
+      <c r="V32" s="200"/>
+      <c r="W32" s="200"/>
+      <c r="X32" s="200"/>
+      <c r="Y32" s="200"/>
       <c r="AD32" s="71" t="s">
         <v>647</v>
       </c>
@@ -29395,68 +29329,68 @@
         <f ca="1">IF(Data!FW27="",Data!FX27,_xlfn.CONCAT(Data!FW27," | ",Data!FX27))</f>
         <v/>
       </c>
-      <c r="BE32" s="188" t="str">
+      <c r="BE32" s="189" t="str">
         <f ca="1">Data!FY27</f>
         <v/>
       </c>
-      <c r="BF32" s="188"/>
-      <c r="BG32" s="188"/>
-      <c r="BH32" s="188"/>
-      <c r="BI32" s="188"/>
-      <c r="BJ32" s="188"/>
-      <c r="BK32" s="188"/>
-      <c r="BL32" s="188"/>
-      <c r="BO32" s="202"/>
-      <c r="BP32" s="202"/>
-      <c r="BQ32" s="202"/>
-      <c r="BR32" s="202"/>
-      <c r="BS32" s="202"/>
-      <c r="BT32" s="202"/>
-      <c r="BU32" s="202"/>
-      <c r="BV32" s="202"/>
-      <c r="BW32" s="202"/>
-      <c r="BX32" s="202"/>
-      <c r="BY32" s="202"/>
+      <c r="BF32" s="189"/>
+      <c r="BG32" s="189"/>
+      <c r="BH32" s="189"/>
+      <c r="BI32" s="189"/>
+      <c r="BJ32" s="189"/>
+      <c r="BK32" s="189"/>
+      <c r="BL32" s="189"/>
+      <c r="BO32" s="190"/>
+      <c r="BP32" s="190"/>
+      <c r="BQ32" s="190"/>
+      <c r="BR32" s="190"/>
+      <c r="BS32" s="190"/>
+      <c r="BT32" s="190"/>
+      <c r="BU32" s="190"/>
+      <c r="BV32" s="190"/>
+      <c r="BW32" s="190"/>
+      <c r="BX32" s="190"/>
+      <c r="BY32" s="190"/>
       <c r="CO32" s="76" t="str">
         <f>Fillout!E184</f>
         <v>$800,000.00 (Eight Hundred Thousand Dollars)</v>
       </c>
       <c r="CX32" s="136"/>
-      <c r="DB32" s="203"/>
-      <c r="DC32" s="203"/>
-      <c r="DD32" s="203"/>
-      <c r="DE32" s="203"/>
-      <c r="DF32" s="203"/>
-      <c r="DG32" s="203"/>
-      <c r="DH32" s="203"/>
-      <c r="DI32" s="203"/>
-      <c r="DJ32" s="203"/>
-      <c r="DK32" s="203"/>
-      <c r="DL32" s="203"/>
+      <c r="DB32" s="191"/>
+      <c r="DC32" s="191"/>
+      <c r="DD32" s="191"/>
+      <c r="DE32" s="191"/>
+      <c r="DF32" s="191"/>
+      <c r="DG32" s="191"/>
+      <c r="DH32" s="191"/>
+      <c r="DI32" s="191"/>
+      <c r="DJ32" s="191"/>
+      <c r="DK32" s="191"/>
+      <c r="DL32" s="191"/>
     </row>
     <row r="33" spans="2:119" ht="21.75" customHeight="1">
       <c r="D33" s="46" t="s">
         <v>643</v>
       </c>
-      <c r="E33" s="189" t="s">
+      <c r="E33" s="196" t="s">
         <v>644</v>
       </c>
-      <c r="F33" s="189"/>
-      <c r="G33" s="189"/>
-      <c r="H33" s="189"/>
-      <c r="I33" s="189"/>
-      <c r="J33" s="189"/>
-      <c r="K33" s="189"/>
-      <c r="L33" s="189"/>
+      <c r="F33" s="196"/>
+      <c r="G33" s="196"/>
+      <c r="H33" s="196"/>
+      <c r="I33" s="196"/>
+      <c r="J33" s="196"/>
+      <c r="K33" s="196"/>
+      <c r="L33" s="196"/>
       <c r="Q33" s="56"/>
-      <c r="R33" s="193"/>
-      <c r="S33" s="193"/>
-      <c r="T33" s="193"/>
-      <c r="U33" s="193"/>
-      <c r="V33" s="193"/>
-      <c r="W33" s="193"/>
-      <c r="X33" s="193"/>
-      <c r="Y33" s="193"/>
+      <c r="R33" s="200"/>
+      <c r="S33" s="200"/>
+      <c r="T33" s="200"/>
+      <c r="U33" s="200"/>
+      <c r="V33" s="200"/>
+      <c r="W33" s="200"/>
+      <c r="X33" s="200"/>
+      <c r="Y33" s="200"/>
       <c r="AD33" s="71" t="s">
         <v>155</v>
       </c>
@@ -29474,69 +29408,69 @@
       <c r="AQ33" s="71" t="s">
         <v>214</v>
       </c>
-      <c r="AR33" s="194" t="str">
+      <c r="AR33" s="193" t="str">
         <f ca="1">Fillout!B140</f>
         <v>3 Bedrooms, 1 Bathroom, Single garage, with Kitchen, Dining, Lounge and Laundry</v>
       </c>
-      <c r="AS33" s="194"/>
-      <c r="AT33" s="194"/>
-      <c r="AU33" s="194"/>
-      <c r="AV33" s="194"/>
-      <c r="AW33" s="194"/>
-      <c r="AX33" s="194"/>
-      <c r="AY33" s="194"/>
+      <c r="AS33" s="193"/>
+      <c r="AT33" s="193"/>
+      <c r="AU33" s="193"/>
+      <c r="AV33" s="193"/>
+      <c r="AW33" s="193"/>
+      <c r="AX33" s="193"/>
+      <c r="AY33" s="193"/>
       <c r="BC33" s="63"/>
       <c r="BD33" s="64" t="str">
         <f ca="1">IF(Data!FW28="",Data!FX28,_xlfn.CONCAT(Data!FW28," | ",Data!FX28))</f>
         <v/>
       </c>
-      <c r="BE33" s="199" t="str">
+      <c r="BE33" s="192" t="str">
         <f ca="1">Data!FY28</f>
         <v/>
       </c>
-      <c r="BF33" s="199"/>
-      <c r="BG33" s="199"/>
-      <c r="BH33" s="199"/>
-      <c r="BI33" s="199"/>
-      <c r="BJ33" s="199"/>
-      <c r="BK33" s="199"/>
-      <c r="BL33" s="199"/>
-      <c r="BO33" s="202"/>
-      <c r="BP33" s="202"/>
-      <c r="BQ33" s="202"/>
-      <c r="BR33" s="202"/>
-      <c r="BS33" s="202"/>
-      <c r="BT33" s="202"/>
-      <c r="BU33" s="202"/>
-      <c r="BV33" s="202"/>
-      <c r="BW33" s="202"/>
-      <c r="BX33" s="202"/>
-      <c r="BY33" s="202"/>
+      <c r="BF33" s="192"/>
+      <c r="BG33" s="192"/>
+      <c r="BH33" s="192"/>
+      <c r="BI33" s="192"/>
+      <c r="BJ33" s="192"/>
+      <c r="BK33" s="192"/>
+      <c r="BL33" s="192"/>
+      <c r="BO33" s="190"/>
+      <c r="BP33" s="190"/>
+      <c r="BQ33" s="190"/>
+      <c r="BR33" s="190"/>
+      <c r="BS33" s="190"/>
+      <c r="BT33" s="190"/>
+      <c r="BU33" s="190"/>
+      <c r="BV33" s="190"/>
+      <c r="BW33" s="190"/>
+      <c r="BX33" s="190"/>
+      <c r="BY33" s="190"/>
       <c r="CX33" s="136"/>
-      <c r="DB33" s="203"/>
-      <c r="DC33" s="203"/>
-      <c r="DD33" s="203"/>
-      <c r="DE33" s="203"/>
-      <c r="DF33" s="203"/>
-      <c r="DG33" s="203"/>
-      <c r="DH33" s="203"/>
-      <c r="DI33" s="203"/>
-      <c r="DJ33" s="203"/>
-      <c r="DK33" s="203"/>
-      <c r="DL33" s="203"/>
+      <c r="DB33" s="191"/>
+      <c r="DC33" s="191"/>
+      <c r="DD33" s="191"/>
+      <c r="DE33" s="191"/>
+      <c r="DF33" s="191"/>
+      <c r="DG33" s="191"/>
+      <c r="DH33" s="191"/>
+      <c r="DI33" s="191"/>
+      <c r="DJ33" s="191"/>
+      <c r="DK33" s="191"/>
+      <c r="DL33" s="191"/>
     </row>
     <row r="34" spans="2:119" ht="21.75" customHeight="1">
       <c r="D34" s="15" t="s">
         <v>646</v>
       </c>
-      <c r="E34" s="189"/>
-      <c r="F34" s="189"/>
-      <c r="G34" s="189"/>
-      <c r="H34" s="189"/>
-      <c r="I34" s="189"/>
-      <c r="J34" s="189"/>
-      <c r="K34" s="189"/>
-      <c r="L34" s="189"/>
+      <c r="E34" s="196"/>
+      <c r="F34" s="196"/>
+      <c r="G34" s="196"/>
+      <c r="H34" s="196"/>
+      <c r="I34" s="196"/>
+      <c r="J34" s="196"/>
+      <c r="K34" s="196"/>
+      <c r="L34" s="196"/>
       <c r="AD34" s="71" t="s">
         <v>651</v>
       </c>
@@ -29550,53 +29484,53 @@
       <c r="AJ34" s="84"/>
       <c r="AK34" s="84"/>
       <c r="AL34" s="84"/>
-      <c r="AR34" s="194"/>
-      <c r="AS34" s="194"/>
-      <c r="AT34" s="194"/>
-      <c r="AU34" s="194"/>
-      <c r="AV34" s="194"/>
-      <c r="AW34" s="194"/>
-      <c r="AX34" s="194"/>
-      <c r="AY34" s="194"/>
+      <c r="AR34" s="193"/>
+      <c r="AS34" s="193"/>
+      <c r="AT34" s="193"/>
+      <c r="AU34" s="193"/>
+      <c r="AV34" s="193"/>
+      <c r="AW34" s="193"/>
+      <c r="AX34" s="193"/>
+      <c r="AY34" s="193"/>
       <c r="BC34" s="63"/>
       <c r="BD34" s="64" t="str">
         <f ca="1">IF(Data!FW29="",Data!FX29,_xlfn.CONCAT(Data!FW29," | ",Data!FX29))</f>
         <v/>
       </c>
-      <c r="BE34" s="199" t="str">
+      <c r="BE34" s="192" t="str">
         <f ca="1">Data!FY29</f>
         <v/>
       </c>
-      <c r="BF34" s="199"/>
-      <c r="BG34" s="199"/>
-      <c r="BH34" s="199"/>
-      <c r="BI34" s="199"/>
-      <c r="BJ34" s="199"/>
-      <c r="BK34" s="199"/>
-      <c r="BL34" s="199"/>
-      <c r="BO34" s="202"/>
-      <c r="BP34" s="202"/>
-      <c r="BQ34" s="202"/>
-      <c r="BR34" s="202"/>
-      <c r="BS34" s="202"/>
-      <c r="BT34" s="202"/>
-      <c r="BU34" s="202"/>
-      <c r="BV34" s="202"/>
-      <c r="BW34" s="202"/>
-      <c r="BX34" s="202"/>
-      <c r="BY34" s="202"/>
+      <c r="BF34" s="192"/>
+      <c r="BG34" s="192"/>
+      <c r="BH34" s="192"/>
+      <c r="BI34" s="192"/>
+      <c r="BJ34" s="192"/>
+      <c r="BK34" s="192"/>
+      <c r="BL34" s="192"/>
+      <c r="BO34" s="190"/>
+      <c r="BP34" s="190"/>
+      <c r="BQ34" s="190"/>
+      <c r="BR34" s="190"/>
+      <c r="BS34" s="190"/>
+      <c r="BT34" s="190"/>
+      <c r="BU34" s="190"/>
+      <c r="BV34" s="190"/>
+      <c r="BW34" s="190"/>
+      <c r="BX34" s="190"/>
+      <c r="BY34" s="190"/>
       <c r="CX34" s="60"/>
-      <c r="DB34" s="203"/>
-      <c r="DC34" s="203"/>
-      <c r="DD34" s="203"/>
-      <c r="DE34" s="203"/>
-      <c r="DF34" s="203"/>
-      <c r="DG34" s="203"/>
-      <c r="DH34" s="203"/>
-      <c r="DI34" s="203"/>
-      <c r="DJ34" s="203"/>
-      <c r="DK34" s="203"/>
-      <c r="DL34" s="203"/>
+      <c r="DB34" s="191"/>
+      <c r="DC34" s="191"/>
+      <c r="DD34" s="191"/>
+      <c r="DE34" s="191"/>
+      <c r="DF34" s="191"/>
+      <c r="DG34" s="191"/>
+      <c r="DH34" s="191"/>
+      <c r="DI34" s="191"/>
+      <c r="DJ34" s="191"/>
+      <c r="DK34" s="191"/>
+      <c r="DL34" s="191"/>
     </row>
     <row r="35" spans="2:119" ht="21.75" customHeight="1">
       <c r="D35" s="46" t="s">
@@ -29624,44 +29558,44 @@
         <f t="array" ref="AQ35">IF(AND(ISBLANK(Fillout!B83:B85)),"","Ancillaries")</f>
         <v>Ancillaries</v>
       </c>
-      <c r="AR35" s="194" t="str">
+      <c r="AR35" s="193" t="str">
         <f>Data!GC6</f>
         <v>Driveway - Concrete and Paths</v>
       </c>
-      <c r="AS35" s="194"/>
-      <c r="AT35" s="194"/>
-      <c r="AU35" s="194"/>
-      <c r="AV35" s="194"/>
-      <c r="AW35" s="194"/>
-      <c r="AX35" s="194"/>
+      <c r="AS35" s="193"/>
+      <c r="AT35" s="193"/>
+      <c r="AU35" s="193"/>
+      <c r="AV35" s="193"/>
+      <c r="AW35" s="193"/>
+      <c r="AX35" s="193"/>
       <c r="AY35" s="128"/>
       <c r="BC35" s="63"/>
       <c r="BD35" s="64"/>
-      <c r="BE35" s="199" t="str">
+      <c r="BE35" s="192" t="str">
         <f ca="1">Data!FY30</f>
         <v/>
       </c>
-      <c r="BF35" s="199"/>
-      <c r="BG35" s="199"/>
-      <c r="BH35" s="199"/>
-      <c r="BI35" s="199"/>
-      <c r="BJ35" s="199"/>
-      <c r="BK35" s="199"/>
-      <c r="BL35" s="199"/>
+      <c r="BF35" s="192"/>
+      <c r="BG35" s="192"/>
+      <c r="BH35" s="192"/>
+      <c r="BI35" s="192"/>
+      <c r="BJ35" s="192"/>
+      <c r="BK35" s="192"/>
+      <c r="BL35" s="192"/>
       <c r="CO35" s="78" t="s">
         <v>654</v>
       </c>
-      <c r="DB35" s="203"/>
-      <c r="DC35" s="203"/>
-      <c r="DD35" s="203"/>
-      <c r="DE35" s="203"/>
-      <c r="DF35" s="203"/>
-      <c r="DG35" s="203"/>
-      <c r="DH35" s="203"/>
-      <c r="DI35" s="203"/>
-      <c r="DJ35" s="203"/>
-      <c r="DK35" s="203"/>
-      <c r="DL35" s="203"/>
+      <c r="DB35" s="191"/>
+      <c r="DC35" s="191"/>
+      <c r="DD35" s="191"/>
+      <c r="DE35" s="191"/>
+      <c r="DF35" s="191"/>
+      <c r="DG35" s="191"/>
+      <c r="DH35" s="191"/>
+      <c r="DI35" s="191"/>
+      <c r="DJ35" s="191"/>
+      <c r="DK35" s="191"/>
+      <c r="DL35" s="191"/>
     </row>
     <row r="36" spans="2:119" ht="21.75" customHeight="1">
       <c r="AG36" s="126"/>
@@ -29672,31 +29606,31 @@
       <c r="AL36" s="85"/>
       <c r="BC36" s="63"/>
       <c r="BD36" s="64"/>
-      <c r="BE36" s="199" t="str">
+      <c r="BE36" s="192" t="str">
         <f ca="1">Data!FY31</f>
         <v/>
       </c>
-      <c r="BF36" s="199"/>
-      <c r="BG36" s="199"/>
-      <c r="BH36" s="199"/>
-      <c r="BI36" s="199"/>
-      <c r="BJ36" s="199"/>
-      <c r="BK36" s="199"/>
-      <c r="BL36" s="199"/>
+      <c r="BF36" s="192"/>
+      <c r="BG36" s="192"/>
+      <c r="BH36" s="192"/>
+      <c r="BI36" s="192"/>
+      <c r="BJ36" s="192"/>
+      <c r="BK36" s="192"/>
+      <c r="BL36" s="192"/>
       <c r="CB36" s="58" t="s">
         <v>653</v>
       </c>
-      <c r="DB36" s="203"/>
-      <c r="DC36" s="203"/>
-      <c r="DD36" s="203"/>
-      <c r="DE36" s="203"/>
-      <c r="DF36" s="203"/>
-      <c r="DG36" s="203"/>
-      <c r="DH36" s="203"/>
-      <c r="DI36" s="203"/>
-      <c r="DJ36" s="203"/>
-      <c r="DK36" s="203"/>
-      <c r="DL36" s="203"/>
+      <c r="DB36" s="191"/>
+      <c r="DC36" s="191"/>
+      <c r="DD36" s="191"/>
+      <c r="DE36" s="191"/>
+      <c r="DF36" s="191"/>
+      <c r="DG36" s="191"/>
+      <c r="DH36" s="191"/>
+      <c r="DI36" s="191"/>
+      <c r="DJ36" s="191"/>
+      <c r="DK36" s="191"/>
+      <c r="DL36" s="191"/>
     </row>
     <row r="37" spans="2:119" ht="21.75" customHeight="1">
       <c r="D37" s="46"/>
@@ -29709,41 +29643,41 @@
       <c r="K37" s="55"/>
       <c r="L37" s="55"/>
       <c r="BD37" s="64"/>
-      <c r="BE37" s="199" t="str">
+      <c r="BE37" s="192" t="str">
         <f ca="1">Data!FY32</f>
         <v/>
       </c>
-      <c r="BF37" s="199"/>
-      <c r="BG37" s="199"/>
-      <c r="BH37" s="199"/>
-      <c r="BI37" s="199"/>
-      <c r="BJ37" s="199"/>
-      <c r="BK37" s="199"/>
-      <c r="BL37" s="199"/>
-      <c r="DB37" s="203"/>
-      <c r="DC37" s="203"/>
-      <c r="DD37" s="203"/>
-      <c r="DE37" s="203"/>
-      <c r="DF37" s="203"/>
-      <c r="DG37" s="203"/>
-      <c r="DH37" s="203"/>
-      <c r="DI37" s="203"/>
-      <c r="DJ37" s="203"/>
-      <c r="DK37" s="203"/>
-      <c r="DL37" s="203"/>
+      <c r="BF37" s="192"/>
+      <c r="BG37" s="192"/>
+      <c r="BH37" s="192"/>
+      <c r="BI37" s="192"/>
+      <c r="BJ37" s="192"/>
+      <c r="BK37" s="192"/>
+      <c r="BL37" s="192"/>
+      <c r="DB37" s="191"/>
+      <c r="DC37" s="191"/>
+      <c r="DD37" s="191"/>
+      <c r="DE37" s="191"/>
+      <c r="DF37" s="191"/>
+      <c r="DG37" s="191"/>
+      <c r="DH37" s="191"/>
+      <c r="DI37" s="191"/>
+      <c r="DJ37" s="191"/>
+      <c r="DK37" s="191"/>
+      <c r="DL37" s="191"/>
     </row>
     <row r="38" spans="2:119" ht="21.75" customHeight="1">
-      <c r="DB38" s="203"/>
-      <c r="DC38" s="203"/>
-      <c r="DD38" s="203"/>
-      <c r="DE38" s="203"/>
-      <c r="DF38" s="203"/>
-      <c r="DG38" s="203"/>
-      <c r="DH38" s="203"/>
-      <c r="DI38" s="203"/>
-      <c r="DJ38" s="203"/>
-      <c r="DK38" s="203"/>
-      <c r="DL38" s="203"/>
+      <c r="DB38" s="191"/>
+      <c r="DC38" s="191"/>
+      <c r="DD38" s="191"/>
+      <c r="DE38" s="191"/>
+      <c r="DF38" s="191"/>
+      <c r="DG38" s="191"/>
+      <c r="DH38" s="191"/>
+      <c r="DI38" s="191"/>
+      <c r="DJ38" s="191"/>
+      <c r="DK38" s="191"/>
+      <c r="DL38" s="191"/>
     </row>
     <row r="39" spans="2:119" ht="21.75" customHeight="1">
       <c r="B39" s="41" t="str">
@@ -29840,6 +29774,54 @@
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="BE27:BL27"/>
+    <mergeCell ref="BE15:BL15"/>
+    <mergeCell ref="BE17:BL17"/>
+    <mergeCell ref="BE19:BM19"/>
+    <mergeCell ref="B4:L5"/>
+    <mergeCell ref="AB4:AL5"/>
+    <mergeCell ref="E11:L13"/>
+    <mergeCell ref="R10:Y10"/>
+    <mergeCell ref="R6:Y6"/>
+    <mergeCell ref="R9:Y9"/>
+    <mergeCell ref="AB7:AL13"/>
+    <mergeCell ref="AO4:AY5"/>
+    <mergeCell ref="R11:Y11"/>
+    <mergeCell ref="R12:Y12"/>
+    <mergeCell ref="R25:Y28"/>
+    <mergeCell ref="AO21:AY22"/>
+    <mergeCell ref="AR8:AY9"/>
+    <mergeCell ref="AR26:AY26"/>
+    <mergeCell ref="E33:L34"/>
+    <mergeCell ref="E17:L24"/>
+    <mergeCell ref="R14:Y15"/>
+    <mergeCell ref="R16:Y17"/>
+    <mergeCell ref="R20:Y21"/>
+    <mergeCell ref="R29:Y31"/>
+    <mergeCell ref="R23:Y24"/>
+    <mergeCell ref="R32:Y33"/>
+    <mergeCell ref="AR35:AX35"/>
+    <mergeCell ref="BE16:BL16"/>
+    <mergeCell ref="AR33:AY34"/>
+    <mergeCell ref="BE31:BL31"/>
+    <mergeCell ref="AB24:AL25"/>
+    <mergeCell ref="BE23:BL23"/>
+    <mergeCell ref="BE24:BL24"/>
+    <mergeCell ref="BE25:BL25"/>
+    <mergeCell ref="BE32:BL32"/>
+    <mergeCell ref="BE20:BL20"/>
+    <mergeCell ref="BE22:BM22"/>
+    <mergeCell ref="BE35:BL35"/>
+    <mergeCell ref="BE18:BL18"/>
+    <mergeCell ref="AE29:AL31"/>
+    <mergeCell ref="BE21:BM21"/>
+    <mergeCell ref="BE26:BL26"/>
+    <mergeCell ref="BE36:BL36"/>
+    <mergeCell ref="BE34:BL34"/>
+    <mergeCell ref="BE28:BL28"/>
+    <mergeCell ref="BE29:BL29"/>
+    <mergeCell ref="BE30:BL30"/>
+    <mergeCell ref="BE33:BL33"/>
     <mergeCell ref="DO4:DY5"/>
     <mergeCell ref="CO14:CY16"/>
     <mergeCell ref="DB4:DL5"/>
@@ -29856,54 +29838,6 @@
     <mergeCell ref="BE14:BL14"/>
     <mergeCell ref="BO22:BY23"/>
     <mergeCell ref="BE37:BL37"/>
-    <mergeCell ref="BE36:BL36"/>
-    <mergeCell ref="BE34:BL34"/>
-    <mergeCell ref="BE28:BL28"/>
-    <mergeCell ref="BE29:BL29"/>
-    <mergeCell ref="BE30:BL30"/>
-    <mergeCell ref="BE33:BL33"/>
-    <mergeCell ref="AR35:AX35"/>
-    <mergeCell ref="BE16:BL16"/>
-    <mergeCell ref="AR33:AY34"/>
-    <mergeCell ref="BE31:BL31"/>
-    <mergeCell ref="AB24:AL25"/>
-    <mergeCell ref="BE23:BL23"/>
-    <mergeCell ref="BE24:BL24"/>
-    <mergeCell ref="BE25:BL25"/>
-    <mergeCell ref="BE32:BL32"/>
-    <mergeCell ref="BE20:BL20"/>
-    <mergeCell ref="BE22:BM22"/>
-    <mergeCell ref="BE35:BL35"/>
-    <mergeCell ref="BE18:BL18"/>
-    <mergeCell ref="AE29:AL31"/>
-    <mergeCell ref="BE21:BM21"/>
-    <mergeCell ref="BE26:BL26"/>
-    <mergeCell ref="AR8:AY9"/>
-    <mergeCell ref="AR26:AY26"/>
-    <mergeCell ref="E33:L34"/>
-    <mergeCell ref="E17:L24"/>
-    <mergeCell ref="R14:Y15"/>
-    <mergeCell ref="R16:Y17"/>
-    <mergeCell ref="R20:Y21"/>
-    <mergeCell ref="R29:Y31"/>
-    <mergeCell ref="R23:Y24"/>
-    <mergeCell ref="R32:Y33"/>
-    <mergeCell ref="BE27:BL27"/>
-    <mergeCell ref="BE15:BL15"/>
-    <mergeCell ref="BE17:BL17"/>
-    <mergeCell ref="BE19:BM19"/>
-    <mergeCell ref="B4:L5"/>
-    <mergeCell ref="AB4:AL5"/>
-    <mergeCell ref="E11:L13"/>
-    <mergeCell ref="R10:Y10"/>
-    <mergeCell ref="R6:Y6"/>
-    <mergeCell ref="R9:Y9"/>
-    <mergeCell ref="AB7:AL13"/>
-    <mergeCell ref="AO4:AY5"/>
-    <mergeCell ref="R11:Y11"/>
-    <mergeCell ref="R12:Y12"/>
-    <mergeCell ref="R25:Y28"/>
-    <mergeCell ref="AO21:AY22"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.39370078740157483" footer="0.59055118110236227"/>
@@ -29965,15 +29899,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009653CAAA26001C4AB6B07910C245A3F8" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c65cf8d8a372d227b7a15e3c1be79752">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="df16c1ab-8fe3-4051-b0e6-272656fe8390" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eac862b9bce95cf51278a191cf99db5f" ns2:_="">
     <xsd:import namespace="df16c1ab-8fe3-4051-b0e6-272656fe8390"/>
@@ -30163,6 +30088,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DF7B531-DC3D-4BF0-9DE4-3D9BDBB168B4}">
   <ds:schemaRefs>
@@ -30180,14 +30114,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C05AF1F1-F24E-4D4E-8E9B-4BB300A2FAAF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D86C622-A746-47A5-A436-27B4F16AF16C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -30203,4 +30129,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C05AF1F1-F24E-4D4E-8E9B-4BB300A2FAAF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/public/templates/AAP-Report.xlsx
+++ b/public/templates/AAP-Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Val-Ai\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6C4027-3E96-4136-B6C1-50702E98CB37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464DC7EA-A5AB-4723-9081-E0757B8685C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="593" firstSheet="1" activeTab="5" xr2:uid="{AAAEEB8D-0C92-435D-A786-907566042286}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="593" firstSheet="1" activeTab="6" xr2:uid="{AAAEEB8D-0C92-435D-A786-907566042286}"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="11" state="hidden" r:id="rId1"/>
@@ -3104,24 +3104,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="29" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -3245,32 +3227,47 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="29" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
@@ -3282,15 +3279,18 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -14530,7 +14530,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Photos!$AO$4:$AY$33" spid="_x0000_s25945"/>
+                  <a14:cameraTool cellRange="Photos!$AO$4:$AY$33" spid="_x0000_s25937"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -14595,7 +14595,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Photos!$BB$4:$BL$33" spid="_x0000_s25946"/>
+                  <a14:cameraTool cellRange="Photos!$BB$4:$BL$33" spid="_x0000_s25938"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -16074,7 +16074,7 @@
   </sheetPr>
   <dimension ref="A1:R184"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -20237,8 +20237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{237A5C4D-FF5E-4040-80B6-1199B4A917A2}">
   <dimension ref="A2:BL33"/>
   <sheetViews>
-    <sheetView zoomScale="73" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView zoomScale="70" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="21.75" customHeight="1"/>
@@ -25618,7 +25618,7 @@
   </sheetPr>
   <dimension ref="D5:AL48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="F1" zoomScale="82" zoomScaleNormal="100" zoomScalePageLayoutView="82" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="H2" zoomScale="74" zoomScaleNormal="100" zoomScalePageLayoutView="74" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="18" customHeight="1"/>
   <cols>
@@ -25628,68 +25628,68 @@
   </cols>
   <sheetData>
     <row r="5" spans="4:38" ht="18" customHeight="1">
-      <c r="O5" s="147" t="s">
+      <c r="O5" s="141" t="s">
         <v>557</v>
       </c>
-      <c r="P5" s="147"/>
-      <c r="Q5" s="147"/>
-      <c r="R5" s="147"/>
-      <c r="S5" s="147"/>
-      <c r="T5" s="147"/>
-      <c r="U5" s="147"/>
-      <c r="V5" s="148">
+      <c r="P5" s="141"/>
+      <c r="Q5" s="141"/>
+      <c r="R5" s="141"/>
+      <c r="S5" s="141"/>
+      <c r="T5" s="141"/>
+      <c r="U5" s="141"/>
+      <c r="V5" s="142">
         <f>Fillout!B24</f>
         <v>45835</v>
       </c>
-      <c r="W5" s="148"/>
-      <c r="X5" s="148"/>
-      <c r="Y5" s="148"/>
-      <c r="AB5" s="147" t="s">
+      <c r="W5" s="142"/>
+      <c r="X5" s="142"/>
+      <c r="Y5" s="142"/>
+      <c r="AB5" s="141" t="s">
         <v>558</v>
       </c>
-      <c r="AC5" s="147"/>
-      <c r="AD5" s="147"/>
-      <c r="AE5" s="147"/>
-      <c r="AF5" s="147"/>
-      <c r="AG5" s="147"/>
-      <c r="AH5" s="147"/>
-      <c r="AI5" s="148"/>
-      <c r="AJ5" s="148"/>
-      <c r="AK5" s="148"/>
-      <c r="AL5" s="148"/>
+      <c r="AC5" s="141"/>
+      <c r="AD5" s="141"/>
+      <c r="AE5" s="141"/>
+      <c r="AF5" s="141"/>
+      <c r="AG5" s="141"/>
+      <c r="AH5" s="141"/>
+      <c r="AI5" s="142"/>
+      <c r="AJ5" s="142"/>
+      <c r="AK5" s="142"/>
+      <c r="AL5" s="142"/>
     </row>
     <row r="6" spans="4:38" ht="18" customHeight="1">
-      <c r="O6" s="147"/>
-      <c r="P6" s="147"/>
-      <c r="Q6" s="147"/>
-      <c r="R6" s="147"/>
-      <c r="S6" s="147"/>
-      <c r="T6" s="147"/>
-      <c r="U6" s="147"/>
-      <c r="V6" s="148"/>
-      <c r="W6" s="148"/>
-      <c r="X6" s="148"/>
-      <c r="Y6" s="148"/>
-      <c r="AB6" s="147"/>
-      <c r="AC6" s="147"/>
-      <c r="AD6" s="147"/>
-      <c r="AE6" s="147"/>
-      <c r="AF6" s="147"/>
-      <c r="AG6" s="147"/>
-      <c r="AH6" s="147"/>
-      <c r="AI6" s="148"/>
-      <c r="AJ6" s="148"/>
-      <c r="AK6" s="148"/>
-      <c r="AL6" s="148"/>
+      <c r="O6" s="141"/>
+      <c r="P6" s="141"/>
+      <c r="Q6" s="141"/>
+      <c r="R6" s="141"/>
+      <c r="S6" s="141"/>
+      <c r="T6" s="141"/>
+      <c r="U6" s="141"/>
+      <c r="V6" s="142"/>
+      <c r="W6" s="142"/>
+      <c r="X6" s="142"/>
+      <c r="Y6" s="142"/>
+      <c r="AB6" s="141"/>
+      <c r="AC6" s="141"/>
+      <c r="AD6" s="141"/>
+      <c r="AE6" s="141"/>
+      <c r="AF6" s="141"/>
+      <c r="AG6" s="141"/>
+      <c r="AH6" s="141"/>
+      <c r="AI6" s="142"/>
+      <c r="AJ6" s="142"/>
+      <c r="AK6" s="142"/>
+      <c r="AL6" s="142"/>
     </row>
     <row r="8" spans="4:38" ht="18" customHeight="1">
-      <c r="D8" s="142" t="s">
+      <c r="D8" s="183" t="s">
         <v>573</v>
       </c>
-      <c r="E8" s="142"/>
-      <c r="F8" s="142"/>
-      <c r="G8" s="142"/>
-      <c r="H8" s="142"/>
+      <c r="E8" s="183"/>
+      <c r="F8" s="183"/>
+      <c r="G8" s="183"/>
+      <c r="H8" s="183"/>
       <c r="O8" s="101"/>
       <c r="P8" s="101"/>
       <c r="Q8" s="101"/>
@@ -25718,11 +25718,11 @@
       </c>
     </row>
     <row r="9" spans="4:38" ht="18" customHeight="1">
-      <c r="D9" s="142"/>
-      <c r="E9" s="142"/>
-      <c r="F9" s="142"/>
-      <c r="G9" s="142"/>
-      <c r="H9" s="142"/>
+      <c r="D9" s="183"/>
+      <c r="E9" s="183"/>
+      <c r="F9" s="183"/>
+      <c r="G9" s="183"/>
+      <c r="H9" s="183"/>
       <c r="O9" s="101"/>
       <c r="P9" s="101"/>
       <c r="Q9" s="101"/>
@@ -25773,14 +25773,14 @@
       </c>
     </row>
     <row r="11" spans="4:38" ht="18" customHeight="1">
-      <c r="D11" s="145" t="str">
+      <c r="D11" s="186" t="str">
         <f>IF(ISBLANK(Fillout!G2),"",Fillout!G2)</f>
         <v>29 Willan Drive</v>
       </c>
-      <c r="E11" s="145"/>
-      <c r="F11" s="145"/>
-      <c r="G11" s="145"/>
-      <c r="H11" s="145"/>
+      <c r="E11" s="186"/>
+      <c r="F11" s="186"/>
+      <c r="G11" s="186"/>
+      <c r="H11" s="186"/>
       <c r="O11" s="101"/>
       <c r="P11" s="101"/>
       <c r="Q11" s="101"/>
@@ -25805,14 +25805,14 @@
       </c>
     </row>
     <row r="12" spans="4:38" ht="18" customHeight="1">
-      <c r="D12" s="146" t="str">
+      <c r="D12" s="187" t="str">
         <f>Fillout!B8</f>
         <v>Cartwright NSW 2168</v>
       </c>
-      <c r="E12" s="146"/>
-      <c r="F12" s="146"/>
-      <c r="G12" s="146"/>
-      <c r="H12" s="146"/>
+      <c r="E12" s="187"/>
+      <c r="F12" s="187"/>
+      <c r="G12" s="187"/>
+      <c r="H12" s="187"/>
       <c r="O12" s="101"/>
       <c r="P12" s="101"/>
       <c r="Q12" s="101"/>
@@ -26085,22 +26085,22 @@
       <c r="J22" s="132"/>
       <c r="K22" s="131"/>
       <c r="N22" s="79"/>
-      <c r="O22" s="170" t="s">
+      <c r="O22" s="164" t="s">
         <v>567</v>
       </c>
-      <c r="P22" s="171"/>
-      <c r="Q22" s="172"/>
-      <c r="R22" s="161" t="str">
+      <c r="P22" s="165"/>
+      <c r="Q22" s="166"/>
+      <c r="R22" s="155" t="str">
         <f>UPPER(Fillout!B6)</f>
         <v>29 WILLAN DRIVE CARTWRIGHT NSW 2168</v>
       </c>
-      <c r="S22" s="162"/>
-      <c r="T22" s="162"/>
-      <c r="U22" s="162"/>
-      <c r="V22" s="162"/>
-      <c r="W22" s="162"/>
-      <c r="X22" s="162"/>
-      <c r="Y22" s="163"/>
+      <c r="S22" s="156"/>
+      <c r="T22" s="156"/>
+      <c r="U22" s="156"/>
+      <c r="V22" s="156"/>
+      <c r="W22" s="156"/>
+      <c r="X22" s="156"/>
+      <c r="Y22" s="157"/>
       <c r="AB22" s="27" t="s">
         <v>249</v>
       </c>
@@ -26129,17 +26129,17 @@
       <c r="J23" s="132"/>
       <c r="K23" s="131"/>
       <c r="N23" s="79"/>
-      <c r="O23" s="173"/>
-      <c r="P23" s="174"/>
-      <c r="Q23" s="175"/>
-      <c r="R23" s="164"/>
-      <c r="S23" s="165"/>
-      <c r="T23" s="165"/>
-      <c r="U23" s="165"/>
-      <c r="V23" s="165"/>
-      <c r="W23" s="165"/>
-      <c r="X23" s="165"/>
-      <c r="Y23" s="166"/>
+      <c r="O23" s="167"/>
+      <c r="P23" s="168"/>
+      <c r="Q23" s="169"/>
+      <c r="R23" s="158"/>
+      <c r="S23" s="159"/>
+      <c r="T23" s="159"/>
+      <c r="U23" s="159"/>
+      <c r="V23" s="159"/>
+      <c r="W23" s="159"/>
+      <c r="X23" s="159"/>
+      <c r="Y23" s="160"/>
       <c r="AB23" s="30"/>
       <c r="AC23" s="30" t="s">
         <v>323</v>
@@ -26191,11 +26191,11 @@
     </row>
     <row r="25" spans="4:38" ht="18" customHeight="1">
       <c r="N25" s="79"/>
-      <c r="O25" s="155" t="s">
+      <c r="O25" s="149" t="s">
         <v>569</v>
       </c>
-      <c r="P25" s="156"/>
-      <c r="Q25" s="157"/>
+      <c r="P25" s="150"/>
+      <c r="Q25" s="151"/>
       <c r="R25" s="32"/>
       <c r="S25" s="32"/>
       <c r="T25" s="32"/>
@@ -26218,20 +26218,20 @@
     </row>
     <row r="26" spans="4:38" ht="18" customHeight="1">
       <c r="N26" s="79"/>
-      <c r="O26" s="158"/>
-      <c r="P26" s="159"/>
-      <c r="Q26" s="160"/>
-      <c r="R26" s="167" t="str">
+      <c r="O26" s="152"/>
+      <c r="P26" s="153"/>
+      <c r="Q26" s="154"/>
+      <c r="R26" s="161" t="str">
         <f>IF(Fillout!D2&lt;&gt;"",Fillout!D2,"")</f>
         <v>Ilhana Coralic</v>
       </c>
-      <c r="S26" s="168"/>
-      <c r="T26" s="168"/>
-      <c r="U26" s="168"/>
-      <c r="V26" s="168"/>
-      <c r="W26" s="168"/>
-      <c r="X26" s="168"/>
-      <c r="Y26" s="169"/>
+      <c r="S26" s="162"/>
+      <c r="T26" s="162"/>
+      <c r="U26" s="162"/>
+      <c r="V26" s="162"/>
+      <c r="W26" s="162"/>
+      <c r="X26" s="162"/>
+      <c r="Y26" s="163"/>
       <c r="AB26" s="30"/>
       <c r="AC26" s="30"/>
       <c r="AD26" s="30"/>
@@ -26242,9 +26242,9 @@
     </row>
     <row r="27" spans="4:38" ht="18" customHeight="1">
       <c r="N27" s="79"/>
-      <c r="O27" s="158"/>
-      <c r="P27" s="159"/>
-      <c r="Q27" s="160"/>
+      <c r="O27" s="152"/>
+      <c r="P27" s="153"/>
+      <c r="Q27" s="154"/>
       <c r="X27" s="14"/>
       <c r="Y27" s="80"/>
       <c r="AB27" s="27" t="s">
@@ -26265,22 +26265,22 @@
     </row>
     <row r="28" spans="4:38" ht="18" customHeight="1">
       <c r="N28" s="79"/>
-      <c r="O28" s="176" t="s">
+      <c r="O28" s="170" t="s">
         <v>571</v>
       </c>
-      <c r="P28" s="177"/>
-      <c r="Q28" s="178"/>
-      <c r="R28" s="149" t="str">
+      <c r="P28" s="171"/>
+      <c r="Q28" s="172"/>
+      <c r="R28" s="143" t="str">
         <f>Fillout!B5</f>
         <v>To determine the current market value for Stamp Duty purposes only.</v>
       </c>
-      <c r="S28" s="150"/>
-      <c r="T28" s="150"/>
-      <c r="U28" s="150"/>
-      <c r="V28" s="150"/>
-      <c r="W28" s="150"/>
-      <c r="X28" s="150"/>
-      <c r="Y28" s="151"/>
+      <c r="S28" s="144"/>
+      <c r="T28" s="144"/>
+      <c r="U28" s="144"/>
+      <c r="V28" s="144"/>
+      <c r="W28" s="144"/>
+      <c r="X28" s="144"/>
+      <c r="Y28" s="145"/>
       <c r="AB28" s="27"/>
       <c r="AC28" s="27"/>
       <c r="AD28" s="27"/>
@@ -26295,17 +26295,17 @@
     </row>
     <row r="29" spans="4:38" ht="18" customHeight="1">
       <c r="N29" s="79"/>
-      <c r="O29" s="179"/>
-      <c r="P29" s="180"/>
-      <c r="Q29" s="181"/>
-      <c r="R29" s="152"/>
-      <c r="S29" s="153"/>
-      <c r="T29" s="153"/>
-      <c r="U29" s="153"/>
-      <c r="V29" s="153"/>
-      <c r="W29" s="153"/>
-      <c r="X29" s="153"/>
-      <c r="Y29" s="154"/>
+      <c r="O29" s="173"/>
+      <c r="P29" s="174"/>
+      <c r="Q29" s="175"/>
+      <c r="R29" s="146"/>
+      <c r="S29" s="147"/>
+      <c r="T29" s="147"/>
+      <c r="U29" s="147"/>
+      <c r="V29" s="147"/>
+      <c r="W29" s="147"/>
+      <c r="X29" s="147"/>
+      <c r="Y29" s="148"/>
       <c r="AB29" s="27" t="s">
         <v>215</v>
       </c>
@@ -26354,13 +26354,13 @@
       <c r="Q31" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="R31" s="141">
+      <c r="R31" s="182">
         <f>Fillout!B24</f>
         <v>45835</v>
       </c>
-      <c r="S31" s="141"/>
-      <c r="T31" s="141"/>
-      <c r="U31" s="141"/>
+      <c r="S31" s="182"/>
+      <c r="T31" s="182"/>
+      <c r="U31" s="182"/>
       <c r="V31" s="18"/>
       <c r="W31" s="18"/>
       <c r="X31" s="18"/>
@@ -26413,13 +26413,13 @@
       <c r="Q33" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="R33" s="141">
+      <c r="R33" s="182">
         <f>Fillout!B23</f>
         <v>45835</v>
       </c>
-      <c r="S33" s="141"/>
-      <c r="T33" s="141"/>
-      <c r="U33" s="141"/>
+      <c r="S33" s="182"/>
+      <c r="T33" s="182"/>
+      <c r="U33" s="182"/>
       <c r="V33" s="18"/>
       <c r="W33" s="18"/>
       <c r="X33" s="18"/>
@@ -26501,17 +26501,17 @@
       <c r="Q36" s="33" t="s">
         <v>250</v>
       </c>
-      <c r="R36" s="143">
+      <c r="R36" s="184">
         <f>Fillout!B184</f>
         <v>800000</v>
       </c>
-      <c r="S36" s="143"/>
-      <c r="T36" s="143"/>
-      <c r="U36" s="143"/>
-      <c r="V36" s="143"/>
-      <c r="W36" s="143"/>
-      <c r="X36" s="143"/>
-      <c r="Y36" s="144"/>
+      <c r="S36" s="184"/>
+      <c r="T36" s="184"/>
+      <c r="U36" s="184"/>
+      <c r="V36" s="184"/>
+      <c r="W36" s="184"/>
+      <c r="X36" s="184"/>
+      <c r="Y36" s="185"/>
       <c r="AB36" s="27"/>
       <c r="AC36" s="27"/>
       <c r="AD36" s="27"/>
@@ -26560,17 +26560,17 @@
       <c r="Q38" s="70" t="s">
         <v>576</v>
       </c>
-      <c r="R38" s="182" t="str">
+      <c r="R38" s="176" t="str">
         <f>Fillout!E184</f>
         <v>$800,000.00 (Eight Hundred Thousand Dollars)</v>
       </c>
-      <c r="S38" s="183"/>
-      <c r="T38" s="183"/>
-      <c r="U38" s="183"/>
-      <c r="V38" s="183"/>
-      <c r="W38" s="183"/>
-      <c r="X38" s="183"/>
-      <c r="Y38" s="184"/>
+      <c r="S38" s="177"/>
+      <c r="T38" s="177"/>
+      <c r="U38" s="177"/>
+      <c r="V38" s="177"/>
+      <c r="W38" s="177"/>
+      <c r="X38" s="177"/>
+      <c r="Y38" s="178"/>
       <c r="AB38" s="27"/>
       <c r="AC38" s="27"/>
       <c r="AD38" s="27"/>
@@ -26588,14 +26588,14 @@
       <c r="O39" s="14"/>
       <c r="P39" s="15"/>
       <c r="Q39" s="33"/>
-      <c r="R39" s="185"/>
-      <c r="S39" s="186"/>
-      <c r="T39" s="186"/>
-      <c r="U39" s="186"/>
-      <c r="V39" s="186"/>
-      <c r="W39" s="186"/>
-      <c r="X39" s="186"/>
-      <c r="Y39" s="187"/>
+      <c r="R39" s="179"/>
+      <c r="S39" s="180"/>
+      <c r="T39" s="180"/>
+      <c r="U39" s="180"/>
+      <c r="V39" s="180"/>
+      <c r="W39" s="180"/>
+      <c r="X39" s="180"/>
+      <c r="Y39" s="181"/>
       <c r="AB39" s="27" t="s">
         <v>251</v>
       </c>
@@ -26725,6 +26725,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="R33:U33"/>
+    <mergeCell ref="D8:H9"/>
+    <mergeCell ref="R36:Y36"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="R31:U31"/>
     <mergeCell ref="I45:L46"/>
     <mergeCell ref="O5:U6"/>
     <mergeCell ref="V5:Y6"/>
@@ -26737,13 +26744,6 @@
     <mergeCell ref="O22:Q23"/>
     <mergeCell ref="O28:Q29"/>
     <mergeCell ref="R38:Y39"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="R33:U33"/>
-    <mergeCell ref="D8:H9"/>
-    <mergeCell ref="R36:Y36"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="R31:U31"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D23" r:id="rId1" xr:uid="{D34E3AA7-FDB1-406F-A078-A7B0FCB09EAC}"/>
@@ -26771,9 +26771,7 @@
   </sheetPr>
   <dimension ref="B4:DY40"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" zoomScale="45" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="45" workbookViewId="0">
-      <selection activeCell="CG17" sqref="CG17"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="CM1" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="21.75" customHeight="1"/>
   <cols>
@@ -26795,19 +26793,19 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:129" ht="21.75" customHeight="1">
-      <c r="B4" s="147" t="s">
+      <c r="B4" s="141" t="s">
         <v>577</v>
       </c>
-      <c r="C4" s="147"/>
-      <c r="D4" s="147"/>
-      <c r="E4" s="147"/>
-      <c r="F4" s="147"/>
-      <c r="G4" s="147"/>
-      <c r="H4" s="147"/>
-      <c r="I4" s="147"/>
-      <c r="J4" s="147"/>
-      <c r="K4" s="147"/>
-      <c r="L4" s="147"/>
+      <c r="C4" s="141"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="141"/>
+      <c r="F4" s="141"/>
+      <c r="G4" s="141"/>
+      <c r="H4" s="141"/>
+      <c r="I4" s="141"/>
+      <c r="J4" s="141"/>
+      <c r="K4" s="141"/>
+      <c r="L4" s="141"/>
       <c r="O4" s="61" t="s">
         <v>578</v>
       </c>
@@ -26821,32 +26819,32 @@
       <c r="W4" s="47"/>
       <c r="X4" s="47"/>
       <c r="Y4" s="47"/>
-      <c r="AB4" s="147" t="s">
+      <c r="AB4" s="141" t="s">
         <v>579</v>
       </c>
-      <c r="AC4" s="147"/>
-      <c r="AD4" s="147"/>
-      <c r="AE4" s="147"/>
-      <c r="AF4" s="147"/>
-      <c r="AG4" s="147"/>
-      <c r="AH4" s="147"/>
-      <c r="AI4" s="147"/>
-      <c r="AJ4" s="147"/>
-      <c r="AK4" s="147"/>
-      <c r="AL4" s="147"/>
-      <c r="AO4" s="147" t="s">
+      <c r="AC4" s="141"/>
+      <c r="AD4" s="141"/>
+      <c r="AE4" s="141"/>
+      <c r="AF4" s="141"/>
+      <c r="AG4" s="141"/>
+      <c r="AH4" s="141"/>
+      <c r="AI4" s="141"/>
+      <c r="AJ4" s="141"/>
+      <c r="AK4" s="141"/>
+      <c r="AL4" s="141"/>
+      <c r="AO4" s="141" t="s">
         <v>580</v>
       </c>
-      <c r="AP4" s="147"/>
-      <c r="AQ4" s="147"/>
-      <c r="AR4" s="147"/>
-      <c r="AS4" s="147"/>
-      <c r="AT4" s="147"/>
-      <c r="AU4" s="147"/>
-      <c r="AV4" s="147"/>
-      <c r="AW4" s="147"/>
-      <c r="AX4" s="147"/>
-      <c r="AY4" s="147"/>
+      <c r="AP4" s="141"/>
+      <c r="AQ4" s="141"/>
+      <c r="AR4" s="141"/>
+      <c r="AS4" s="141"/>
+      <c r="AT4" s="141"/>
+      <c r="AU4" s="141"/>
+      <c r="AV4" s="141"/>
+      <c r="AW4" s="141"/>
+      <c r="AX4" s="141"/>
+      <c r="AY4" s="141"/>
       <c r="BB4" s="61" t="str">
         <f>IF(Fillout!B23&lt;&gt;Fillout!B24,"5.2 Current Condition &amp; Repairs","5.2 Condition &amp; Repairs")</f>
         <v>5.2 Condition &amp; Repairs</v>
@@ -26854,71 +26852,71 @@
       <c r="BO4" s="61" t="s">
         <v>581</v>
       </c>
-      <c r="CB4" s="147" t="s">
+      <c r="CB4" s="141" t="s">
         <v>582</v>
       </c>
-      <c r="CC4" s="147"/>
-      <c r="CD4" s="147"/>
-      <c r="CE4" s="147"/>
-      <c r="CF4" s="147"/>
-      <c r="CG4" s="147"/>
-      <c r="CH4" s="147"/>
-      <c r="CI4" s="147"/>
-      <c r="CJ4" s="147"/>
-      <c r="CK4" s="147"/>
-      <c r="CL4" s="147"/>
-      <c r="CO4" s="147" t="s">
+      <c r="CC4" s="141"/>
+      <c r="CD4" s="141"/>
+      <c r="CE4" s="141"/>
+      <c r="CF4" s="141"/>
+      <c r="CG4" s="141"/>
+      <c r="CH4" s="141"/>
+      <c r="CI4" s="141"/>
+      <c r="CJ4" s="141"/>
+      <c r="CK4" s="141"/>
+      <c r="CL4" s="141"/>
+      <c r="CO4" s="141" t="s">
         <v>583</v>
       </c>
-      <c r="CP4" s="147"/>
-      <c r="CQ4" s="147"/>
-      <c r="CR4" s="147"/>
-      <c r="CS4" s="147"/>
-      <c r="CT4" s="147"/>
-      <c r="CU4" s="147"/>
-      <c r="CV4" s="147"/>
-      <c r="CW4" s="147"/>
-      <c r="CX4" s="147"/>
-      <c r="CY4" s="147"/>
-      <c r="DB4" s="147" t="s">
+      <c r="CP4" s="141"/>
+      <c r="CQ4" s="141"/>
+      <c r="CR4" s="141"/>
+      <c r="CS4" s="141"/>
+      <c r="CT4" s="141"/>
+      <c r="CU4" s="141"/>
+      <c r="CV4" s="141"/>
+      <c r="CW4" s="141"/>
+      <c r="CX4" s="141"/>
+      <c r="CY4" s="141"/>
+      <c r="DB4" s="141" t="s">
         <v>584</v>
       </c>
-      <c r="DC4" s="147"/>
-      <c r="DD4" s="147"/>
-      <c r="DE4" s="147"/>
-      <c r="DF4" s="147"/>
-      <c r="DG4" s="147"/>
-      <c r="DH4" s="147"/>
-      <c r="DI4" s="147"/>
-      <c r="DJ4" s="147"/>
-      <c r="DK4" s="147"/>
-      <c r="DL4" s="147"/>
-      <c r="DO4" s="147" t="s">
+      <c r="DC4" s="141"/>
+      <c r="DD4" s="141"/>
+      <c r="DE4" s="141"/>
+      <c r="DF4" s="141"/>
+      <c r="DG4" s="141"/>
+      <c r="DH4" s="141"/>
+      <c r="DI4" s="141"/>
+      <c r="DJ4" s="141"/>
+      <c r="DK4" s="141"/>
+      <c r="DL4" s="141"/>
+      <c r="DO4" s="141" t="s">
         <v>585</v>
       </c>
-      <c r="DP4" s="147"/>
-      <c r="DQ4" s="147"/>
-      <c r="DR4" s="147"/>
-      <c r="DS4" s="147"/>
-      <c r="DT4" s="147"/>
-      <c r="DU4" s="147"/>
-      <c r="DV4" s="147"/>
-      <c r="DW4" s="147"/>
-      <c r="DX4" s="147"/>
-      <c r="DY4" s="147"/>
+      <c r="DP4" s="141"/>
+      <c r="DQ4" s="141"/>
+      <c r="DR4" s="141"/>
+      <c r="DS4" s="141"/>
+      <c r="DT4" s="141"/>
+      <c r="DU4" s="141"/>
+      <c r="DV4" s="141"/>
+      <c r="DW4" s="141"/>
+      <c r="DX4" s="141"/>
+      <c r="DY4" s="141"/>
     </row>
     <row r="5" spans="2:129" ht="24" customHeight="1">
-      <c r="B5" s="147"/>
-      <c r="C5" s="147"/>
-      <c r="D5" s="147"/>
-      <c r="E5" s="147"/>
-      <c r="F5" s="147"/>
-      <c r="G5" s="147"/>
-      <c r="H5" s="147"/>
-      <c r="I5" s="147"/>
-      <c r="J5" s="147"/>
-      <c r="K5" s="147"/>
-      <c r="L5" s="147"/>
+      <c r="B5" s="141"/>
+      <c r="C5" s="141"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="141"/>
+      <c r="F5" s="141"/>
+      <c r="G5" s="141"/>
+      <c r="H5" s="141"/>
+      <c r="I5" s="141"/>
+      <c r="J5" s="141"/>
+      <c r="K5" s="141"/>
+      <c r="L5" s="141"/>
       <c r="Q5" s="46"/>
       <c r="R5" s="47"/>
       <c r="S5" s="47"/>
@@ -26928,89 +26926,89 @@
       <c r="W5" s="47"/>
       <c r="X5" s="47"/>
       <c r="Y5" s="47"/>
-      <c r="AB5" s="147"/>
-      <c r="AC5" s="147"/>
-      <c r="AD5" s="147"/>
-      <c r="AE5" s="147"/>
-      <c r="AF5" s="147"/>
-      <c r="AG5" s="147"/>
-      <c r="AH5" s="147"/>
-      <c r="AI5" s="147"/>
-      <c r="AJ5" s="147"/>
-      <c r="AK5" s="147"/>
-      <c r="AL5" s="147"/>
-      <c r="AO5" s="147"/>
-      <c r="AP5" s="147"/>
-      <c r="AQ5" s="147"/>
-      <c r="AR5" s="147"/>
-      <c r="AS5" s="147"/>
-      <c r="AT5" s="147"/>
-      <c r="AU5" s="147"/>
-      <c r="AV5" s="147"/>
-      <c r="AW5" s="147"/>
-      <c r="AX5" s="147"/>
-      <c r="AY5" s="147"/>
+      <c r="AB5" s="141"/>
+      <c r="AC5" s="141"/>
+      <c r="AD5" s="141"/>
+      <c r="AE5" s="141"/>
+      <c r="AF5" s="141"/>
+      <c r="AG5" s="141"/>
+      <c r="AH5" s="141"/>
+      <c r="AI5" s="141"/>
+      <c r="AJ5" s="141"/>
+      <c r="AK5" s="141"/>
+      <c r="AL5" s="141"/>
+      <c r="AO5" s="141"/>
+      <c r="AP5" s="141"/>
+      <c r="AQ5" s="141"/>
+      <c r="AR5" s="141"/>
+      <c r="AS5" s="141"/>
+      <c r="AT5" s="141"/>
+      <c r="AU5" s="141"/>
+      <c r="AV5" s="141"/>
+      <c r="AW5" s="141"/>
+      <c r="AX5" s="141"/>
+      <c r="AY5" s="141"/>
       <c r="BB5" s="61"/>
-      <c r="CB5" s="147"/>
-      <c r="CC5" s="147"/>
-      <c r="CD5" s="147"/>
-      <c r="CE5" s="147"/>
-      <c r="CF5" s="147"/>
-      <c r="CG5" s="147"/>
-      <c r="CH5" s="147"/>
-      <c r="CI5" s="147"/>
-      <c r="CJ5" s="147"/>
-      <c r="CK5" s="147"/>
-      <c r="CL5" s="147"/>
-      <c r="CO5" s="147"/>
-      <c r="CP5" s="147"/>
-      <c r="CQ5" s="147"/>
-      <c r="CR5" s="147"/>
-      <c r="CS5" s="147"/>
-      <c r="CT5" s="147"/>
-      <c r="CU5" s="147"/>
-      <c r="CV5" s="147"/>
-      <c r="CW5" s="147"/>
-      <c r="CX5" s="147"/>
-      <c r="CY5" s="147"/>
-      <c r="DB5" s="147"/>
-      <c r="DC5" s="147"/>
-      <c r="DD5" s="147"/>
-      <c r="DE5" s="147"/>
-      <c r="DF5" s="147"/>
-      <c r="DG5" s="147"/>
-      <c r="DH5" s="147"/>
-      <c r="DI5" s="147"/>
-      <c r="DJ5" s="147"/>
-      <c r="DK5" s="147"/>
-      <c r="DL5" s="147"/>
-      <c r="DO5" s="147"/>
-      <c r="DP5" s="147"/>
-      <c r="DQ5" s="147"/>
-      <c r="DR5" s="147"/>
-      <c r="DS5" s="147"/>
-      <c r="DT5" s="147"/>
-      <c r="DU5" s="147"/>
-      <c r="DV5" s="147"/>
-      <c r="DW5" s="147"/>
-      <c r="DX5" s="147"/>
-      <c r="DY5" s="147"/>
+      <c r="CB5" s="141"/>
+      <c r="CC5" s="141"/>
+      <c r="CD5" s="141"/>
+      <c r="CE5" s="141"/>
+      <c r="CF5" s="141"/>
+      <c r="CG5" s="141"/>
+      <c r="CH5" s="141"/>
+      <c r="CI5" s="141"/>
+      <c r="CJ5" s="141"/>
+      <c r="CK5" s="141"/>
+      <c r="CL5" s="141"/>
+      <c r="CO5" s="141"/>
+      <c r="CP5" s="141"/>
+      <c r="CQ5" s="141"/>
+      <c r="CR5" s="141"/>
+      <c r="CS5" s="141"/>
+      <c r="CT5" s="141"/>
+      <c r="CU5" s="141"/>
+      <c r="CV5" s="141"/>
+      <c r="CW5" s="141"/>
+      <c r="CX5" s="141"/>
+      <c r="CY5" s="141"/>
+      <c r="DB5" s="141"/>
+      <c r="DC5" s="141"/>
+      <c r="DD5" s="141"/>
+      <c r="DE5" s="141"/>
+      <c r="DF5" s="141"/>
+      <c r="DG5" s="141"/>
+      <c r="DH5" s="141"/>
+      <c r="DI5" s="141"/>
+      <c r="DJ5" s="141"/>
+      <c r="DK5" s="141"/>
+      <c r="DL5" s="141"/>
+      <c r="DO5" s="141"/>
+      <c r="DP5" s="141"/>
+      <c r="DQ5" s="141"/>
+      <c r="DR5" s="141"/>
+      <c r="DS5" s="141"/>
+      <c r="DT5" s="141"/>
+      <c r="DU5" s="141"/>
+      <c r="DV5" s="141"/>
+      <c r="DW5" s="141"/>
+      <c r="DX5" s="141"/>
+      <c r="DY5" s="141"/>
     </row>
     <row r="6" spans="2:129" ht="21.75" customHeight="1">
       <c r="Q6" s="46" t="s">
         <v>250</v>
       </c>
-      <c r="R6" s="202" t="str">
+      <c r="R6" s="191" t="str">
         <f>Fillout!C184</f>
         <v>$800,000.00</v>
       </c>
-      <c r="S6" s="202"/>
-      <c r="T6" s="202"/>
-      <c r="U6" s="202"/>
-      <c r="V6" s="202"/>
-      <c r="W6" s="202"/>
-      <c r="X6" s="202"/>
-      <c r="Y6" s="202"/>
+      <c r="S6" s="191"/>
+      <c r="T6" s="191"/>
+      <c r="U6" s="191"/>
+      <c r="V6" s="191"/>
+      <c r="W6" s="191"/>
+      <c r="X6" s="191"/>
+      <c r="Y6" s="191"/>
       <c r="BD6" s="71" t="s">
         <v>195</v>
       </c>
@@ -27062,22 +27060,22 @@
       <c r="W7" s="47"/>
       <c r="X7" s="47"/>
       <c r="Y7" s="47"/>
-      <c r="AB7" s="203" t="str">
+      <c r="AB7" s="192" t="str">
         <f>Fillout!B59 &amp;"
 " &amp;Fillout!B60</f>
         <v>The Subject property is situated in Cartwright, is a suburb in south western of Sydney, in the state of New South Wales, Australia, located 38 kilometres south-west of the Sydney central business district. The local government area of City of Liverpool. The nearest bus stop at Hoxton Park Rd at Balmain Rd is 240 metres away. The nearest shopping centre is available 1.4 kilometres away from the subject property. The nearest schools, Cartwright Public School and Miller Technology High School, are 500 metres and 1.6 kilometres away respectively from the property. Road transport to the Sydney by car takes around 38 minutes.
 The subject property is located in a well-established residential neighbourhood, comprising predominantly of dwellings of varying age and styles of a complementary nature. The property is situated within close distance to the local shop, school, park, train and bus transport.</v>
       </c>
-      <c r="AC7" s="203"/>
-      <c r="AD7" s="203"/>
-      <c r="AE7" s="203"/>
-      <c r="AF7" s="203"/>
-      <c r="AG7" s="203"/>
-      <c r="AH7" s="203"/>
-      <c r="AI7" s="203"/>
-      <c r="AJ7" s="203"/>
-      <c r="AK7" s="203"/>
-      <c r="AL7" s="203"/>
+      <c r="AC7" s="192"/>
+      <c r="AD7" s="192"/>
+      <c r="AE7" s="192"/>
+      <c r="AF7" s="192"/>
+      <c r="AG7" s="192"/>
+      <c r="AH7" s="192"/>
+      <c r="AI7" s="192"/>
+      <c r="AJ7" s="192"/>
+      <c r="AK7" s="192"/>
+      <c r="AL7" s="192"/>
       <c r="AO7" s="44"/>
       <c r="AP7" s="45"/>
       <c r="AQ7" s="71" t="s">
@@ -27129,19 +27127,19 @@
       <c r="CX7" s="72" t="s">
         <v>247</v>
       </c>
-      <c r="DB7" s="191" t="s">
+      <c r="DB7" s="203" t="s">
         <v>590</v>
       </c>
-      <c r="DC7" s="191"/>
-      <c r="DD7" s="191"/>
-      <c r="DE7" s="191"/>
-      <c r="DF7" s="191"/>
-      <c r="DG7" s="191"/>
-      <c r="DH7" s="191"/>
-      <c r="DI7" s="191"/>
-      <c r="DJ7" s="191"/>
-      <c r="DK7" s="191"/>
-      <c r="DL7" s="191"/>
+      <c r="DC7" s="203"/>
+      <c r="DD7" s="203"/>
+      <c r="DE7" s="203"/>
+      <c r="DF7" s="203"/>
+      <c r="DG7" s="203"/>
+      <c r="DH7" s="203"/>
+      <c r="DI7" s="203"/>
+      <c r="DJ7" s="203"/>
+      <c r="DK7" s="203"/>
+      <c r="DL7" s="203"/>
     </row>
     <row r="8" spans="2:129" ht="21.75" customHeight="1">
       <c r="B8" s="45"/>
@@ -27157,33 +27155,33 @@
       <c r="L8" s="47"/>
       <c r="O8" s="45"/>
       <c r="P8" s="45"/>
-      <c r="AB8" s="203"/>
-      <c r="AC8" s="203"/>
-      <c r="AD8" s="203"/>
-      <c r="AE8" s="203"/>
-      <c r="AF8" s="203"/>
-      <c r="AG8" s="203"/>
-      <c r="AH8" s="203"/>
-      <c r="AI8" s="203"/>
-      <c r="AJ8" s="203"/>
-      <c r="AK8" s="203"/>
-      <c r="AL8" s="203"/>
+      <c r="AB8" s="192"/>
+      <c r="AC8" s="192"/>
+      <c r="AD8" s="192"/>
+      <c r="AE8" s="192"/>
+      <c r="AF8" s="192"/>
+      <c r="AG8" s="192"/>
+      <c r="AH8" s="192"/>
+      <c r="AI8" s="192"/>
+      <c r="AJ8" s="192"/>
+      <c r="AK8" s="192"/>
+      <c r="AL8" s="192"/>
       <c r="AO8" s="48"/>
       <c r="AP8" s="48"/>
       <c r="AQ8" s="71" t="s">
         <v>213</v>
       </c>
-      <c r="AR8" s="193" t="str">
+      <c r="AR8" s="194" t="str">
         <f ca="1">Fillout!B138</f>
         <v>An irregular shaped land parcel positioned at the road height position. The pedestrian access provided along Willan Drive is good and the site appears to have satisfactory surface drainage.</v>
       </c>
-      <c r="AS8" s="193"/>
-      <c r="AT8" s="193"/>
-      <c r="AU8" s="193"/>
-      <c r="AV8" s="193"/>
-      <c r="AW8" s="193"/>
-      <c r="AX8" s="193"/>
-      <c r="AY8" s="193"/>
+      <c r="AS8" s="194"/>
+      <c r="AT8" s="194"/>
+      <c r="AU8" s="194"/>
+      <c r="AV8" s="194"/>
+      <c r="AW8" s="194"/>
+      <c r="AX8" s="194"/>
+      <c r="AY8" s="194"/>
       <c r="BD8" s="71" t="s">
         <v>591</v>
       </c>
@@ -27207,17 +27205,17 @@
       </c>
       <c r="BR8" s="83"/>
       <c r="CO8" s="56"/>
-      <c r="DB8" s="191"/>
-      <c r="DC8" s="191"/>
-      <c r="DD8" s="191"/>
-      <c r="DE8" s="191"/>
-      <c r="DF8" s="191"/>
-      <c r="DG8" s="191"/>
-      <c r="DH8" s="191"/>
-      <c r="DI8" s="191"/>
-      <c r="DJ8" s="191"/>
-      <c r="DK8" s="191"/>
-      <c r="DL8" s="191"/>
+      <c r="DB8" s="203"/>
+      <c r="DC8" s="203"/>
+      <c r="DD8" s="203"/>
+      <c r="DE8" s="203"/>
+      <c r="DF8" s="203"/>
+      <c r="DG8" s="203"/>
+      <c r="DH8" s="203"/>
+      <c r="DI8" s="203"/>
+      <c r="DJ8" s="203"/>
+      <c r="DK8" s="203"/>
+      <c r="DL8" s="203"/>
     </row>
     <row r="9" spans="2:129" ht="21.75" customHeight="1">
       <c r="B9" s="48"/>
@@ -27241,38 +27239,38 @@
       <c r="Q9" s="46" t="s">
         <v>593</v>
       </c>
-      <c r="R9" s="201" t="s">
+      <c r="R9" s="190" t="s">
         <v>594</v>
       </c>
-      <c r="S9" s="201"/>
-      <c r="T9" s="201"/>
-      <c r="U9" s="201"/>
-      <c r="V9" s="201"/>
-      <c r="W9" s="201"/>
-      <c r="X9" s="201"/>
-      <c r="Y9" s="201"/>
-      <c r="AB9" s="203"/>
-      <c r="AC9" s="203"/>
-      <c r="AD9" s="203"/>
-      <c r="AE9" s="203"/>
-      <c r="AF9" s="203"/>
-      <c r="AG9" s="203"/>
-      <c r="AH9" s="203"/>
-      <c r="AI9" s="203"/>
-      <c r="AJ9" s="203"/>
-      <c r="AK9" s="203"/>
-      <c r="AL9" s="203"/>
+      <c r="S9" s="190"/>
+      <c r="T9" s="190"/>
+      <c r="U9" s="190"/>
+      <c r="V9" s="190"/>
+      <c r="W9" s="190"/>
+      <c r="X9" s="190"/>
+      <c r="Y9" s="190"/>
+      <c r="AB9" s="192"/>
+      <c r="AC9" s="192"/>
+      <c r="AD9" s="192"/>
+      <c r="AE9" s="192"/>
+      <c r="AF9" s="192"/>
+      <c r="AG9" s="192"/>
+      <c r="AH9" s="192"/>
+      <c r="AI9" s="192"/>
+      <c r="AJ9" s="192"/>
+      <c r="AK9" s="192"/>
+      <c r="AL9" s="192"/>
       <c r="AO9" s="49"/>
       <c r="AP9" s="49"/>
       <c r="AQ9" s="71"/>
-      <c r="AR9" s="193"/>
-      <c r="AS9" s="193"/>
-      <c r="AT9" s="193"/>
-      <c r="AU9" s="193"/>
-      <c r="AV9" s="193"/>
-      <c r="AW9" s="193"/>
-      <c r="AX9" s="193"/>
-      <c r="AY9" s="193"/>
+      <c r="AR9" s="194"/>
+      <c r="AS9" s="194"/>
+      <c r="AT9" s="194"/>
+      <c r="AU9" s="194"/>
+      <c r="AV9" s="194"/>
+      <c r="AW9" s="194"/>
+      <c r="AX9" s="194"/>
+      <c r="AY9" s="194"/>
       <c r="BD9" s="71" t="s">
         <v>199</v>
       </c>
@@ -27287,30 +27285,30 @@
       <c r="BJ9" s="83"/>
       <c r="BK9" s="83"/>
       <c r="BL9" s="83"/>
-      <c r="CO9" s="147" t="s">
+      <c r="CO9" s="141" t="s">
         <v>595</v>
       </c>
-      <c r="CP9" s="147"/>
-      <c r="CQ9" s="147"/>
-      <c r="CR9" s="147"/>
-      <c r="CS9" s="147"/>
-      <c r="CT9" s="147"/>
-      <c r="CU9" s="147"/>
-      <c r="CV9" s="147"/>
-      <c r="CW9" s="147"/>
-      <c r="CX9" s="147"/>
-      <c r="CY9" s="147"/>
-      <c r="DB9" s="191"/>
-      <c r="DC9" s="191"/>
-      <c r="DD9" s="191"/>
-      <c r="DE9" s="191"/>
-      <c r="DF9" s="191"/>
-      <c r="DG9" s="191"/>
-      <c r="DH9" s="191"/>
-      <c r="DI9" s="191"/>
-      <c r="DJ9" s="191"/>
-      <c r="DK9" s="191"/>
-      <c r="DL9" s="191"/>
+      <c r="CP9" s="141"/>
+      <c r="CQ9" s="141"/>
+      <c r="CR9" s="141"/>
+      <c r="CS9" s="141"/>
+      <c r="CT9" s="141"/>
+      <c r="CU9" s="141"/>
+      <c r="CV9" s="141"/>
+      <c r="CW9" s="141"/>
+      <c r="CX9" s="141"/>
+      <c r="CY9" s="141"/>
+      <c r="DB9" s="203"/>
+      <c r="DC9" s="203"/>
+      <c r="DD9" s="203"/>
+      <c r="DE9" s="203"/>
+      <c r="DF9" s="203"/>
+      <c r="DG9" s="203"/>
+      <c r="DH9" s="203"/>
+      <c r="DI9" s="203"/>
+      <c r="DJ9" s="203"/>
+      <c r="DK9" s="203"/>
+      <c r="DL9" s="203"/>
     </row>
     <row r="10" spans="2:129" ht="21.75" customHeight="1">
       <c r="B10" s="49"/>
@@ -27334,28 +27332,28 @@
       <c r="Q10" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="R10" s="201">
+      <c r="R10" s="190">
         <f>Fillout!B23</f>
         <v>45835</v>
       </c>
-      <c r="S10" s="201"/>
-      <c r="T10" s="201"/>
-      <c r="U10" s="201"/>
-      <c r="V10" s="201"/>
-      <c r="W10" s="201"/>
-      <c r="X10" s="201"/>
-      <c r="Y10" s="201"/>
-      <c r="AB10" s="203"/>
-      <c r="AC10" s="203"/>
-      <c r="AD10" s="203"/>
-      <c r="AE10" s="203"/>
-      <c r="AF10" s="203"/>
-      <c r="AG10" s="203"/>
-      <c r="AH10" s="203"/>
-      <c r="AI10" s="203"/>
-      <c r="AJ10" s="203"/>
-      <c r="AK10" s="203"/>
-      <c r="AL10" s="203"/>
+      <c r="S10" s="190"/>
+      <c r="T10" s="190"/>
+      <c r="U10" s="190"/>
+      <c r="V10" s="190"/>
+      <c r="W10" s="190"/>
+      <c r="X10" s="190"/>
+      <c r="Y10" s="190"/>
+      <c r="AB10" s="192"/>
+      <c r="AC10" s="192"/>
+      <c r="AD10" s="192"/>
+      <c r="AE10" s="192"/>
+      <c r="AF10" s="192"/>
+      <c r="AG10" s="192"/>
+      <c r="AH10" s="192"/>
+      <c r="AI10" s="192"/>
+      <c r="AJ10" s="192"/>
+      <c r="AK10" s="192"/>
+      <c r="AL10" s="192"/>
       <c r="AO10" s="49"/>
       <c r="AP10" s="49"/>
       <c r="AQ10" s="71" t="s">
@@ -27384,28 +27382,28 @@
       <c r="BJ10" s="83"/>
       <c r="BK10" s="83"/>
       <c r="BL10" s="83"/>
-      <c r="CO10" s="147"/>
-      <c r="CP10" s="147"/>
-      <c r="CQ10" s="147"/>
-      <c r="CR10" s="147"/>
-      <c r="CS10" s="147"/>
-      <c r="CT10" s="147"/>
-      <c r="CU10" s="147"/>
-      <c r="CV10" s="147"/>
-      <c r="CW10" s="147"/>
-      <c r="CX10" s="147"/>
-      <c r="CY10" s="147"/>
-      <c r="DB10" s="191"/>
-      <c r="DC10" s="191"/>
-      <c r="DD10" s="191"/>
-      <c r="DE10" s="191"/>
-      <c r="DF10" s="191"/>
-      <c r="DG10" s="191"/>
-      <c r="DH10" s="191"/>
-      <c r="DI10" s="191"/>
-      <c r="DJ10" s="191"/>
-      <c r="DK10" s="191"/>
-      <c r="DL10" s="191"/>
+      <c r="CO10" s="141"/>
+      <c r="CP10" s="141"/>
+      <c r="CQ10" s="141"/>
+      <c r="CR10" s="141"/>
+      <c r="CS10" s="141"/>
+      <c r="CT10" s="141"/>
+      <c r="CU10" s="141"/>
+      <c r="CV10" s="141"/>
+      <c r="CW10" s="141"/>
+      <c r="CX10" s="141"/>
+      <c r="CY10" s="141"/>
+      <c r="DB10" s="203"/>
+      <c r="DC10" s="203"/>
+      <c r="DD10" s="203"/>
+      <c r="DE10" s="203"/>
+      <c r="DF10" s="203"/>
+      <c r="DG10" s="203"/>
+      <c r="DH10" s="203"/>
+      <c r="DI10" s="203"/>
+      <c r="DJ10" s="203"/>
+      <c r="DK10" s="203"/>
+      <c r="DL10" s="203"/>
     </row>
     <row r="11" spans="2:129" ht="21.75" customHeight="1">
       <c r="B11" s="48"/>
@@ -27413,44 +27411,44 @@
       <c r="D11" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="E11" s="196" t="str">
+      <c r="E11" s="189" t="str">
         <f>Fillout!B5&amp;" Please note this report does not meet practice standards for mortgage purposes and is specifically not suitable for that purpose."</f>
         <v>To determine the current market value for Stamp Duty purposes only. Please note this report does not meet practice standards for mortgage purposes and is specifically not suitable for that purpose.</v>
       </c>
-      <c r="F11" s="196"/>
-      <c r="G11" s="196"/>
-      <c r="H11" s="196"/>
-      <c r="I11" s="196"/>
-      <c r="J11" s="196"/>
-      <c r="K11" s="196"/>
-      <c r="L11" s="196"/>
+      <c r="F11" s="189"/>
+      <c r="G11" s="189"/>
+      <c r="H11" s="189"/>
+      <c r="I11" s="189"/>
+      <c r="J11" s="189"/>
+      <c r="K11" s="189"/>
+      <c r="L11" s="189"/>
       <c r="O11" s="48"/>
       <c r="P11" s="49"/>
       <c r="Q11" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="R11" s="201">
+      <c r="R11" s="190">
         <f>Fillout!B24</f>
         <v>45835</v>
       </c>
-      <c r="S11" s="201"/>
-      <c r="T11" s="201"/>
-      <c r="U11" s="201"/>
-      <c r="V11" s="201"/>
-      <c r="W11" s="201"/>
-      <c r="X11" s="201"/>
-      <c r="Y11" s="201"/>
-      <c r="AB11" s="203"/>
-      <c r="AC11" s="203"/>
-      <c r="AD11" s="203"/>
-      <c r="AE11" s="203"/>
-      <c r="AF11" s="203"/>
-      <c r="AG11" s="203"/>
-      <c r="AH11" s="203"/>
-      <c r="AI11" s="203"/>
-      <c r="AJ11" s="203"/>
-      <c r="AK11" s="203"/>
-      <c r="AL11" s="203"/>
+      <c r="S11" s="190"/>
+      <c r="T11" s="190"/>
+      <c r="U11" s="190"/>
+      <c r="V11" s="190"/>
+      <c r="W11" s="190"/>
+      <c r="X11" s="190"/>
+      <c r="Y11" s="190"/>
+      <c r="AB11" s="192"/>
+      <c r="AC11" s="192"/>
+      <c r="AD11" s="192"/>
+      <c r="AE11" s="192"/>
+      <c r="AF11" s="192"/>
+      <c r="AG11" s="192"/>
+      <c r="AH11" s="192"/>
+      <c r="AI11" s="192"/>
+      <c r="AJ11" s="192"/>
+      <c r="AK11" s="192"/>
+      <c r="AL11" s="192"/>
       <c r="AO11" s="48"/>
       <c r="AP11" s="49"/>
       <c r="AQ11" s="71" t="s">
@@ -27471,73 +27469,73 @@
         <f ca="1">IF(Data!FW6="",Data!FX6,_xlfn.CONCAT(Data!FW6," | ",Data!FX6))</f>
         <v>Prime Cost Items | Bathroom</v>
       </c>
-      <c r="BE11" s="189" t="str">
+      <c r="BE11" s="188" t="str">
         <f ca="1">Data!FY6</f>
         <v>Toilet suite, Shower, Vanity and Exhaust fan</v>
       </c>
-      <c r="BF11" s="189"/>
-      <c r="BG11" s="189"/>
-      <c r="BH11" s="189"/>
-      <c r="BI11" s="189"/>
-      <c r="BJ11" s="189"/>
-      <c r="BK11" s="189"/>
-      <c r="BL11" s="189"/>
+      <c r="BF11" s="188"/>
+      <c r="BG11" s="188"/>
+      <c r="BH11" s="188"/>
+      <c r="BI11" s="188"/>
+      <c r="BJ11" s="188"/>
+      <c r="BK11" s="188"/>
+      <c r="BL11" s="188"/>
       <c r="BM11" s="62"/>
       <c r="CO11" s="56"/>
       <c r="CP11" s="56"/>
       <c r="CQ11" s="56"/>
       <c r="CR11" s="56"/>
-      <c r="DB11" s="191"/>
-      <c r="DC11" s="191"/>
-      <c r="DD11" s="191"/>
-      <c r="DE11" s="191"/>
-      <c r="DF11" s="191"/>
-      <c r="DG11" s="191"/>
-      <c r="DH11" s="191"/>
-      <c r="DI11" s="191"/>
-      <c r="DJ11" s="191"/>
-      <c r="DK11" s="191"/>
-      <c r="DL11" s="191"/>
+      <c r="DB11" s="203"/>
+      <c r="DC11" s="203"/>
+      <c r="DD11" s="203"/>
+      <c r="DE11" s="203"/>
+      <c r="DF11" s="203"/>
+      <c r="DG11" s="203"/>
+      <c r="DH11" s="203"/>
+      <c r="DI11" s="203"/>
+      <c r="DJ11" s="203"/>
+      <c r="DK11" s="203"/>
+      <c r="DL11" s="203"/>
     </row>
     <row r="12" spans="2:129" ht="21.75" customHeight="1">
       <c r="B12" s="49"/>
       <c r="C12" s="49"/>
       <c r="D12" s="46"/>
-      <c r="E12" s="196"/>
-      <c r="F12" s="196"/>
-      <c r="G12" s="196"/>
-      <c r="H12" s="196"/>
-      <c r="I12" s="196"/>
-      <c r="J12" s="196"/>
-      <c r="K12" s="196"/>
-      <c r="L12" s="196"/>
+      <c r="E12" s="189"/>
+      <c r="F12" s="189"/>
+      <c r="G12" s="189"/>
+      <c r="H12" s="189"/>
+      <c r="I12" s="189"/>
+      <c r="J12" s="189"/>
+      <c r="K12" s="189"/>
+      <c r="L12" s="189"/>
       <c r="O12" s="49"/>
       <c r="P12" s="49"/>
       <c r="Q12" s="46" t="s">
         <v>603</v>
       </c>
-      <c r="R12" s="201">
+      <c r="R12" s="190">
         <f>Fillout!B22</f>
         <v>45835</v>
       </c>
-      <c r="S12" s="201"/>
-      <c r="T12" s="201"/>
-      <c r="U12" s="201"/>
-      <c r="V12" s="201"/>
-      <c r="W12" s="201"/>
-      <c r="X12" s="201"/>
-      <c r="Y12" s="201"/>
-      <c r="AB12" s="203"/>
-      <c r="AC12" s="203"/>
-      <c r="AD12" s="203"/>
-      <c r="AE12" s="203"/>
-      <c r="AF12" s="203"/>
-      <c r="AG12" s="203"/>
-      <c r="AH12" s="203"/>
-      <c r="AI12" s="203"/>
-      <c r="AJ12" s="203"/>
-      <c r="AK12" s="203"/>
-      <c r="AL12" s="203"/>
+      <c r="S12" s="190"/>
+      <c r="T12" s="190"/>
+      <c r="U12" s="190"/>
+      <c r="V12" s="190"/>
+      <c r="W12" s="190"/>
+      <c r="X12" s="190"/>
+      <c r="Y12" s="190"/>
+      <c r="AB12" s="192"/>
+      <c r="AC12" s="192"/>
+      <c r="AD12" s="192"/>
+      <c r="AE12" s="192"/>
+      <c r="AF12" s="192"/>
+      <c r="AG12" s="192"/>
+      <c r="AH12" s="192"/>
+      <c r="AI12" s="192"/>
+      <c r="AJ12" s="192"/>
+      <c r="AK12" s="192"/>
+      <c r="AL12" s="192"/>
       <c r="AO12" s="44"/>
       <c r="AP12" s="49"/>
       <c r="AQ12" s="46"/>
@@ -27554,30 +27552,30 @@
         <f ca="1">IF(Data!FW7="",Data!FX7,_xlfn.CONCAT(Data!FW7," | ",Data!FX7))</f>
         <v>Kitchen</v>
       </c>
-      <c r="BE12" s="189" t="str">
+      <c r="BE12" s="188" t="str">
         <f ca="1">Data!FY7</f>
         <v>Double bowl sink, Cooktop, Oven, Freestanding cooktop and Dishwasher</v>
       </c>
-      <c r="BF12" s="189"/>
-      <c r="BG12" s="189"/>
-      <c r="BH12" s="189"/>
-      <c r="BI12" s="189"/>
-      <c r="BJ12" s="189"/>
-      <c r="BK12" s="189"/>
-      <c r="BL12" s="189"/>
-      <c r="BO12" s="147" t="s">
+      <c r="BF12" s="188"/>
+      <c r="BG12" s="188"/>
+      <c r="BH12" s="188"/>
+      <c r="BI12" s="188"/>
+      <c r="BJ12" s="188"/>
+      <c r="BK12" s="188"/>
+      <c r="BL12" s="188"/>
+      <c r="BO12" s="141" t="s">
         <v>604</v>
       </c>
-      <c r="BP12" s="147"/>
-      <c r="BQ12" s="147"/>
-      <c r="BR12" s="147"/>
-      <c r="BS12" s="147"/>
-      <c r="BT12" s="147"/>
-      <c r="BU12" s="147"/>
-      <c r="BV12" s="147"/>
-      <c r="BW12" s="147"/>
-      <c r="BX12" s="147"/>
-      <c r="BY12" s="147"/>
+      <c r="BP12" s="141"/>
+      <c r="BQ12" s="141"/>
+      <c r="BR12" s="141"/>
+      <c r="BS12" s="141"/>
+      <c r="BT12" s="141"/>
+      <c r="BU12" s="141"/>
+      <c r="BV12" s="141"/>
+      <c r="BW12" s="141"/>
+      <c r="BX12" s="141"/>
+      <c r="BY12" s="141"/>
       <c r="CB12"/>
       <c r="CC12"/>
       <c r="CD12"/>
@@ -27593,43 +27591,43 @@
         <v>605</v>
       </c>
       <c r="CR12" s="56"/>
-      <c r="DB12" s="191"/>
-      <c r="DC12" s="191"/>
-      <c r="DD12" s="191"/>
-      <c r="DE12" s="191"/>
-      <c r="DF12" s="191"/>
-      <c r="DG12" s="191"/>
-      <c r="DH12" s="191"/>
-      <c r="DI12" s="191"/>
-      <c r="DJ12" s="191"/>
-      <c r="DK12" s="191"/>
-      <c r="DL12" s="191"/>
+      <c r="DB12" s="203"/>
+      <c r="DC12" s="203"/>
+      <c r="DD12" s="203"/>
+      <c r="DE12" s="203"/>
+      <c r="DF12" s="203"/>
+      <c r="DG12" s="203"/>
+      <c r="DH12" s="203"/>
+      <c r="DI12" s="203"/>
+      <c r="DJ12" s="203"/>
+      <c r="DK12" s="203"/>
+      <c r="DL12" s="203"/>
     </row>
     <row r="13" spans="2:129" ht="21.75" customHeight="1">
       <c r="B13" s="48"/>
       <c r="C13" s="49"/>
       <c r="D13" s="46"/>
-      <c r="E13" s="196"/>
-      <c r="F13" s="196"/>
-      <c r="G13" s="196"/>
-      <c r="H13" s="196"/>
-      <c r="I13" s="196"/>
-      <c r="J13" s="196"/>
-      <c r="K13" s="196"/>
-      <c r="L13" s="196"/>
+      <c r="E13" s="189"/>
+      <c r="F13" s="189"/>
+      <c r="G13" s="189"/>
+      <c r="H13" s="189"/>
+      <c r="I13" s="189"/>
+      <c r="J13" s="189"/>
+      <c r="K13" s="189"/>
+      <c r="L13" s="189"/>
       <c r="O13" s="48"/>
       <c r="P13" s="49"/>
-      <c r="AB13" s="203"/>
-      <c r="AC13" s="203"/>
-      <c r="AD13" s="203"/>
-      <c r="AE13" s="203"/>
-      <c r="AF13" s="203"/>
-      <c r="AG13" s="203"/>
-      <c r="AH13" s="203"/>
-      <c r="AI13" s="203"/>
-      <c r="AJ13" s="203"/>
-      <c r="AK13" s="203"/>
-      <c r="AL13" s="203"/>
+      <c r="AB13" s="192"/>
+      <c r="AC13" s="192"/>
+      <c r="AD13" s="192"/>
+      <c r="AE13" s="192"/>
+      <c r="AF13" s="192"/>
+      <c r="AG13" s="192"/>
+      <c r="AH13" s="192"/>
+      <c r="AI13" s="192"/>
+      <c r="AJ13" s="192"/>
+      <c r="AK13" s="192"/>
+      <c r="AL13" s="192"/>
       <c r="AO13" s="49"/>
       <c r="AP13" s="49"/>
       <c r="AQ13" s="46"/>
@@ -27646,28 +27644,28 @@
         <f ca="1">IF(Data!FW8="",Data!FX8,_xlfn.CONCAT(Data!FW8," | ",Data!FX8))</f>
         <v>Laundry</v>
       </c>
-      <c r="BE13" s="189" t="str">
+      <c r="BE13" s="188" t="str">
         <f ca="1">Data!FY8</f>
         <v>Stainless steel laundry tub</v>
       </c>
-      <c r="BF13" s="189"/>
-      <c r="BG13" s="189"/>
-      <c r="BH13" s="189"/>
-      <c r="BI13" s="189"/>
-      <c r="BJ13" s="189"/>
-      <c r="BK13" s="189"/>
-      <c r="BL13" s="189"/>
-      <c r="BO13" s="147"/>
-      <c r="BP13" s="147"/>
-      <c r="BQ13" s="147"/>
-      <c r="BR13" s="147"/>
-      <c r="BS13" s="147"/>
-      <c r="BT13" s="147"/>
-      <c r="BU13" s="147"/>
-      <c r="BV13" s="147"/>
-      <c r="BW13" s="147"/>
-      <c r="BX13" s="147"/>
-      <c r="BY13" s="147"/>
+      <c r="BF13" s="188"/>
+      <c r="BG13" s="188"/>
+      <c r="BH13" s="188"/>
+      <c r="BI13" s="188"/>
+      <c r="BJ13" s="188"/>
+      <c r="BK13" s="188"/>
+      <c r="BL13" s="188"/>
+      <c r="BO13" s="141"/>
+      <c r="BP13" s="141"/>
+      <c r="BQ13" s="141"/>
+      <c r="BR13" s="141"/>
+      <c r="BS13" s="141"/>
+      <c r="BT13" s="141"/>
+      <c r="BU13" s="141"/>
+      <c r="BV13" s="141"/>
+      <c r="BW13" s="141"/>
+      <c r="BX13" s="141"/>
+      <c r="BY13" s="141"/>
       <c r="CB13"/>
       <c r="CC13"/>
       <c r="CD13"/>
@@ -27679,17 +27677,17 @@
       <c r="CJ13"/>
       <c r="CK13"/>
       <c r="CL13"/>
-      <c r="DB13" s="191"/>
-      <c r="DC13" s="191"/>
-      <c r="DD13" s="191"/>
-      <c r="DE13" s="191"/>
-      <c r="DF13" s="191"/>
-      <c r="DG13" s="191"/>
-      <c r="DH13" s="191"/>
-      <c r="DI13" s="191"/>
-      <c r="DJ13" s="191"/>
-      <c r="DK13" s="191"/>
-      <c r="DL13" s="191"/>
+      <c r="DB13" s="203"/>
+      <c r="DC13" s="203"/>
+      <c r="DD13" s="203"/>
+      <c r="DE13" s="203"/>
+      <c r="DF13" s="203"/>
+      <c r="DG13" s="203"/>
+      <c r="DH13" s="203"/>
+      <c r="DI13" s="203"/>
+      <c r="DJ13" s="203"/>
+      <c r="DK13" s="203"/>
+      <c r="DL13" s="203"/>
     </row>
     <row r="14" spans="2:129" ht="21.75" customHeight="1">
       <c r="B14" s="44" t="s">
@@ -27710,16 +27708,16 @@
       <c r="Q14" s="46" t="s">
         <v>607</v>
       </c>
-      <c r="R14" s="198" t="s">
+      <c r="R14" s="197" t="s">
         <v>608</v>
       </c>
-      <c r="S14" s="198"/>
-      <c r="T14" s="198"/>
-      <c r="U14" s="198"/>
-      <c r="V14" s="198"/>
-      <c r="W14" s="198"/>
-      <c r="X14" s="198"/>
-      <c r="Y14" s="198"/>
+      <c r="S14" s="197"/>
+      <c r="T14" s="197"/>
+      <c r="U14" s="197"/>
+      <c r="V14" s="197"/>
+      <c r="W14" s="197"/>
+      <c r="X14" s="197"/>
+      <c r="Y14" s="197"/>
       <c r="AB14" s="51"/>
       <c r="AC14" s="114" t="s">
         <v>253</v>
@@ -27748,42 +27746,42 @@
         <f ca="1">IF(Data!FW9="",Data!FX9,_xlfn.CONCAT(Data!FW9," | ",Data!FX9))</f>
         <v>General</v>
       </c>
-      <c r="BE14" s="189" t="str">
+      <c r="BE14" s="188" t="str">
         <f ca="1">Data!FY9</f>
         <v>Hot water system</v>
       </c>
-      <c r="BF14" s="189"/>
-      <c r="BG14" s="189"/>
-      <c r="BH14" s="189"/>
-      <c r="BI14" s="189"/>
-      <c r="BJ14" s="189"/>
-      <c r="BK14" s="189"/>
-      <c r="BL14" s="189"/>
-      <c r="CO14" s="188" t="str">
+      <c r="BF14" s="188"/>
+      <c r="BG14" s="188"/>
+      <c r="BH14" s="188"/>
+      <c r="BI14" s="188"/>
+      <c r="BJ14" s="188"/>
+      <c r="BK14" s="188"/>
+      <c r="BL14" s="188"/>
+      <c r="CO14" s="201" t="str">
         <f>Fillout!C173</f>
         <v>Sales evidence reflects 9 Avondale Place Cartwright has a similar Land size and has 3 bedrooms, 1 bathrooms and single garage, with vinyl cladding walls and a colorbond roof. In comparison to subject: Similar Land size. Inferior Location. Superior Accommodation. Overall Inferior. On balance, the considered indicative market value of the subject property is $800,000.</v>
       </c>
-      <c r="CP14" s="188"/>
-      <c r="CQ14" s="188"/>
-      <c r="CR14" s="188"/>
-      <c r="CS14" s="188"/>
-      <c r="CT14" s="188"/>
-      <c r="CU14" s="188"/>
-      <c r="CV14" s="188"/>
-      <c r="CW14" s="188"/>
-      <c r="CX14" s="188"/>
-      <c r="CY14" s="188"/>
-      <c r="DB14" s="191"/>
-      <c r="DC14" s="191"/>
-      <c r="DD14" s="191"/>
-      <c r="DE14" s="191"/>
-      <c r="DF14" s="191"/>
-      <c r="DG14" s="191"/>
-      <c r="DH14" s="191"/>
-      <c r="DI14" s="191"/>
-      <c r="DJ14" s="191"/>
-      <c r="DK14" s="191"/>
-      <c r="DL14" s="191"/>
+      <c r="CP14" s="201"/>
+      <c r="CQ14" s="201"/>
+      <c r="CR14" s="201"/>
+      <c r="CS14" s="201"/>
+      <c r="CT14" s="201"/>
+      <c r="CU14" s="201"/>
+      <c r="CV14" s="201"/>
+      <c r="CW14" s="201"/>
+      <c r="CX14" s="201"/>
+      <c r="CY14" s="201"/>
+      <c r="DB14" s="203"/>
+      <c r="DC14" s="203"/>
+      <c r="DD14" s="203"/>
+      <c r="DE14" s="203"/>
+      <c r="DF14" s="203"/>
+      <c r="DG14" s="203"/>
+      <c r="DH14" s="203"/>
+      <c r="DI14" s="203"/>
+      <c r="DJ14" s="203"/>
+      <c r="DK14" s="203"/>
+      <c r="DL14" s="203"/>
     </row>
     <row r="15" spans="2:129" ht="21.75" customHeight="1">
       <c r="B15" s="49"/>
@@ -27799,14 +27797,14 @@
       <c r="O15" s="49"/>
       <c r="P15" s="49"/>
       <c r="Q15" s="46"/>
-      <c r="R15" s="198"/>
-      <c r="S15" s="198"/>
-      <c r="T15" s="198"/>
-      <c r="U15" s="198"/>
-      <c r="V15" s="198"/>
-      <c r="W15" s="198"/>
-      <c r="X15" s="198"/>
-      <c r="Y15" s="198"/>
+      <c r="R15" s="197"/>
+      <c r="S15" s="197"/>
+      <c r="T15" s="197"/>
+      <c r="U15" s="197"/>
+      <c r="V15" s="197"/>
+      <c r="W15" s="197"/>
+      <c r="X15" s="197"/>
+      <c r="Y15" s="197"/>
       <c r="AO15" s="49"/>
       <c r="AP15" s="49"/>
       <c r="AQ15" s="46"/>
@@ -27823,52 +27821,52 @@
         <f ca="1">IF(Data!FW10="",Data!FX10,_xlfn.CONCAT(Data!FW10," | ",Data!FX10))</f>
         <v>Features &amp; Fixtures | Bedroom 1</v>
       </c>
-      <c r="BE15" s="189" t="str">
+      <c r="BE15" s="188" t="str">
         <f ca="1">Data!FY10</f>
         <v>Tile flooring, Blinds and Aluminium framed windows</v>
       </c>
-      <c r="BF15" s="189"/>
-      <c r="BG15" s="189"/>
-      <c r="BH15" s="189"/>
-      <c r="BI15" s="189"/>
-      <c r="BJ15" s="189"/>
-      <c r="BK15" s="189"/>
-      <c r="BL15" s="189"/>
-      <c r="BO15" s="190" t="s">
+      <c r="BF15" s="188"/>
+      <c r="BG15" s="188"/>
+      <c r="BH15" s="188"/>
+      <c r="BI15" s="188"/>
+      <c r="BJ15" s="188"/>
+      <c r="BK15" s="188"/>
+      <c r="BL15" s="188"/>
+      <c r="BO15" s="202" t="s">
         <v>609</v>
       </c>
-      <c r="BP15" s="190"/>
-      <c r="BQ15" s="190"/>
-      <c r="BR15" s="190"/>
-      <c r="BS15" s="190"/>
-      <c r="BT15" s="190"/>
-      <c r="BU15" s="190"/>
-      <c r="BV15" s="190"/>
-      <c r="BW15" s="190"/>
-      <c r="BX15" s="190"/>
-      <c r="BY15" s="190"/>
-      <c r="CO15" s="188"/>
-      <c r="CP15" s="188"/>
-      <c r="CQ15" s="188"/>
-      <c r="CR15" s="188"/>
-      <c r="CS15" s="188"/>
-      <c r="CT15" s="188"/>
-      <c r="CU15" s="188"/>
-      <c r="CV15" s="188"/>
-      <c r="CW15" s="188"/>
-      <c r="CX15" s="188"/>
-      <c r="CY15" s="188"/>
-      <c r="DB15" s="191"/>
-      <c r="DC15" s="191"/>
-      <c r="DD15" s="191"/>
-      <c r="DE15" s="191"/>
-      <c r="DF15" s="191"/>
-      <c r="DG15" s="191"/>
-      <c r="DH15" s="191"/>
-      <c r="DI15" s="191"/>
-      <c r="DJ15" s="191"/>
-      <c r="DK15" s="191"/>
-      <c r="DL15" s="191"/>
+      <c r="BP15" s="202"/>
+      <c r="BQ15" s="202"/>
+      <c r="BR15" s="202"/>
+      <c r="BS15" s="202"/>
+      <c r="BT15" s="202"/>
+      <c r="BU15" s="202"/>
+      <c r="BV15" s="202"/>
+      <c r="BW15" s="202"/>
+      <c r="BX15" s="202"/>
+      <c r="BY15" s="202"/>
+      <c r="CO15" s="201"/>
+      <c r="CP15" s="201"/>
+      <c r="CQ15" s="201"/>
+      <c r="CR15" s="201"/>
+      <c r="CS15" s="201"/>
+      <c r="CT15" s="201"/>
+      <c r="CU15" s="201"/>
+      <c r="CV15" s="201"/>
+      <c r="CW15" s="201"/>
+      <c r="CX15" s="201"/>
+      <c r="CY15" s="201"/>
+      <c r="DB15" s="203"/>
+      <c r="DC15" s="203"/>
+      <c r="DD15" s="203"/>
+      <c r="DE15" s="203"/>
+      <c r="DF15" s="203"/>
+      <c r="DG15" s="203"/>
+      <c r="DH15" s="203"/>
+      <c r="DI15" s="203"/>
+      <c r="DJ15" s="203"/>
+      <c r="DK15" s="203"/>
+      <c r="DL15" s="203"/>
     </row>
     <row r="16" spans="2:129" ht="21.75" customHeight="1">
       <c r="B16" s="48"/>
@@ -27892,16 +27890,16 @@
       <c r="Q16" s="46" t="s">
         <v>610</v>
       </c>
-      <c r="R16" s="198" t="s">
+      <c r="R16" s="197" t="s">
         <v>611</v>
       </c>
-      <c r="S16" s="198"/>
-      <c r="T16" s="198"/>
-      <c r="U16" s="198"/>
-      <c r="V16" s="198"/>
-      <c r="W16" s="198"/>
-      <c r="X16" s="198"/>
-      <c r="Y16" s="198"/>
+      <c r="S16" s="197"/>
+      <c r="T16" s="197"/>
+      <c r="U16" s="197"/>
+      <c r="V16" s="197"/>
+      <c r="W16" s="197"/>
+      <c r="X16" s="197"/>
+      <c r="Y16" s="197"/>
       <c r="AG16" s="57"/>
       <c r="AH16" s="57"/>
       <c r="AI16" s="57"/>
@@ -27924,50 +27922,50 @@
         <f ca="1">IF(Data!FW11="",Data!FX11,_xlfn.CONCAT(Data!FW11," | ",Data!FX11))</f>
         <v>Bedroom 2</v>
       </c>
-      <c r="BE16" s="189" t="str">
+      <c r="BE16" s="188" t="str">
         <f ca="1">Data!FY11</f>
         <v>Tile flooring, Blinds and Aluminium framed windows</v>
       </c>
-      <c r="BF16" s="189"/>
-      <c r="BG16" s="189"/>
-      <c r="BH16" s="189"/>
-      <c r="BI16" s="189"/>
-      <c r="BJ16" s="189"/>
-      <c r="BK16" s="189"/>
-      <c r="BL16" s="189"/>
-      <c r="BO16" s="190"/>
-      <c r="BP16" s="190"/>
-      <c r="BQ16" s="190"/>
-      <c r="BR16" s="190"/>
-      <c r="BS16" s="190"/>
-      <c r="BT16" s="190"/>
-      <c r="BU16" s="190"/>
-      <c r="BV16" s="190"/>
-      <c r="BW16" s="190"/>
-      <c r="BX16" s="190"/>
-      <c r="BY16" s="190"/>
-      <c r="CO16" s="188"/>
-      <c r="CP16" s="188"/>
-      <c r="CQ16" s="188"/>
-      <c r="CR16" s="188"/>
-      <c r="CS16" s="188"/>
-      <c r="CT16" s="188"/>
-      <c r="CU16" s="188"/>
-      <c r="CV16" s="188"/>
-      <c r="CW16" s="188"/>
-      <c r="CX16" s="188"/>
-      <c r="CY16" s="188"/>
-      <c r="DB16" s="191"/>
-      <c r="DC16" s="191"/>
-      <c r="DD16" s="191"/>
-      <c r="DE16" s="191"/>
-      <c r="DF16" s="191"/>
-      <c r="DG16" s="191"/>
-      <c r="DH16" s="191"/>
-      <c r="DI16" s="191"/>
-      <c r="DJ16" s="191"/>
-      <c r="DK16" s="191"/>
-      <c r="DL16" s="191"/>
+      <c r="BF16" s="188"/>
+      <c r="BG16" s="188"/>
+      <c r="BH16" s="188"/>
+      <c r="BI16" s="188"/>
+      <c r="BJ16" s="188"/>
+      <c r="BK16" s="188"/>
+      <c r="BL16" s="188"/>
+      <c r="BO16" s="202"/>
+      <c r="BP16" s="202"/>
+      <c r="BQ16" s="202"/>
+      <c r="BR16" s="202"/>
+      <c r="BS16" s="202"/>
+      <c r="BT16" s="202"/>
+      <c r="BU16" s="202"/>
+      <c r="BV16" s="202"/>
+      <c r="BW16" s="202"/>
+      <c r="BX16" s="202"/>
+      <c r="BY16" s="202"/>
+      <c r="CO16" s="201"/>
+      <c r="CP16" s="201"/>
+      <c r="CQ16" s="201"/>
+      <c r="CR16" s="201"/>
+      <c r="CS16" s="201"/>
+      <c r="CT16" s="201"/>
+      <c r="CU16" s="201"/>
+      <c r="CV16" s="201"/>
+      <c r="CW16" s="201"/>
+      <c r="CX16" s="201"/>
+      <c r="CY16" s="201"/>
+      <c r="DB16" s="203"/>
+      <c r="DC16" s="203"/>
+      <c r="DD16" s="203"/>
+      <c r="DE16" s="203"/>
+      <c r="DF16" s="203"/>
+      <c r="DG16" s="203"/>
+      <c r="DH16" s="203"/>
+      <c r="DI16" s="203"/>
+      <c r="DJ16" s="203"/>
+      <c r="DK16" s="203"/>
+      <c r="DL16" s="203"/>
     </row>
     <row r="17" spans="2:116" ht="21.75" customHeight="1">
       <c r="B17" s="49"/>
@@ -27975,28 +27973,28 @@
       <c r="D17" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="E17" s="197" t="str">
+      <c r="E17" s="196" t="str">
         <f ca="1">Fillout!B137</f>
         <v>The subject property is set on a irregular shaped allotment, on a moderate slope from rear to front, and has satisfactory site drainage in dry conditions. The dimensions are approximately 15.1 metres of frontage and 29.3 metres of depth. The site area is approximately 562 Square Metres (SQM), subject to survey. It is located towards the eastern end of Willan Drive with Nebo Pl being the nearest connected street. It’s a Circa 1960 built Vinyl Cladding house with Concrete tile roofing.  The property consists of 3 bedrooms, 1 bathroom, single garage, with kitchen, dining, lounge and laundry. The subject property has a land area of 562 sqm and an internal area of 110 sqm approximately.</v>
       </c>
-      <c r="F17" s="197"/>
-      <c r="G17" s="197"/>
-      <c r="H17" s="197"/>
-      <c r="I17" s="197"/>
-      <c r="J17" s="197"/>
-      <c r="K17" s="197"/>
-      <c r="L17" s="197"/>
+      <c r="F17" s="196"/>
+      <c r="G17" s="196"/>
+      <c r="H17" s="196"/>
+      <c r="I17" s="196"/>
+      <c r="J17" s="196"/>
+      <c r="K17" s="196"/>
+      <c r="L17" s="196"/>
       <c r="O17" s="49"/>
       <c r="P17" s="49"/>
       <c r="Q17" s="46"/>
-      <c r="R17" s="198"/>
-      <c r="S17" s="198"/>
-      <c r="T17" s="198"/>
-      <c r="U17" s="198"/>
-      <c r="V17" s="198"/>
-      <c r="W17" s="198"/>
-      <c r="X17" s="198"/>
-      <c r="Y17" s="198"/>
+      <c r="R17" s="197"/>
+      <c r="S17" s="197"/>
+      <c r="T17" s="197"/>
+      <c r="U17" s="197"/>
+      <c r="V17" s="197"/>
+      <c r="W17" s="197"/>
+      <c r="X17" s="197"/>
+      <c r="Y17" s="197"/>
       <c r="AO17" s="51"/>
       <c r="AP17" s="45"/>
       <c r="AQ17" s="46"/>
@@ -28013,28 +28011,28 @@
         <f ca="1">IF(Data!FW12="",Data!FX12,_xlfn.CONCAT(Data!FW12," | ",Data!FX12))</f>
         <v>Bedroom 3</v>
       </c>
-      <c r="BE17" s="189" t="str">
+      <c r="BE17" s="188" t="str">
         <f ca="1">Data!FY12</f>
         <v>Tile flooring, Blinds and Aluminium framed windows</v>
       </c>
-      <c r="BF17" s="189"/>
-      <c r="BG17" s="189"/>
-      <c r="BH17" s="189"/>
-      <c r="BI17" s="189"/>
-      <c r="BJ17" s="189"/>
-      <c r="BK17" s="189"/>
-      <c r="BL17" s="189"/>
-      <c r="BO17" s="190"/>
-      <c r="BP17" s="190"/>
-      <c r="BQ17" s="190"/>
-      <c r="BR17" s="190"/>
-      <c r="BS17" s="190"/>
-      <c r="BT17" s="190"/>
-      <c r="BU17" s="190"/>
-      <c r="BV17" s="190"/>
-      <c r="BW17" s="190"/>
-      <c r="BX17" s="190"/>
-      <c r="BY17" s="190"/>
+      <c r="BF17" s="188"/>
+      <c r="BG17" s="188"/>
+      <c r="BH17" s="188"/>
+      <c r="BI17" s="188"/>
+      <c r="BJ17" s="188"/>
+      <c r="BK17" s="188"/>
+      <c r="BL17" s="188"/>
+      <c r="BO17" s="202"/>
+      <c r="BP17" s="202"/>
+      <c r="BQ17" s="202"/>
+      <c r="BR17" s="202"/>
+      <c r="BS17" s="202"/>
+      <c r="BT17" s="202"/>
+      <c r="BU17" s="202"/>
+      <c r="BV17" s="202"/>
+      <c r="BW17" s="202"/>
+      <c r="BX17" s="202"/>
+      <c r="BY17" s="202"/>
       <c r="CO17" s="60"/>
       <c r="CP17" s="60"/>
       <c r="CQ17" s="60"/>
@@ -28046,30 +28044,30 @@
       <c r="CW17" s="60"/>
       <c r="CX17" s="60"/>
       <c r="CY17" s="60"/>
-      <c r="DB17" s="191"/>
-      <c r="DC17" s="191"/>
-      <c r="DD17" s="191"/>
-      <c r="DE17" s="191"/>
-      <c r="DF17" s="191"/>
-      <c r="DG17" s="191"/>
-      <c r="DH17" s="191"/>
-      <c r="DI17" s="191"/>
-      <c r="DJ17" s="191"/>
-      <c r="DK17" s="191"/>
-      <c r="DL17" s="191"/>
+      <c r="DB17" s="203"/>
+      <c r="DC17" s="203"/>
+      <c r="DD17" s="203"/>
+      <c r="DE17" s="203"/>
+      <c r="DF17" s="203"/>
+      <c r="DG17" s="203"/>
+      <c r="DH17" s="203"/>
+      <c r="DI17" s="203"/>
+      <c r="DJ17" s="203"/>
+      <c r="DK17" s="203"/>
+      <c r="DL17" s="203"/>
     </row>
     <row r="18" spans="2:116" ht="21.75" customHeight="1">
       <c r="B18" s="49"/>
       <c r="C18" s="48"/>
       <c r="D18" s="46"/>
-      <c r="E18" s="197"/>
-      <c r="F18" s="197"/>
-      <c r="G18" s="197"/>
-      <c r="H18" s="197"/>
-      <c r="I18" s="197"/>
-      <c r="J18" s="197"/>
-      <c r="K18" s="197"/>
-      <c r="L18" s="197"/>
+      <c r="E18" s="196"/>
+      <c r="F18" s="196"/>
+      <c r="G18" s="196"/>
+      <c r="H18" s="196"/>
+      <c r="I18" s="196"/>
+      <c r="J18" s="196"/>
+      <c r="K18" s="196"/>
+      <c r="L18" s="196"/>
       <c r="O18" s="49"/>
       <c r="P18" s="48"/>
       <c r="Q18" s="46" t="s">
@@ -28094,28 +28092,28 @@
         <f ca="1">IF(Data!FW13="",Data!FX13,_xlfn.CONCAT(Data!FW13," | ",Data!FX13))</f>
         <v>Bathroom</v>
       </c>
-      <c r="BE18" s="189" t="str">
+      <c r="BE18" s="188" t="str">
         <f ca="1">Data!FY13</f>
         <v>Tile flooring, Bath tub, Fitted mirror and Aluminium framed windows</v>
       </c>
-      <c r="BF18" s="189"/>
-      <c r="BG18" s="189"/>
-      <c r="BH18" s="189"/>
-      <c r="BI18" s="189"/>
-      <c r="BJ18" s="189"/>
-      <c r="BK18" s="189"/>
-      <c r="BL18" s="189"/>
-      <c r="BO18" s="190"/>
-      <c r="BP18" s="190"/>
-      <c r="BQ18" s="190"/>
-      <c r="BR18" s="190"/>
-      <c r="BS18" s="190"/>
-      <c r="BT18" s="190"/>
-      <c r="BU18" s="190"/>
-      <c r="BV18" s="190"/>
-      <c r="BW18" s="190"/>
-      <c r="BX18" s="190"/>
-      <c r="BY18" s="190"/>
+      <c r="BF18" s="188"/>
+      <c r="BG18" s="188"/>
+      <c r="BH18" s="188"/>
+      <c r="BI18" s="188"/>
+      <c r="BJ18" s="188"/>
+      <c r="BK18" s="188"/>
+      <c r="BL18" s="188"/>
+      <c r="BO18" s="202"/>
+      <c r="BP18" s="202"/>
+      <c r="BQ18" s="202"/>
+      <c r="BR18" s="202"/>
+      <c r="BS18" s="202"/>
+      <c r="BT18" s="202"/>
+      <c r="BU18" s="202"/>
+      <c r="BV18" s="202"/>
+      <c r="BW18" s="202"/>
+      <c r="BX18" s="202"/>
+      <c r="BY18" s="202"/>
       <c r="CO18" s="66" t="s">
         <v>613</v>
       </c>
@@ -28128,29 +28126,29 @@
       <c r="CW18" s="60"/>
       <c r="CX18" s="60"/>
       <c r="CY18" s="60"/>
-      <c r="DB18" s="191"/>
-      <c r="DC18" s="191"/>
-      <c r="DD18" s="191"/>
-      <c r="DE18" s="191"/>
-      <c r="DF18" s="191"/>
-      <c r="DG18" s="191"/>
-      <c r="DH18" s="191"/>
-      <c r="DI18" s="191"/>
-      <c r="DJ18" s="191"/>
-      <c r="DK18" s="191"/>
-      <c r="DL18" s="191"/>
+      <c r="DB18" s="203"/>
+      <c r="DC18" s="203"/>
+      <c r="DD18" s="203"/>
+      <c r="DE18" s="203"/>
+      <c r="DF18" s="203"/>
+      <c r="DG18" s="203"/>
+      <c r="DH18" s="203"/>
+      <c r="DI18" s="203"/>
+      <c r="DJ18" s="203"/>
+      <c r="DK18" s="203"/>
+      <c r="DL18" s="203"/>
     </row>
     <row r="19" spans="2:116" ht="21.75" customHeight="1">
       <c r="B19" s="51"/>
       <c r="C19" s="45"/>
-      <c r="E19" s="197"/>
-      <c r="F19" s="197"/>
-      <c r="G19" s="197"/>
-      <c r="H19" s="197"/>
-      <c r="I19" s="197"/>
-      <c r="J19" s="197"/>
-      <c r="K19" s="197"/>
-      <c r="L19" s="197"/>
+      <c r="E19" s="196"/>
+      <c r="F19" s="196"/>
+      <c r="G19" s="196"/>
+      <c r="H19" s="196"/>
+      <c r="I19" s="196"/>
+      <c r="J19" s="196"/>
+      <c r="K19" s="196"/>
+      <c r="L19" s="196"/>
       <c r="O19" s="51"/>
       <c r="P19" s="45"/>
       <c r="AO19" s="51"/>
@@ -28172,29 +28170,29 @@
         <f ca="1">IF(Data!FW14="",Data!FX14,_xlfn.CONCAT(Data!FW14," | ",Data!FX14))</f>
         <v>Kitchen</v>
       </c>
-      <c r="BE19" s="189" t="str">
+      <c r="BE19" s="188" t="str">
         <f ca="1">Data!FY14</f>
         <v>Tile flooring, Blinds, Kitchen cupboards, Overhead cupboards and Aluminium framed windows</v>
       </c>
-      <c r="BF19" s="189"/>
-      <c r="BG19" s="189"/>
-      <c r="BH19" s="189"/>
-      <c r="BI19" s="189"/>
-      <c r="BJ19" s="189"/>
-      <c r="BK19" s="189"/>
-      <c r="BL19" s="189"/>
-      <c r="BM19" s="189"/>
-      <c r="BO19" s="190"/>
-      <c r="BP19" s="190"/>
-      <c r="BQ19" s="190"/>
-      <c r="BR19" s="190"/>
-      <c r="BS19" s="190"/>
-      <c r="BT19" s="190"/>
-      <c r="BU19" s="190"/>
-      <c r="BV19" s="190"/>
-      <c r="BW19" s="190"/>
-      <c r="BX19" s="190"/>
-      <c r="BY19" s="190"/>
+      <c r="BF19" s="188"/>
+      <c r="BG19" s="188"/>
+      <c r="BH19" s="188"/>
+      <c r="BI19" s="188"/>
+      <c r="BJ19" s="188"/>
+      <c r="BK19" s="188"/>
+      <c r="BL19" s="188"/>
+      <c r="BM19" s="188"/>
+      <c r="BO19" s="202"/>
+      <c r="BP19" s="202"/>
+      <c r="BQ19" s="202"/>
+      <c r="BR19" s="202"/>
+      <c r="BS19" s="202"/>
+      <c r="BT19" s="202"/>
+      <c r="BU19" s="202"/>
+      <c r="BV19" s="202"/>
+      <c r="BW19" s="202"/>
+      <c r="BX19" s="202"/>
+      <c r="BY19" s="202"/>
       <c r="CQ19" s="65"/>
       <c r="CR19" s="65"/>
       <c r="CS19" s="65"/>
@@ -28204,44 +28202,44 @@
       <c r="CW19" s="65"/>
       <c r="CX19" s="65"/>
       <c r="CY19" s="65"/>
-      <c r="DB19" s="191"/>
-      <c r="DC19" s="191"/>
-      <c r="DD19" s="191"/>
-      <c r="DE19" s="191"/>
-      <c r="DF19" s="191"/>
-      <c r="DG19" s="191"/>
-      <c r="DH19" s="191"/>
-      <c r="DI19" s="191"/>
-      <c r="DJ19" s="191"/>
-      <c r="DK19" s="191"/>
-      <c r="DL19" s="191"/>
+      <c r="DB19" s="203"/>
+      <c r="DC19" s="203"/>
+      <c r="DD19" s="203"/>
+      <c r="DE19" s="203"/>
+      <c r="DF19" s="203"/>
+      <c r="DG19" s="203"/>
+      <c r="DH19" s="203"/>
+      <c r="DI19" s="203"/>
+      <c r="DJ19" s="203"/>
+      <c r="DK19" s="203"/>
+      <c r="DL19" s="203"/>
     </row>
     <row r="20" spans="2:116" ht="21.75" customHeight="1">
       <c r="B20" s="51"/>
       <c r="C20" s="45"/>
-      <c r="E20" s="197"/>
-      <c r="F20" s="197"/>
-      <c r="G20" s="197"/>
-      <c r="H20" s="197"/>
-      <c r="I20" s="197"/>
-      <c r="J20" s="197"/>
-      <c r="K20" s="197"/>
-      <c r="L20" s="197"/>
+      <c r="E20" s="196"/>
+      <c r="F20" s="196"/>
+      <c r="G20" s="196"/>
+      <c r="H20" s="196"/>
+      <c r="I20" s="196"/>
+      <c r="J20" s="196"/>
+      <c r="K20" s="196"/>
+      <c r="L20" s="196"/>
       <c r="O20" s="51"/>
       <c r="P20" s="45"/>
       <c r="Q20" s="46" t="s">
         <v>614</v>
       </c>
-      <c r="R20" s="199" t="s">
+      <c r="R20" s="198" t="s">
         <v>615</v>
       </c>
-      <c r="S20" s="199"/>
-      <c r="T20" s="199"/>
-      <c r="U20" s="199"/>
-      <c r="V20" s="199"/>
-      <c r="W20" s="199"/>
-      <c r="X20" s="199"/>
-      <c r="Y20" s="199"/>
+      <c r="S20" s="198"/>
+      <c r="T20" s="198"/>
+      <c r="U20" s="198"/>
+      <c r="V20" s="198"/>
+      <c r="W20" s="198"/>
+      <c r="X20" s="198"/>
+      <c r="Y20" s="198"/>
       <c r="AO20" s="51"/>
       <c r="AP20" s="45"/>
       <c r="AQ20" s="46"/>
@@ -28258,28 +28256,28 @@
         <f ca="1">IF(Data!FW15="",Data!FX15,_xlfn.CONCAT(Data!FW15," | ",Data!FX15))</f>
         <v>Dining</v>
       </c>
-      <c r="BE20" s="189" t="str">
+      <c r="BE20" s="188" t="str">
         <f ca="1">Data!FY15</f>
         <v>Tile flooring, Blinds, Sliding door and Aluminium framed windows</v>
       </c>
-      <c r="BF20" s="189"/>
-      <c r="BG20" s="189"/>
-      <c r="BH20" s="189"/>
-      <c r="BI20" s="189"/>
-      <c r="BJ20" s="189"/>
-      <c r="BK20" s="189"/>
-      <c r="BL20" s="189"/>
-      <c r="BO20" s="190"/>
-      <c r="BP20" s="190"/>
-      <c r="BQ20" s="190"/>
-      <c r="BR20" s="190"/>
-      <c r="BS20" s="190"/>
-      <c r="BT20" s="190"/>
-      <c r="BU20" s="190"/>
-      <c r="BV20" s="190"/>
-      <c r="BW20" s="190"/>
-      <c r="BX20" s="190"/>
-      <c r="BY20" s="190"/>
+      <c r="BF20" s="188"/>
+      <c r="BG20" s="188"/>
+      <c r="BH20" s="188"/>
+      <c r="BI20" s="188"/>
+      <c r="BJ20" s="188"/>
+      <c r="BK20" s="188"/>
+      <c r="BL20" s="188"/>
+      <c r="BO20" s="202"/>
+      <c r="BP20" s="202"/>
+      <c r="BQ20" s="202"/>
+      <c r="BR20" s="202"/>
+      <c r="BS20" s="202"/>
+      <c r="BT20" s="202"/>
+      <c r="BU20" s="202"/>
+      <c r="BV20" s="202"/>
+      <c r="BW20" s="202"/>
+      <c r="BX20" s="202"/>
+      <c r="BY20" s="202"/>
       <c r="CO20" s="55"/>
       <c r="CP20" s="68" t="s">
         <v>248</v>
@@ -28288,75 +28286,75 @@
         <f>TEXT(Fillout!B182,"$#,##0.00")</f>
         <v>$600,000.00</v>
       </c>
-      <c r="DB20" s="191"/>
-      <c r="DC20" s="191"/>
-      <c r="DD20" s="191"/>
-      <c r="DE20" s="191"/>
-      <c r="DF20" s="191"/>
-      <c r="DG20" s="191"/>
-      <c r="DH20" s="191"/>
-      <c r="DI20" s="191"/>
-      <c r="DJ20" s="191"/>
-      <c r="DK20" s="191"/>
-      <c r="DL20" s="191"/>
+      <c r="DB20" s="203"/>
+      <c r="DC20" s="203"/>
+      <c r="DD20" s="203"/>
+      <c r="DE20" s="203"/>
+      <c r="DF20" s="203"/>
+      <c r="DG20" s="203"/>
+      <c r="DH20" s="203"/>
+      <c r="DI20" s="203"/>
+      <c r="DJ20" s="203"/>
+      <c r="DK20" s="203"/>
+      <c r="DL20" s="203"/>
     </row>
     <row r="21" spans="2:116" ht="21.75" customHeight="1">
       <c r="B21" s="51"/>
       <c r="C21" s="45"/>
       <c r="D21" s="134"/>
-      <c r="E21" s="197"/>
-      <c r="F21" s="197"/>
-      <c r="G21" s="197"/>
-      <c r="H21" s="197"/>
-      <c r="I21" s="197"/>
-      <c r="J21" s="197"/>
-      <c r="K21" s="197"/>
-      <c r="L21" s="197"/>
+      <c r="E21" s="196"/>
+      <c r="F21" s="196"/>
+      <c r="G21" s="196"/>
+      <c r="H21" s="196"/>
+      <c r="I21" s="196"/>
+      <c r="J21" s="196"/>
+      <c r="K21" s="196"/>
+      <c r="L21" s="196"/>
       <c r="O21" s="51"/>
       <c r="P21" s="45"/>
       <c r="Q21" s="46"/>
-      <c r="R21" s="199"/>
-      <c r="S21" s="199"/>
-      <c r="T21" s="199"/>
-      <c r="U21" s="199"/>
-      <c r="V21" s="199"/>
-      <c r="W21" s="199"/>
-      <c r="X21" s="199"/>
-      <c r="Y21" s="199"/>
+      <c r="R21" s="198"/>
+      <c r="S21" s="198"/>
+      <c r="T21" s="198"/>
+      <c r="U21" s="198"/>
+      <c r="V21" s="198"/>
+      <c r="W21" s="198"/>
+      <c r="X21" s="198"/>
+      <c r="Y21" s="198"/>
       <c r="AD21" s="97" t="str">
         <f>_xlfn.CONCAT("Source: Bing Map")</f>
         <v>Source: Bing Map</v>
       </c>
-      <c r="AO21" s="147" t="s">
+      <c r="AO21" s="141" t="s">
         <v>616</v>
       </c>
-      <c r="AP21" s="147"/>
-      <c r="AQ21" s="147"/>
-      <c r="AR21" s="147"/>
-      <c r="AS21" s="147"/>
-      <c r="AT21" s="147"/>
-      <c r="AU21" s="147"/>
-      <c r="AV21" s="147"/>
-      <c r="AW21" s="147"/>
-      <c r="AX21" s="147"/>
-      <c r="AY21" s="147"/>
+      <c r="AP21" s="141"/>
+      <c r="AQ21" s="141"/>
+      <c r="AR21" s="141"/>
+      <c r="AS21" s="141"/>
+      <c r="AT21" s="141"/>
+      <c r="AU21" s="141"/>
+      <c r="AV21" s="141"/>
+      <c r="AW21" s="141"/>
+      <c r="AX21" s="141"/>
+      <c r="AY21" s="141"/>
       <c r="BC21" s="63"/>
       <c r="BD21" s="114" t="str">
         <f ca="1">IF(Data!FW16="",Data!FX16,_xlfn.CONCAT(Data!FW16," | ",Data!FX16))</f>
         <v>Lounge</v>
       </c>
-      <c r="BE21" s="189" t="str">
+      <c r="BE21" s="188" t="str">
         <f ca="1">Data!FY16</f>
         <v>Tile flooring, Blinds and Aluminium framed windows</v>
       </c>
-      <c r="BF21" s="189"/>
-      <c r="BG21" s="189"/>
-      <c r="BH21" s="189"/>
-      <c r="BI21" s="189"/>
-      <c r="BJ21" s="189"/>
-      <c r="BK21" s="189"/>
-      <c r="BL21" s="189"/>
-      <c r="BM21" s="189"/>
+      <c r="BF21" s="188"/>
+      <c r="BG21" s="188"/>
+      <c r="BH21" s="188"/>
+      <c r="BI21" s="188"/>
+      <c r="BJ21" s="188"/>
+      <c r="BK21" s="188"/>
+      <c r="BL21" s="188"/>
+      <c r="BM21" s="188"/>
       <c r="CO21" s="68"/>
       <c r="CP21" s="68" t="s">
         <v>249</v>
@@ -28365,30 +28363,30 @@
         <f>TEXT(Fillout!B183,"$#,##0.00")</f>
         <v>$200,000.00</v>
       </c>
-      <c r="DB21" s="191"/>
-      <c r="DC21" s="191"/>
-      <c r="DD21" s="191"/>
-      <c r="DE21" s="191"/>
-      <c r="DF21" s="191"/>
-      <c r="DG21" s="191"/>
-      <c r="DH21" s="191"/>
-      <c r="DI21" s="191"/>
-      <c r="DJ21" s="191"/>
-      <c r="DK21" s="191"/>
-      <c r="DL21" s="191"/>
+      <c r="DB21" s="203"/>
+      <c r="DC21" s="203"/>
+      <c r="DD21" s="203"/>
+      <c r="DE21" s="203"/>
+      <c r="DF21" s="203"/>
+      <c r="DG21" s="203"/>
+      <c r="DH21" s="203"/>
+      <c r="DI21" s="203"/>
+      <c r="DJ21" s="203"/>
+      <c r="DK21" s="203"/>
+      <c r="DL21" s="203"/>
     </row>
     <row r="22" spans="2:116" ht="21.75" customHeight="1">
       <c r="B22" s="51"/>
       <c r="C22" s="45"/>
       <c r="D22" s="134"/>
-      <c r="E22" s="197"/>
-      <c r="F22" s="197"/>
-      <c r="G22" s="197"/>
-      <c r="H22" s="197"/>
-      <c r="I22" s="197"/>
-      <c r="J22" s="197"/>
-      <c r="K22" s="197"/>
-      <c r="L22" s="197"/>
+      <c r="E22" s="196"/>
+      <c r="F22" s="196"/>
+      <c r="G22" s="196"/>
+      <c r="H22" s="196"/>
+      <c r="I22" s="196"/>
+      <c r="J22" s="196"/>
+      <c r="K22" s="196"/>
+      <c r="L22" s="196"/>
       <c r="O22" s="51"/>
       <c r="P22" s="45"/>
       <c r="Q22" s="46"/>
@@ -28407,47 +28405,47 @@
         <f>IF(Fillout!B58,"Electricity, town water, sewerage, gas and telephone services are all connected","Electricity, town water, sewerage and telephone services are all connected")</f>
         <v>Electricity, town water, sewerage, gas and telephone services are all connected</v>
       </c>
-      <c r="AO22" s="147"/>
-      <c r="AP22" s="147"/>
-      <c r="AQ22" s="147"/>
-      <c r="AR22" s="147"/>
-      <c r="AS22" s="147"/>
-      <c r="AT22" s="147"/>
-      <c r="AU22" s="147"/>
-      <c r="AV22" s="147"/>
-      <c r="AW22" s="147"/>
-      <c r="AX22" s="147"/>
-      <c r="AY22" s="147"/>
+      <c r="AO22" s="141"/>
+      <c r="AP22" s="141"/>
+      <c r="AQ22" s="141"/>
+      <c r="AR22" s="141"/>
+      <c r="AS22" s="141"/>
+      <c r="AT22" s="141"/>
+      <c r="AU22" s="141"/>
+      <c r="AV22" s="141"/>
+      <c r="AW22" s="141"/>
+      <c r="AX22" s="141"/>
+      <c r="AY22" s="141"/>
       <c r="BC22" s="63"/>
       <c r="BD22" s="114" t="str">
         <f ca="1">IF(Data!FW17="",Data!FX17,_xlfn.CONCAT(Data!FW17," | ",Data!FX17))</f>
         <v>Laundry</v>
       </c>
-      <c r="BE22" s="189" t="str">
+      <c r="BE22" s="188" t="str">
         <f ca="1">Data!FY17</f>
         <v>Tile flooring and Aluminium framed windows</v>
       </c>
-      <c r="BF22" s="189"/>
-      <c r="BG22" s="189"/>
-      <c r="BH22" s="189"/>
-      <c r="BI22" s="189"/>
-      <c r="BJ22" s="189"/>
-      <c r="BK22" s="189"/>
-      <c r="BL22" s="189"/>
-      <c r="BM22" s="189"/>
-      <c r="BO22" s="147" t="s">
+      <c r="BF22" s="188"/>
+      <c r="BG22" s="188"/>
+      <c r="BH22" s="188"/>
+      <c r="BI22" s="188"/>
+      <c r="BJ22" s="188"/>
+      <c r="BK22" s="188"/>
+      <c r="BL22" s="188"/>
+      <c r="BM22" s="188"/>
+      <c r="BO22" s="141" t="s">
         <v>617</v>
       </c>
-      <c r="BP22" s="147"/>
-      <c r="BQ22" s="147"/>
-      <c r="BR22" s="147"/>
-      <c r="BS22" s="147"/>
-      <c r="BT22" s="147"/>
-      <c r="BU22" s="147"/>
-      <c r="BV22" s="147"/>
-      <c r="BW22" s="147"/>
-      <c r="BX22" s="147"/>
-      <c r="BY22" s="147"/>
+      <c r="BP22" s="141"/>
+      <c r="BQ22" s="141"/>
+      <c r="BR22" s="141"/>
+      <c r="BS22" s="141"/>
+      <c r="BT22" s="141"/>
+      <c r="BU22" s="141"/>
+      <c r="BV22" s="141"/>
+      <c r="BW22" s="141"/>
+      <c r="BX22" s="141"/>
+      <c r="BY22" s="141"/>
       <c r="CO22" s="55"/>
       <c r="CP22" s="68" t="s">
         <v>250</v>
@@ -28456,44 +28454,44 @@
         <f>TEXT(Fillout!B184,"$#,##0.00")</f>
         <v>$800,000.00</v>
       </c>
-      <c r="DB22" s="191"/>
-      <c r="DC22" s="191"/>
-      <c r="DD22" s="191"/>
-      <c r="DE22" s="191"/>
-      <c r="DF22" s="191"/>
-      <c r="DG22" s="191"/>
-      <c r="DH22" s="191"/>
-      <c r="DI22" s="191"/>
-      <c r="DJ22" s="191"/>
-      <c r="DK22" s="191"/>
-      <c r="DL22" s="191"/>
+      <c r="DB22" s="203"/>
+      <c r="DC22" s="203"/>
+      <c r="DD22" s="203"/>
+      <c r="DE22" s="203"/>
+      <c r="DF22" s="203"/>
+      <c r="DG22" s="203"/>
+      <c r="DH22" s="203"/>
+      <c r="DI22" s="203"/>
+      <c r="DJ22" s="203"/>
+      <c r="DK22" s="203"/>
+      <c r="DL22" s="203"/>
     </row>
     <row r="23" spans="2:116" ht="21.75" customHeight="1">
       <c r="B23" s="51"/>
       <c r="C23" s="45"/>
-      <c r="E23" s="197"/>
-      <c r="F23" s="197"/>
-      <c r="G23" s="197"/>
-      <c r="H23" s="197"/>
-      <c r="I23" s="197"/>
-      <c r="J23" s="197"/>
-      <c r="K23" s="197"/>
-      <c r="L23" s="197"/>
+      <c r="E23" s="196"/>
+      <c r="F23" s="196"/>
+      <c r="G23" s="196"/>
+      <c r="H23" s="196"/>
+      <c r="I23" s="196"/>
+      <c r="J23" s="196"/>
+      <c r="K23" s="196"/>
+      <c r="L23" s="196"/>
       <c r="O23" s="51"/>
       <c r="P23" s="45"/>
       <c r="Q23" s="56" t="s">
         <v>618</v>
       </c>
-      <c r="R23" s="200" t="s">
+      <c r="R23" s="193" t="s">
         <v>619</v>
       </c>
-      <c r="S23" s="200"/>
-      <c r="T23" s="200"/>
-      <c r="U23" s="200"/>
-      <c r="V23" s="200"/>
-      <c r="W23" s="200"/>
-      <c r="X23" s="200"/>
-      <c r="Y23" s="200"/>
+      <c r="S23" s="193"/>
+      <c r="T23" s="193"/>
+      <c r="U23" s="193"/>
+      <c r="V23" s="193"/>
+      <c r="W23" s="193"/>
+      <c r="X23" s="193"/>
+      <c r="Y23" s="193"/>
       <c r="AQ23" s="56"/>
       <c r="AR23" s="60"/>
       <c r="AS23" s="60"/>
@@ -28508,28 +28506,28 @@
         <f ca="1">IF(Data!FW18="",Data!FX18,_xlfn.CONCAT(Data!FW18," | ",Data!FX18))</f>
         <v/>
       </c>
-      <c r="BE23" s="189" t="str">
+      <c r="BE23" s="188" t="str">
         <f ca="1">Data!FY18</f>
         <v/>
       </c>
-      <c r="BF23" s="189"/>
-      <c r="BG23" s="189"/>
-      <c r="BH23" s="189"/>
-      <c r="BI23" s="189"/>
-      <c r="BJ23" s="189"/>
-      <c r="BK23" s="189"/>
-      <c r="BL23" s="189"/>
-      <c r="BO23" s="147"/>
-      <c r="BP23" s="147"/>
-      <c r="BQ23" s="147"/>
-      <c r="BR23" s="147"/>
-      <c r="BS23" s="147"/>
-      <c r="BT23" s="147"/>
-      <c r="BU23" s="147"/>
-      <c r="BV23" s="147"/>
-      <c r="BW23" s="147"/>
-      <c r="BX23" s="147"/>
-      <c r="BY23" s="147"/>
+      <c r="BF23" s="188"/>
+      <c r="BG23" s="188"/>
+      <c r="BH23" s="188"/>
+      <c r="BI23" s="188"/>
+      <c r="BJ23" s="188"/>
+      <c r="BK23" s="188"/>
+      <c r="BL23" s="188"/>
+      <c r="BO23" s="141"/>
+      <c r="BP23" s="141"/>
+      <c r="BQ23" s="141"/>
+      <c r="BR23" s="141"/>
+      <c r="BS23" s="141"/>
+      <c r="BT23" s="141"/>
+      <c r="BU23" s="141"/>
+      <c r="BV23" s="141"/>
+      <c r="BW23" s="141"/>
+      <c r="BX23" s="141"/>
+      <c r="BY23" s="141"/>
       <c r="CO23" s="55"/>
       <c r="CP23" s="68" t="s">
         <v>593</v>
@@ -28537,51 +28535,51 @@
       <c r="CQ23" s="69" t="s">
         <v>620</v>
       </c>
-      <c r="DB23" s="191"/>
-      <c r="DC23" s="191"/>
-      <c r="DD23" s="191"/>
-      <c r="DE23" s="191"/>
-      <c r="DF23" s="191"/>
-      <c r="DG23" s="191"/>
-      <c r="DH23" s="191"/>
-      <c r="DI23" s="191"/>
-      <c r="DJ23" s="191"/>
-      <c r="DK23" s="191"/>
-      <c r="DL23" s="191"/>
+      <c r="DB23" s="203"/>
+      <c r="DC23" s="203"/>
+      <c r="DD23" s="203"/>
+      <c r="DE23" s="203"/>
+      <c r="DF23" s="203"/>
+      <c r="DG23" s="203"/>
+      <c r="DH23" s="203"/>
+      <c r="DI23" s="203"/>
+      <c r="DJ23" s="203"/>
+      <c r="DK23" s="203"/>
+      <c r="DL23" s="203"/>
     </row>
     <row r="24" spans="2:116" ht="21.75" customHeight="1">
-      <c r="E24" s="197"/>
-      <c r="F24" s="197"/>
-      <c r="G24" s="197"/>
-      <c r="H24" s="197"/>
-      <c r="I24" s="197"/>
-      <c r="J24" s="197"/>
-      <c r="K24" s="197"/>
-      <c r="L24" s="197"/>
+      <c r="E24" s="196"/>
+      <c r="F24" s="196"/>
+      <c r="G24" s="196"/>
+      <c r="H24" s="196"/>
+      <c r="I24" s="196"/>
+      <c r="J24" s="196"/>
+      <c r="K24" s="196"/>
+      <c r="L24" s="196"/>
       <c r="O24" s="51"/>
       <c r="P24" s="45"/>
       <c r="Q24" s="56"/>
-      <c r="R24" s="200"/>
-      <c r="S24" s="200"/>
-      <c r="T24" s="200"/>
-      <c r="U24" s="200"/>
-      <c r="V24" s="200"/>
-      <c r="W24" s="200"/>
-      <c r="X24" s="200"/>
-      <c r="Y24" s="200"/>
-      <c r="AB24" s="147" t="s">
+      <c r="R24" s="193"/>
+      <c r="S24" s="193"/>
+      <c r="T24" s="193"/>
+      <c r="U24" s="193"/>
+      <c r="V24" s="193"/>
+      <c r="W24" s="193"/>
+      <c r="X24" s="193"/>
+      <c r="Y24" s="193"/>
+      <c r="AB24" s="141" t="s">
         <v>621</v>
       </c>
-      <c r="AC24" s="147"/>
-      <c r="AD24" s="147"/>
-      <c r="AE24" s="147"/>
-      <c r="AF24" s="147"/>
-      <c r="AG24" s="147"/>
-      <c r="AH24" s="147"/>
-      <c r="AI24" s="147"/>
-      <c r="AJ24" s="147"/>
-      <c r="AK24" s="147"/>
-      <c r="AL24" s="147"/>
+      <c r="AC24" s="141"/>
+      <c r="AD24" s="141"/>
+      <c r="AE24" s="141"/>
+      <c r="AF24" s="141"/>
+      <c r="AG24" s="141"/>
+      <c r="AH24" s="141"/>
+      <c r="AI24" s="141"/>
+      <c r="AJ24" s="141"/>
+      <c r="AK24" s="141"/>
+      <c r="AL24" s="141"/>
       <c r="AO24" s="61" t="s">
         <v>622</v>
       </c>
@@ -28599,28 +28597,28 @@
         <f ca="1">IF(Data!FW19="",Data!FX19,_xlfn.CONCAT(Data!FW19," | ",Data!FX19))</f>
         <v/>
       </c>
-      <c r="BE24" s="189" t="str">
+      <c r="BE24" s="188" t="str">
         <f ca="1">Data!FY19</f>
         <v/>
       </c>
-      <c r="BF24" s="189"/>
-      <c r="BG24" s="189"/>
-      <c r="BH24" s="189"/>
-      <c r="BI24" s="189"/>
-      <c r="BJ24" s="189"/>
-      <c r="BK24" s="189"/>
-      <c r="BL24" s="189"/>
-      <c r="DB24" s="191"/>
-      <c r="DC24" s="191"/>
-      <c r="DD24" s="191"/>
-      <c r="DE24" s="191"/>
-      <c r="DF24" s="191"/>
-      <c r="DG24" s="191"/>
-      <c r="DH24" s="191"/>
-      <c r="DI24" s="191"/>
-      <c r="DJ24" s="191"/>
-      <c r="DK24" s="191"/>
-      <c r="DL24" s="191"/>
+      <c r="BF24" s="188"/>
+      <c r="BG24" s="188"/>
+      <c r="BH24" s="188"/>
+      <c r="BI24" s="188"/>
+      <c r="BJ24" s="188"/>
+      <c r="BK24" s="188"/>
+      <c r="BL24" s="188"/>
+      <c r="DB24" s="203"/>
+      <c r="DC24" s="203"/>
+      <c r="DD24" s="203"/>
+      <c r="DE24" s="203"/>
+      <c r="DF24" s="203"/>
+      <c r="DG24" s="203"/>
+      <c r="DH24" s="203"/>
+      <c r="DI24" s="203"/>
+      <c r="DJ24" s="203"/>
+      <c r="DK24" s="203"/>
+      <c r="DL24" s="203"/>
     </row>
     <row r="25" spans="2:116" ht="21.75" customHeight="1">
       <c r="B25" s="51"/>
@@ -28643,29 +28641,29 @@
       <c r="Q25" s="56" t="s">
         <v>623</v>
       </c>
-      <c r="R25" s="200" t="s">
+      <c r="R25" s="193" t="s">
         <v>661</v>
       </c>
-      <c r="S25" s="200"/>
-      <c r="T25" s="200"/>
-      <c r="U25" s="200"/>
-      <c r="V25" s="200"/>
-      <c r="W25" s="200"/>
-      <c r="X25" s="200"/>
-      <c r="Y25" s="200"/>
+      <c r="S25" s="193"/>
+      <c r="T25" s="193"/>
+      <c r="U25" s="193"/>
+      <c r="V25" s="193"/>
+      <c r="W25" s="193"/>
+      <c r="X25" s="193"/>
+      <c r="Y25" s="193"/>
       <c r="Z25" s="51"/>
       <c r="AA25" s="45"/>
-      <c r="AB25" s="147"/>
-      <c r="AC25" s="147"/>
-      <c r="AD25" s="147"/>
-      <c r="AE25" s="147"/>
-      <c r="AF25" s="147"/>
-      <c r="AG25" s="147"/>
-      <c r="AH25" s="147"/>
-      <c r="AI25" s="147"/>
-      <c r="AJ25" s="147"/>
-      <c r="AK25" s="147"/>
-      <c r="AL25" s="147"/>
+      <c r="AB25" s="141"/>
+      <c r="AC25" s="141"/>
+      <c r="AD25" s="141"/>
+      <c r="AE25" s="141"/>
+      <c r="AF25" s="141"/>
+      <c r="AG25" s="141"/>
+      <c r="AH25" s="141"/>
+      <c r="AI25" s="141"/>
+      <c r="AJ25" s="141"/>
+      <c r="AK25" s="141"/>
+      <c r="AL25" s="141"/>
       <c r="AO25" s="44"/>
       <c r="AQ25" s="56"/>
       <c r="AR25" s="60"/>
@@ -28681,17 +28679,17 @@
         <f ca="1">IF(Data!FW20="",Data!FX20,_xlfn.CONCAT(Data!FW20," | ",Data!FX20))</f>
         <v/>
       </c>
-      <c r="BE25" s="189" t="str">
+      <c r="BE25" s="188" t="str">
         <f ca="1">Data!FY20</f>
         <v/>
       </c>
-      <c r="BF25" s="189"/>
-      <c r="BG25" s="189"/>
-      <c r="BH25" s="189"/>
-      <c r="BI25" s="189"/>
-      <c r="BJ25" s="189"/>
-      <c r="BK25" s="189"/>
-      <c r="BL25" s="189"/>
+      <c r="BF25" s="188"/>
+      <c r="BG25" s="188"/>
+      <c r="BH25" s="188"/>
+      <c r="BI25" s="188"/>
+      <c r="BJ25" s="188"/>
+      <c r="BK25" s="188"/>
+      <c r="BL25" s="188"/>
       <c r="BO25" s="55" t="s">
         <v>624</v>
       </c>
@@ -28704,17 +28702,17 @@
       <c r="CU25" s="74"/>
       <c r="CV25" s="74"/>
       <c r="CW25" s="74"/>
-      <c r="DB25" s="191"/>
-      <c r="DC25" s="191"/>
-      <c r="DD25" s="191"/>
-      <c r="DE25" s="191"/>
-      <c r="DF25" s="191"/>
-      <c r="DG25" s="191"/>
-      <c r="DH25" s="191"/>
-      <c r="DI25" s="191"/>
-      <c r="DJ25" s="191"/>
-      <c r="DK25" s="191"/>
-      <c r="DL25" s="191"/>
+      <c r="DB25" s="203"/>
+      <c r="DC25" s="203"/>
+      <c r="DD25" s="203"/>
+      <c r="DE25" s="203"/>
+      <c r="DF25" s="203"/>
+      <c r="DG25" s="203"/>
+      <c r="DH25" s="203"/>
+      <c r="DI25" s="203"/>
+      <c r="DJ25" s="203"/>
+      <c r="DK25" s="203"/>
+      <c r="DL25" s="203"/>
     </row>
     <row r="26" spans="2:116" ht="21.75" customHeight="1">
       <c r="B26" s="51"/>
@@ -28732,14 +28730,14 @@
       <c r="K26" s="54"/>
       <c r="L26" s="54"/>
       <c r="Q26" s="56"/>
-      <c r="R26" s="200"/>
-      <c r="S26" s="200"/>
-      <c r="T26" s="200"/>
-      <c r="U26" s="200"/>
-      <c r="V26" s="200"/>
-      <c r="W26" s="200"/>
-      <c r="X26" s="200"/>
-      <c r="Y26" s="200"/>
+      <c r="R26" s="193"/>
+      <c r="S26" s="193"/>
+      <c r="T26" s="193"/>
+      <c r="U26" s="193"/>
+      <c r="V26" s="193"/>
+      <c r="W26" s="193"/>
+      <c r="X26" s="193"/>
+      <c r="Y26" s="193"/>
       <c r="AH26"/>
       <c r="AQ26" s="71" t="s">
         <v>187</v>
@@ -28760,33 +28758,33 @@
         <f ca="1">IF(Data!FW21="",Data!FX21,_xlfn.CONCAT(Data!FW21," | ",Data!FX21))</f>
         <v/>
       </c>
-      <c r="BE26" s="189" t="str">
+      <c r="BE26" s="188" t="str">
         <f ca="1">Data!FY21</f>
         <v/>
       </c>
-      <c r="BF26" s="189"/>
-      <c r="BG26" s="189"/>
-      <c r="BH26" s="189"/>
-      <c r="BI26" s="189"/>
-      <c r="BJ26" s="189"/>
-      <c r="BK26" s="189"/>
-      <c r="BL26" s="189"/>
-      <c r="BO26" s="190" t="str">
+      <c r="BF26" s="188"/>
+      <c r="BG26" s="188"/>
+      <c r="BH26" s="188"/>
+      <c r="BI26" s="188"/>
+      <c r="BJ26" s="188"/>
+      <c r="BK26" s="188"/>
+      <c r="BL26" s="188"/>
+      <c r="BO26" s="202" t="str">
         <f ca="1">Fillout!B143 &amp; "
 " &amp;Fillout!B144</f>
         <v>Cartwright in NSW belongs to the LGA of the City of Liverpool. The past 12-months growth for median house prices is -2.7%. The current median house price is sitting at $825,000. Property median time on the market 50 days and 16 sold in the past 12 months. The average weekly rental is $560 based on the current median house price, with a gross rental yield of 3.4%.
 The property consists of 3 bedrooms, 1 bathroom, single garage, with kitchen, dining, lounge and laundry. The subject property has a land area of 562 sqm and an internal area of 110 sqm approximately. The property features items such as hot water system. The building condition and the location are both good if holding onto the property over the long term. This has been considered in the assessment of market value of the subject property.</v>
       </c>
-      <c r="BP26" s="190"/>
-      <c r="BQ26" s="190"/>
-      <c r="BR26" s="190"/>
-      <c r="BS26" s="190"/>
-      <c r="BT26" s="190"/>
-      <c r="BU26" s="190"/>
-      <c r="BV26" s="190"/>
-      <c r="BW26" s="190"/>
-      <c r="BX26" s="190"/>
-      <c r="BY26" s="190"/>
+      <c r="BP26" s="202"/>
+      <c r="BQ26" s="202"/>
+      <c r="BR26" s="202"/>
+      <c r="BS26" s="202"/>
+      <c r="BT26" s="202"/>
+      <c r="BU26" s="202"/>
+      <c r="BV26" s="202"/>
+      <c r="BW26" s="202"/>
+      <c r="BX26" s="202"/>
+      <c r="BY26" s="202"/>
       <c r="CO26" s="136"/>
       <c r="CP26" s="136"/>
       <c r="CQ26" s="136"/>
@@ -28798,17 +28796,17 @@
       <c r="CW26" s="136"/>
       <c r="CX26" s="136"/>
       <c r="CY26" s="136"/>
-      <c r="DB26" s="191"/>
-      <c r="DC26" s="191"/>
-      <c r="DD26" s="191"/>
-      <c r="DE26" s="191"/>
-      <c r="DF26" s="191"/>
-      <c r="DG26" s="191"/>
-      <c r="DH26" s="191"/>
-      <c r="DI26" s="191"/>
-      <c r="DJ26" s="191"/>
-      <c r="DK26" s="191"/>
-      <c r="DL26" s="191"/>
+      <c r="DB26" s="203"/>
+      <c r="DC26" s="203"/>
+      <c r="DD26" s="203"/>
+      <c r="DE26" s="203"/>
+      <c r="DF26" s="203"/>
+      <c r="DG26" s="203"/>
+      <c r="DH26" s="203"/>
+      <c r="DI26" s="203"/>
+      <c r="DJ26" s="203"/>
+      <c r="DK26" s="203"/>
+      <c r="DL26" s="203"/>
     </row>
     <row r="27" spans="2:116" ht="21.75" customHeight="1">
       <c r="D27" s="46" t="s">
@@ -28825,14 +28823,14 @@
       <c r="K27" s="53"/>
       <c r="L27" s="53"/>
       <c r="Q27" s="56"/>
-      <c r="R27" s="200"/>
-      <c r="S27" s="200"/>
-      <c r="T27" s="200"/>
-      <c r="U27" s="200"/>
-      <c r="V27" s="200"/>
-      <c r="W27" s="200"/>
-      <c r="X27" s="200"/>
-      <c r="Y27" s="200"/>
+      <c r="R27" s="193"/>
+      <c r="S27" s="193"/>
+      <c r="T27" s="193"/>
+      <c r="U27" s="193"/>
+      <c r="V27" s="193"/>
+      <c r="W27" s="193"/>
+      <c r="X27" s="193"/>
+      <c r="Y27" s="193"/>
       <c r="AD27" s="71" t="s">
         <v>629</v>
       </c>
@@ -28859,28 +28857,28 @@
         <f ca="1">IF(Data!FW22="",Data!FX22,_xlfn.CONCAT(Data!FW22," | ",Data!FX22))</f>
         <v/>
       </c>
-      <c r="BE27" s="189" t="str">
+      <c r="BE27" s="188" t="str">
         <f ca="1">Data!FY22</f>
         <v/>
       </c>
-      <c r="BF27" s="189"/>
-      <c r="BG27" s="189"/>
-      <c r="BH27" s="189"/>
-      <c r="BI27" s="189"/>
-      <c r="BJ27" s="189"/>
-      <c r="BK27" s="189"/>
-      <c r="BL27" s="189"/>
-      <c r="BO27" s="190"/>
-      <c r="BP27" s="190"/>
-      <c r="BQ27" s="190"/>
-      <c r="BR27" s="190"/>
-      <c r="BS27" s="190"/>
-      <c r="BT27" s="190"/>
-      <c r="BU27" s="190"/>
-      <c r="BV27" s="190"/>
-      <c r="BW27" s="190"/>
-      <c r="BX27" s="190"/>
-      <c r="BY27" s="190"/>
+      <c r="BF27" s="188"/>
+      <c r="BG27" s="188"/>
+      <c r="BH27" s="188"/>
+      <c r="BI27" s="188"/>
+      <c r="BJ27" s="188"/>
+      <c r="BK27" s="188"/>
+      <c r="BL27" s="188"/>
+      <c r="BO27" s="202"/>
+      <c r="BP27" s="202"/>
+      <c r="BQ27" s="202"/>
+      <c r="BR27" s="202"/>
+      <c r="BS27" s="202"/>
+      <c r="BT27" s="202"/>
+      <c r="BU27" s="202"/>
+      <c r="BV27" s="202"/>
+      <c r="BW27" s="202"/>
+      <c r="BX27" s="202"/>
+      <c r="BY27" s="202"/>
       <c r="CO27" s="77" t="str">
         <f>IF(Data!C5=FALSE,"We certify the following subject property: ",_xlfn.CONCAT("We certify that the following property has been done by myself on the ",TEXT(Fillout!B22,"dd mmmm yyyy"),":"))</f>
         <v xml:space="preserve">We certify the following subject property: </v>
@@ -28894,17 +28892,17 @@
       <c r="CW27" s="60"/>
       <c r="CX27" s="136"/>
       <c r="CY27" s="136"/>
-      <c r="DB27" s="191"/>
-      <c r="DC27" s="191"/>
-      <c r="DD27" s="191"/>
-      <c r="DE27" s="191"/>
-      <c r="DF27" s="191"/>
-      <c r="DG27" s="191"/>
-      <c r="DH27" s="191"/>
-      <c r="DI27" s="191"/>
-      <c r="DJ27" s="191"/>
-      <c r="DK27" s="191"/>
-      <c r="DL27" s="191"/>
+      <c r="DB27" s="203"/>
+      <c r="DC27" s="203"/>
+      <c r="DD27" s="203"/>
+      <c r="DE27" s="203"/>
+      <c r="DF27" s="203"/>
+      <c r="DG27" s="203"/>
+      <c r="DH27" s="203"/>
+      <c r="DI27" s="203"/>
+      <c r="DJ27" s="203"/>
+      <c r="DK27" s="203"/>
+      <c r="DL27" s="203"/>
     </row>
     <row r="28" spans="2:116" ht="21.75" customHeight="1">
       <c r="D28" s="46" t="s">
@@ -28921,14 +28919,14 @@
       <c r="K28" s="55"/>
       <c r="L28" s="55"/>
       <c r="Q28" s="56"/>
-      <c r="R28" s="200"/>
-      <c r="S28" s="200"/>
-      <c r="T28" s="200"/>
-      <c r="U28" s="200"/>
-      <c r="V28" s="200"/>
-      <c r="W28" s="200"/>
-      <c r="X28" s="200"/>
-      <c r="Y28" s="200"/>
+      <c r="R28" s="193"/>
+      <c r="S28" s="193"/>
+      <c r="T28" s="193"/>
+      <c r="U28" s="193"/>
+      <c r="V28" s="193"/>
+      <c r="W28" s="193"/>
+      <c r="X28" s="193"/>
+      <c r="Y28" s="193"/>
       <c r="AD28" s="71" t="s">
         <v>156</v>
       </c>
@@ -28962,45 +28960,45 @@
         <f ca="1">IF(Data!FW23="",Data!FX23,_xlfn.CONCAT(Data!FW23," | ",Data!FX23))</f>
         <v/>
       </c>
-      <c r="BE28" s="189" t="str">
+      <c r="BE28" s="188" t="str">
         <f ca="1">Data!FY23</f>
         <v/>
       </c>
-      <c r="BF28" s="189"/>
-      <c r="BG28" s="189"/>
-      <c r="BH28" s="189"/>
-      <c r="BI28" s="189"/>
-      <c r="BJ28" s="189"/>
-      <c r="BK28" s="189"/>
-      <c r="BL28" s="189"/>
-      <c r="BO28" s="190"/>
-      <c r="BP28" s="190"/>
-      <c r="BQ28" s="190"/>
-      <c r="BR28" s="190"/>
-      <c r="BS28" s="190"/>
-      <c r="BT28" s="190"/>
-      <c r="BU28" s="190"/>
-      <c r="BV28" s="190"/>
-      <c r="BW28" s="190"/>
-      <c r="BX28" s="190"/>
-      <c r="BY28" s="190"/>
+      <c r="BF28" s="188"/>
+      <c r="BG28" s="188"/>
+      <c r="BH28" s="188"/>
+      <c r="BI28" s="188"/>
+      <c r="BJ28" s="188"/>
+      <c r="BK28" s="188"/>
+      <c r="BL28" s="188"/>
+      <c r="BO28" s="202"/>
+      <c r="BP28" s="202"/>
+      <c r="BQ28" s="202"/>
+      <c r="BR28" s="202"/>
+      <c r="BS28" s="202"/>
+      <c r="BT28" s="202"/>
+      <c r="BU28" s="202"/>
+      <c r="BV28" s="202"/>
+      <c r="BW28" s="202"/>
+      <c r="BX28" s="202"/>
+      <c r="BY28" s="202"/>
       <c r="CO28" s="76" t="str">
         <f>Fillout!B6</f>
         <v>29 Willan Drive Cartwright NSW 2168</v>
       </c>
       <c r="CX28" s="136"/>
       <c r="CY28" s="136"/>
-      <c r="DB28" s="191"/>
-      <c r="DC28" s="191"/>
-      <c r="DD28" s="191"/>
-      <c r="DE28" s="191"/>
-      <c r="DF28" s="191"/>
-      <c r="DG28" s="191"/>
-      <c r="DH28" s="191"/>
-      <c r="DI28" s="191"/>
-      <c r="DJ28" s="191"/>
-      <c r="DK28" s="191"/>
-      <c r="DL28" s="191"/>
+      <c r="DB28" s="203"/>
+      <c r="DC28" s="203"/>
+      <c r="DD28" s="203"/>
+      <c r="DE28" s="203"/>
+      <c r="DF28" s="203"/>
+      <c r="DG28" s="203"/>
+      <c r="DH28" s="203"/>
+      <c r="DI28" s="203"/>
+      <c r="DJ28" s="203"/>
+      <c r="DK28" s="203"/>
+      <c r="DL28" s="203"/>
     </row>
     <row r="29" spans="2:116" ht="21.75" customHeight="1">
       <c r="D29" s="46" t="s">
@@ -29020,30 +29018,30 @@
       <c r="Q29" s="56" t="s">
         <v>634</v>
       </c>
-      <c r="R29" s="200" t="s">
+      <c r="R29" s="193" t="s">
         <v>635</v>
       </c>
-      <c r="S29" s="200"/>
-      <c r="T29" s="200"/>
-      <c r="U29" s="200"/>
-      <c r="V29" s="200"/>
-      <c r="W29" s="200"/>
-      <c r="X29" s="200"/>
-      <c r="Y29" s="200"/>
+      <c r="S29" s="193"/>
+      <c r="T29" s="193"/>
+      <c r="U29" s="193"/>
+      <c r="V29" s="193"/>
+      <c r="W29" s="193"/>
+      <c r="X29" s="193"/>
+      <c r="Y29" s="193"/>
       <c r="AD29" s="71" t="s">
         <v>157</v>
       </c>
-      <c r="AE29" s="194" t="str">
+      <c r="AE29" s="200" t="str">
         <f>IF(Fillout!B32&lt;&gt;"",Fillout!B32,"")</f>
         <v>Permissible uses with development consent include Bed and breakfast, Community care accommodation, Tourist accommodation, Home based business, Informal outdoor recreation, Medical centre, Place of worship, Seniors housing, Railway, Residential aged care facility, Rooming house, Tramway, Roads etc.</v>
       </c>
-      <c r="AF29" s="194"/>
-      <c r="AG29" s="194"/>
-      <c r="AH29" s="194"/>
-      <c r="AI29" s="194"/>
-      <c r="AJ29" s="194"/>
-      <c r="AK29" s="194"/>
-      <c r="AL29" s="194"/>
+      <c r="AF29" s="200"/>
+      <c r="AG29" s="200"/>
+      <c r="AH29" s="200"/>
+      <c r="AI29" s="200"/>
+      <c r="AJ29" s="200"/>
+      <c r="AK29" s="200"/>
+      <c r="AL29" s="200"/>
       <c r="AO29" s="44"/>
       <c r="AQ29" s="71" t="s">
         <v>636</v>
@@ -29064,44 +29062,44 @@
         <f ca="1">IF(Data!FW24="",Data!FX24,_xlfn.CONCAT(Data!FW24," | ",Data!FX24))</f>
         <v/>
       </c>
-      <c r="BE29" s="189" t="str">
+      <c r="BE29" s="188" t="str">
         <f ca="1">Data!FY24</f>
         <v/>
       </c>
-      <c r="BF29" s="189"/>
-      <c r="BG29" s="189"/>
-      <c r="BH29" s="189"/>
-      <c r="BI29" s="189"/>
-      <c r="BJ29" s="189"/>
-      <c r="BK29" s="189"/>
-      <c r="BL29" s="189"/>
-      <c r="BO29" s="190"/>
-      <c r="BP29" s="190"/>
-      <c r="BQ29" s="190"/>
-      <c r="BR29" s="190"/>
-      <c r="BS29" s="190"/>
-      <c r="BT29" s="190"/>
-      <c r="BU29" s="190"/>
-      <c r="BV29" s="190"/>
-      <c r="BW29" s="190"/>
-      <c r="BX29" s="190"/>
-      <c r="BY29" s="190"/>
+      <c r="BF29" s="188"/>
+      <c r="BG29" s="188"/>
+      <c r="BH29" s="188"/>
+      <c r="BI29" s="188"/>
+      <c r="BJ29" s="188"/>
+      <c r="BK29" s="188"/>
+      <c r="BL29" s="188"/>
+      <c r="BO29" s="202"/>
+      <c r="BP29" s="202"/>
+      <c r="BQ29" s="202"/>
+      <c r="BR29" s="202"/>
+      <c r="BS29" s="202"/>
+      <c r="BT29" s="202"/>
+      <c r="BU29" s="202"/>
+      <c r="BV29" s="202"/>
+      <c r="BW29" s="202"/>
+      <c r="BX29" s="202"/>
+      <c r="BY29" s="202"/>
       <c r="CO29" s="77" t="s">
         <v>640</v>
       </c>
       <c r="CX29" s="136"/>
       <c r="CY29" s="136"/>
-      <c r="DB29" s="191"/>
-      <c r="DC29" s="191"/>
-      <c r="DD29" s="191"/>
-      <c r="DE29" s="191"/>
-      <c r="DF29" s="191"/>
-      <c r="DG29" s="191"/>
-      <c r="DH29" s="191"/>
-      <c r="DI29" s="191"/>
-      <c r="DJ29" s="191"/>
-      <c r="DK29" s="191"/>
-      <c r="DL29" s="191"/>
+      <c r="DB29" s="203"/>
+      <c r="DC29" s="203"/>
+      <c r="DD29" s="203"/>
+      <c r="DE29" s="203"/>
+      <c r="DF29" s="203"/>
+      <c r="DG29" s="203"/>
+      <c r="DH29" s="203"/>
+      <c r="DI29" s="203"/>
+      <c r="DJ29" s="203"/>
+      <c r="DK29" s="203"/>
+      <c r="DL29" s="203"/>
     </row>
     <row r="30" spans="2:116" ht="21.75" customHeight="1">
       <c r="F30" s="55"/>
@@ -29112,22 +29110,22 @@
       <c r="K30" s="55"/>
       <c r="L30" s="55"/>
       <c r="Q30" s="56"/>
-      <c r="R30" s="200"/>
-      <c r="S30" s="200"/>
-      <c r="T30" s="200"/>
-      <c r="U30" s="200"/>
-      <c r="V30" s="200"/>
-      <c r="W30" s="200"/>
-      <c r="X30" s="200"/>
-      <c r="Y30" s="200"/>
-      <c r="AE30" s="194"/>
-      <c r="AF30" s="194"/>
-      <c r="AG30" s="194"/>
-      <c r="AH30" s="194"/>
-      <c r="AI30" s="194"/>
-      <c r="AJ30" s="194"/>
-      <c r="AK30" s="194"/>
-      <c r="AL30" s="194"/>
+      <c r="R30" s="193"/>
+      <c r="S30" s="193"/>
+      <c r="T30" s="193"/>
+      <c r="U30" s="193"/>
+      <c r="V30" s="193"/>
+      <c r="W30" s="193"/>
+      <c r="X30" s="193"/>
+      <c r="Y30" s="193"/>
+      <c r="AE30" s="200"/>
+      <c r="AF30" s="200"/>
+      <c r="AG30" s="200"/>
+      <c r="AH30" s="200"/>
+      <c r="AI30" s="200"/>
+      <c r="AJ30" s="200"/>
+      <c r="AK30" s="200"/>
+      <c r="AL30" s="200"/>
       <c r="AQ30" s="71" t="s">
         <v>637</v>
       </c>
@@ -29147,45 +29145,45 @@
         <f ca="1">IF(Data!FW25="",Data!FX25,_xlfn.CONCAT(Data!FW25," | ",Data!FX25))</f>
         <v/>
       </c>
-      <c r="BE30" s="189" t="str">
+      <c r="BE30" s="188" t="str">
         <f ca="1">Data!FY25</f>
         <v/>
       </c>
-      <c r="BF30" s="189"/>
-      <c r="BG30" s="189"/>
-      <c r="BH30" s="189"/>
-      <c r="BI30" s="189"/>
-      <c r="BJ30" s="189"/>
-      <c r="BK30" s="189"/>
-      <c r="BL30" s="189"/>
-      <c r="BO30" s="190"/>
-      <c r="BP30" s="190"/>
-      <c r="BQ30" s="190"/>
-      <c r="BR30" s="190"/>
-      <c r="BS30" s="190"/>
-      <c r="BT30" s="190"/>
-      <c r="BU30" s="190"/>
-      <c r="BV30" s="190"/>
-      <c r="BW30" s="190"/>
-      <c r="BX30" s="190"/>
-      <c r="BY30" s="190"/>
+      <c r="BF30" s="188"/>
+      <c r="BG30" s="188"/>
+      <c r="BH30" s="188"/>
+      <c r="BI30" s="188"/>
+      <c r="BJ30" s="188"/>
+      <c r="BK30" s="188"/>
+      <c r="BL30" s="188"/>
+      <c r="BO30" s="202"/>
+      <c r="BP30" s="202"/>
+      <c r="BQ30" s="202"/>
+      <c r="BR30" s="202"/>
+      <c r="BS30" s="202"/>
+      <c r="BT30" s="202"/>
+      <c r="BU30" s="202"/>
+      <c r="BV30" s="202"/>
+      <c r="BW30" s="202"/>
+      <c r="BX30" s="202"/>
+      <c r="BY30" s="202"/>
       <c r="CO30" s="76" t="str">
         <f>_xlfn.CONCAT("As at ",TEXT(Fillout!B24,"dd mmmm yyyy")," (Date of Valuation)")</f>
         <v>As at 27 June 2025 (Date of Valuation)</v>
       </c>
       <c r="CX30" s="136"/>
       <c r="CY30" s="60"/>
-      <c r="DB30" s="191"/>
-      <c r="DC30" s="191"/>
-      <c r="DD30" s="191"/>
-      <c r="DE30" s="191"/>
-      <c r="DF30" s="191"/>
-      <c r="DG30" s="191"/>
-      <c r="DH30" s="191"/>
-      <c r="DI30" s="191"/>
-      <c r="DJ30" s="191"/>
-      <c r="DK30" s="191"/>
-      <c r="DL30" s="191"/>
+      <c r="DB30" s="203"/>
+      <c r="DC30" s="203"/>
+      <c r="DD30" s="203"/>
+      <c r="DE30" s="203"/>
+      <c r="DF30" s="203"/>
+      <c r="DG30" s="203"/>
+      <c r="DH30" s="203"/>
+      <c r="DI30" s="203"/>
+      <c r="DJ30" s="203"/>
+      <c r="DK30" s="203"/>
+      <c r="DL30" s="203"/>
     </row>
     <row r="31" spans="2:116" ht="21.75" customHeight="1">
       <c r="B31" s="44" t="s">
@@ -29199,23 +29197,23 @@
       <c r="K31" s="55"/>
       <c r="L31" s="55"/>
       <c r="Q31" s="42"/>
-      <c r="R31" s="200"/>
-      <c r="S31" s="200"/>
-      <c r="T31" s="200"/>
-      <c r="U31" s="200"/>
-      <c r="V31" s="200"/>
-      <c r="W31" s="200"/>
-      <c r="X31" s="200"/>
-      <c r="Y31" s="200"/>
+      <c r="R31" s="193"/>
+      <c r="S31" s="193"/>
+      <c r="T31" s="193"/>
+      <c r="U31" s="193"/>
+      <c r="V31" s="193"/>
+      <c r="W31" s="193"/>
+      <c r="X31" s="193"/>
+      <c r="Y31" s="193"/>
       <c r="AD31" s="71"/>
-      <c r="AE31" s="194"/>
-      <c r="AF31" s="194"/>
-      <c r="AG31" s="194"/>
-      <c r="AH31" s="194"/>
-      <c r="AI31" s="194"/>
-      <c r="AJ31" s="194"/>
-      <c r="AK31" s="194"/>
-      <c r="AL31" s="194"/>
+      <c r="AE31" s="200"/>
+      <c r="AF31" s="200"/>
+      <c r="AG31" s="200"/>
+      <c r="AH31" s="200"/>
+      <c r="AI31" s="200"/>
+      <c r="AJ31" s="200"/>
+      <c r="AK31" s="200"/>
+      <c r="AL31" s="200"/>
       <c r="AQ31" s="71" t="s">
         <v>639</v>
       </c>
@@ -29235,43 +29233,43 @@
         <f ca="1">IF(Data!FW26="",Data!FX26,_xlfn.CONCAT(Data!FW26," | ",Data!FX26))</f>
         <v/>
       </c>
-      <c r="BE31" s="189" t="str">
+      <c r="BE31" s="188" t="str">
         <f ca="1">Data!FY26</f>
         <v/>
       </c>
-      <c r="BF31" s="189"/>
-      <c r="BG31" s="189"/>
-      <c r="BH31" s="189"/>
-      <c r="BI31" s="189"/>
-      <c r="BJ31" s="189"/>
-      <c r="BK31" s="189"/>
-      <c r="BL31" s="189"/>
-      <c r="BO31" s="190"/>
-      <c r="BP31" s="190"/>
-      <c r="BQ31" s="190"/>
-      <c r="BR31" s="190"/>
-      <c r="BS31" s="190"/>
-      <c r="BT31" s="190"/>
-      <c r="BU31" s="190"/>
-      <c r="BV31" s="190"/>
-      <c r="BW31" s="190"/>
-      <c r="BX31" s="190"/>
-      <c r="BY31" s="190"/>
+      <c r="BF31" s="188"/>
+      <c r="BG31" s="188"/>
+      <c r="BH31" s="188"/>
+      <c r="BI31" s="188"/>
+      <c r="BJ31" s="188"/>
+      <c r="BK31" s="188"/>
+      <c r="BL31" s="188"/>
+      <c r="BO31" s="202"/>
+      <c r="BP31" s="202"/>
+      <c r="BQ31" s="202"/>
+      <c r="BR31" s="202"/>
+      <c r="BS31" s="202"/>
+      <c r="BT31" s="202"/>
+      <c r="BU31" s="202"/>
+      <c r="BV31" s="202"/>
+      <c r="BW31" s="202"/>
+      <c r="BX31" s="202"/>
+      <c r="BY31" s="202"/>
       <c r="CO31" s="76" t="s">
         <v>645</v>
       </c>
       <c r="CX31" s="136"/>
-      <c r="DB31" s="191"/>
-      <c r="DC31" s="191"/>
-      <c r="DD31" s="191"/>
-      <c r="DE31" s="191"/>
-      <c r="DF31" s="191"/>
-      <c r="DG31" s="191"/>
-      <c r="DH31" s="191"/>
-      <c r="DI31" s="191"/>
-      <c r="DJ31" s="191"/>
-      <c r="DK31" s="191"/>
-      <c r="DL31" s="191"/>
+      <c r="DB31" s="203"/>
+      <c r="DC31" s="203"/>
+      <c r="DD31" s="203"/>
+      <c r="DE31" s="203"/>
+      <c r="DF31" s="203"/>
+      <c r="DG31" s="203"/>
+      <c r="DH31" s="203"/>
+      <c r="DI31" s="203"/>
+      <c r="DJ31" s="203"/>
+      <c r="DK31" s="203"/>
+      <c r="DL31" s="203"/>
     </row>
     <row r="32" spans="2:116" ht="21.75" customHeight="1">
       <c r="D32" s="46"/>
@@ -29287,16 +29285,16 @@
       <c r="Q32" s="56" t="s">
         <v>641</v>
       </c>
-      <c r="R32" s="200" t="s">
+      <c r="R32" s="193" t="s">
         <v>642</v>
       </c>
-      <c r="S32" s="200"/>
-      <c r="T32" s="200"/>
-      <c r="U32" s="200"/>
-      <c r="V32" s="200"/>
-      <c r="W32" s="200"/>
-      <c r="X32" s="200"/>
-      <c r="Y32" s="200"/>
+      <c r="S32" s="193"/>
+      <c r="T32" s="193"/>
+      <c r="U32" s="193"/>
+      <c r="V32" s="193"/>
+      <c r="W32" s="193"/>
+      <c r="X32" s="193"/>
+      <c r="Y32" s="193"/>
       <c r="AD32" s="71" t="s">
         <v>647</v>
       </c>
@@ -29329,68 +29327,68 @@
         <f ca="1">IF(Data!FW27="",Data!FX27,_xlfn.CONCAT(Data!FW27," | ",Data!FX27))</f>
         <v/>
       </c>
-      <c r="BE32" s="189" t="str">
+      <c r="BE32" s="188" t="str">
         <f ca="1">Data!FY27</f>
         <v/>
       </c>
-      <c r="BF32" s="189"/>
-      <c r="BG32" s="189"/>
-      <c r="BH32" s="189"/>
-      <c r="BI32" s="189"/>
-      <c r="BJ32" s="189"/>
-      <c r="BK32" s="189"/>
-      <c r="BL32" s="189"/>
-      <c r="BO32" s="190"/>
-      <c r="BP32" s="190"/>
-      <c r="BQ32" s="190"/>
-      <c r="BR32" s="190"/>
-      <c r="BS32" s="190"/>
-      <c r="BT32" s="190"/>
-      <c r="BU32" s="190"/>
-      <c r="BV32" s="190"/>
-      <c r="BW32" s="190"/>
-      <c r="BX32" s="190"/>
-      <c r="BY32" s="190"/>
+      <c r="BF32" s="188"/>
+      <c r="BG32" s="188"/>
+      <c r="BH32" s="188"/>
+      <c r="BI32" s="188"/>
+      <c r="BJ32" s="188"/>
+      <c r="BK32" s="188"/>
+      <c r="BL32" s="188"/>
+      <c r="BO32" s="202"/>
+      <c r="BP32" s="202"/>
+      <c r="BQ32" s="202"/>
+      <c r="BR32" s="202"/>
+      <c r="BS32" s="202"/>
+      <c r="BT32" s="202"/>
+      <c r="BU32" s="202"/>
+      <c r="BV32" s="202"/>
+      <c r="BW32" s="202"/>
+      <c r="BX32" s="202"/>
+      <c r="BY32" s="202"/>
       <c r="CO32" s="76" t="str">
         <f>Fillout!E184</f>
         <v>$800,000.00 (Eight Hundred Thousand Dollars)</v>
       </c>
       <c r="CX32" s="136"/>
-      <c r="DB32" s="191"/>
-      <c r="DC32" s="191"/>
-      <c r="DD32" s="191"/>
-      <c r="DE32" s="191"/>
-      <c r="DF32" s="191"/>
-      <c r="DG32" s="191"/>
-      <c r="DH32" s="191"/>
-      <c r="DI32" s="191"/>
-      <c r="DJ32" s="191"/>
-      <c r="DK32" s="191"/>
-      <c r="DL32" s="191"/>
+      <c r="DB32" s="203"/>
+      <c r="DC32" s="203"/>
+      <c r="DD32" s="203"/>
+      <c r="DE32" s="203"/>
+      <c r="DF32" s="203"/>
+      <c r="DG32" s="203"/>
+      <c r="DH32" s="203"/>
+      <c r="DI32" s="203"/>
+      <c r="DJ32" s="203"/>
+      <c r="DK32" s="203"/>
+      <c r="DL32" s="203"/>
     </row>
     <row r="33" spans="2:119" ht="21.75" customHeight="1">
       <c r="D33" s="46" t="s">
         <v>643</v>
       </c>
-      <c r="E33" s="196" t="s">
+      <c r="E33" s="189" t="s">
         <v>644</v>
       </c>
-      <c r="F33" s="196"/>
-      <c r="G33" s="196"/>
-      <c r="H33" s="196"/>
-      <c r="I33" s="196"/>
-      <c r="J33" s="196"/>
-      <c r="K33" s="196"/>
-      <c r="L33" s="196"/>
+      <c r="F33" s="189"/>
+      <c r="G33" s="189"/>
+      <c r="H33" s="189"/>
+      <c r="I33" s="189"/>
+      <c r="J33" s="189"/>
+      <c r="K33" s="189"/>
+      <c r="L33" s="189"/>
       <c r="Q33" s="56"/>
-      <c r="R33" s="200"/>
-      <c r="S33" s="200"/>
-      <c r="T33" s="200"/>
-      <c r="U33" s="200"/>
-      <c r="V33" s="200"/>
-      <c r="W33" s="200"/>
-      <c r="X33" s="200"/>
-      <c r="Y33" s="200"/>
+      <c r="R33" s="193"/>
+      <c r="S33" s="193"/>
+      <c r="T33" s="193"/>
+      <c r="U33" s="193"/>
+      <c r="V33" s="193"/>
+      <c r="W33" s="193"/>
+      <c r="X33" s="193"/>
+      <c r="Y33" s="193"/>
       <c r="AD33" s="71" t="s">
         <v>155</v>
       </c>
@@ -29408,69 +29406,69 @@
       <c r="AQ33" s="71" t="s">
         <v>214</v>
       </c>
-      <c r="AR33" s="193" t="str">
+      <c r="AR33" s="194" t="str">
         <f ca="1">Fillout!B140</f>
         <v>3 Bedrooms, 1 Bathroom, Single garage, with Kitchen, Dining, Lounge and Laundry</v>
       </c>
-      <c r="AS33" s="193"/>
-      <c r="AT33" s="193"/>
-      <c r="AU33" s="193"/>
-      <c r="AV33" s="193"/>
-      <c r="AW33" s="193"/>
-      <c r="AX33" s="193"/>
-      <c r="AY33" s="193"/>
+      <c r="AS33" s="194"/>
+      <c r="AT33" s="194"/>
+      <c r="AU33" s="194"/>
+      <c r="AV33" s="194"/>
+      <c r="AW33" s="194"/>
+      <c r="AX33" s="194"/>
+      <c r="AY33" s="194"/>
       <c r="BC33" s="63"/>
       <c r="BD33" s="64" t="str">
         <f ca="1">IF(Data!FW28="",Data!FX28,_xlfn.CONCAT(Data!FW28," | ",Data!FX28))</f>
         <v/>
       </c>
-      <c r="BE33" s="192" t="str">
+      <c r="BE33" s="199" t="str">
         <f ca="1">Data!FY28</f>
         <v/>
       </c>
-      <c r="BF33" s="192"/>
-      <c r="BG33" s="192"/>
-      <c r="BH33" s="192"/>
-      <c r="BI33" s="192"/>
-      <c r="BJ33" s="192"/>
-      <c r="BK33" s="192"/>
-      <c r="BL33" s="192"/>
-      <c r="BO33" s="190"/>
-      <c r="BP33" s="190"/>
-      <c r="BQ33" s="190"/>
-      <c r="BR33" s="190"/>
-      <c r="BS33" s="190"/>
-      <c r="BT33" s="190"/>
-      <c r="BU33" s="190"/>
-      <c r="BV33" s="190"/>
-      <c r="BW33" s="190"/>
-      <c r="BX33" s="190"/>
-      <c r="BY33" s="190"/>
+      <c r="BF33" s="199"/>
+      <c r="BG33" s="199"/>
+      <c r="BH33" s="199"/>
+      <c r="BI33" s="199"/>
+      <c r="BJ33" s="199"/>
+      <c r="BK33" s="199"/>
+      <c r="BL33" s="199"/>
+      <c r="BO33" s="202"/>
+      <c r="BP33" s="202"/>
+      <c r="BQ33" s="202"/>
+      <c r="BR33" s="202"/>
+      <c r="BS33" s="202"/>
+      <c r="BT33" s="202"/>
+      <c r="BU33" s="202"/>
+      <c r="BV33" s="202"/>
+      <c r="BW33" s="202"/>
+      <c r="BX33" s="202"/>
+      <c r="BY33" s="202"/>
       <c r="CX33" s="136"/>
-      <c r="DB33" s="191"/>
-      <c r="DC33" s="191"/>
-      <c r="DD33" s="191"/>
-      <c r="DE33" s="191"/>
-      <c r="DF33" s="191"/>
-      <c r="DG33" s="191"/>
-      <c r="DH33" s="191"/>
-      <c r="DI33" s="191"/>
-      <c r="DJ33" s="191"/>
-      <c r="DK33" s="191"/>
-      <c r="DL33" s="191"/>
+      <c r="DB33" s="203"/>
+      <c r="DC33" s="203"/>
+      <c r="DD33" s="203"/>
+      <c r="DE33" s="203"/>
+      <c r="DF33" s="203"/>
+      <c r="DG33" s="203"/>
+      <c r="DH33" s="203"/>
+      <c r="DI33" s="203"/>
+      <c r="DJ33" s="203"/>
+      <c r="DK33" s="203"/>
+      <c r="DL33" s="203"/>
     </row>
     <row r="34" spans="2:119" ht="21.75" customHeight="1">
       <c r="D34" s="15" t="s">
         <v>646</v>
       </c>
-      <c r="E34" s="196"/>
-      <c r="F34" s="196"/>
-      <c r="G34" s="196"/>
-      <c r="H34" s="196"/>
-      <c r="I34" s="196"/>
-      <c r="J34" s="196"/>
-      <c r="K34" s="196"/>
-      <c r="L34" s="196"/>
+      <c r="E34" s="189"/>
+      <c r="F34" s="189"/>
+      <c r="G34" s="189"/>
+      <c r="H34" s="189"/>
+      <c r="I34" s="189"/>
+      <c r="J34" s="189"/>
+      <c r="K34" s="189"/>
+      <c r="L34" s="189"/>
       <c r="AD34" s="71" t="s">
         <v>651</v>
       </c>
@@ -29484,53 +29482,53 @@
       <c r="AJ34" s="84"/>
       <c r="AK34" s="84"/>
       <c r="AL34" s="84"/>
-      <c r="AR34" s="193"/>
-      <c r="AS34" s="193"/>
-      <c r="AT34" s="193"/>
-      <c r="AU34" s="193"/>
-      <c r="AV34" s="193"/>
-      <c r="AW34" s="193"/>
-      <c r="AX34" s="193"/>
-      <c r="AY34" s="193"/>
+      <c r="AR34" s="194"/>
+      <c r="AS34" s="194"/>
+      <c r="AT34" s="194"/>
+      <c r="AU34" s="194"/>
+      <c r="AV34" s="194"/>
+      <c r="AW34" s="194"/>
+      <c r="AX34" s="194"/>
+      <c r="AY34" s="194"/>
       <c r="BC34" s="63"/>
       <c r="BD34" s="64" t="str">
         <f ca="1">IF(Data!FW29="",Data!FX29,_xlfn.CONCAT(Data!FW29," | ",Data!FX29))</f>
         <v/>
       </c>
-      <c r="BE34" s="192" t="str">
+      <c r="BE34" s="199" t="str">
         <f ca="1">Data!FY29</f>
         <v/>
       </c>
-      <c r="BF34" s="192"/>
-      <c r="BG34" s="192"/>
-      <c r="BH34" s="192"/>
-      <c r="BI34" s="192"/>
-      <c r="BJ34" s="192"/>
-      <c r="BK34" s="192"/>
-      <c r="BL34" s="192"/>
-      <c r="BO34" s="190"/>
-      <c r="BP34" s="190"/>
-      <c r="BQ34" s="190"/>
-      <c r="BR34" s="190"/>
-      <c r="BS34" s="190"/>
-      <c r="BT34" s="190"/>
-      <c r="BU34" s="190"/>
-      <c r="BV34" s="190"/>
-      <c r="BW34" s="190"/>
-      <c r="BX34" s="190"/>
-      <c r="BY34" s="190"/>
+      <c r="BF34" s="199"/>
+      <c r="BG34" s="199"/>
+      <c r="BH34" s="199"/>
+      <c r="BI34" s="199"/>
+      <c r="BJ34" s="199"/>
+      <c r="BK34" s="199"/>
+      <c r="BL34" s="199"/>
+      <c r="BO34" s="202"/>
+      <c r="BP34" s="202"/>
+      <c r="BQ34" s="202"/>
+      <c r="BR34" s="202"/>
+      <c r="BS34" s="202"/>
+      <c r="BT34" s="202"/>
+      <c r="BU34" s="202"/>
+      <c r="BV34" s="202"/>
+      <c r="BW34" s="202"/>
+      <c r="BX34" s="202"/>
+      <c r="BY34" s="202"/>
       <c r="CX34" s="60"/>
-      <c r="DB34" s="191"/>
-      <c r="DC34" s="191"/>
-      <c r="DD34" s="191"/>
-      <c r="DE34" s="191"/>
-      <c r="DF34" s="191"/>
-      <c r="DG34" s="191"/>
-      <c r="DH34" s="191"/>
-      <c r="DI34" s="191"/>
-      <c r="DJ34" s="191"/>
-      <c r="DK34" s="191"/>
-      <c r="DL34" s="191"/>
+      <c r="DB34" s="203"/>
+      <c r="DC34" s="203"/>
+      <c r="DD34" s="203"/>
+      <c r="DE34" s="203"/>
+      <c r="DF34" s="203"/>
+      <c r="DG34" s="203"/>
+      <c r="DH34" s="203"/>
+      <c r="DI34" s="203"/>
+      <c r="DJ34" s="203"/>
+      <c r="DK34" s="203"/>
+      <c r="DL34" s="203"/>
     </row>
     <row r="35" spans="2:119" ht="21.75" customHeight="1">
       <c r="D35" s="46" t="s">
@@ -29558,44 +29556,44 @@
         <f t="array" ref="AQ35">IF(AND(ISBLANK(Fillout!B83:B85)),"","Ancillaries")</f>
         <v>Ancillaries</v>
       </c>
-      <c r="AR35" s="193" t="str">
+      <c r="AR35" s="194" t="str">
         <f>Data!GC6</f>
         <v>Driveway - Concrete and Paths</v>
       </c>
-      <c r="AS35" s="193"/>
-      <c r="AT35" s="193"/>
-      <c r="AU35" s="193"/>
-      <c r="AV35" s="193"/>
-      <c r="AW35" s="193"/>
-      <c r="AX35" s="193"/>
+      <c r="AS35" s="194"/>
+      <c r="AT35" s="194"/>
+      <c r="AU35" s="194"/>
+      <c r="AV35" s="194"/>
+      <c r="AW35" s="194"/>
+      <c r="AX35" s="194"/>
       <c r="AY35" s="128"/>
       <c r="BC35" s="63"/>
       <c r="BD35" s="64"/>
-      <c r="BE35" s="192" t="str">
+      <c r="BE35" s="199" t="str">
         <f ca="1">Data!FY30</f>
         <v/>
       </c>
-      <c r="BF35" s="192"/>
-      <c r="BG35" s="192"/>
-      <c r="BH35" s="192"/>
-      <c r="BI35" s="192"/>
-      <c r="BJ35" s="192"/>
-      <c r="BK35" s="192"/>
-      <c r="BL35" s="192"/>
+      <c r="BF35" s="199"/>
+      <c r="BG35" s="199"/>
+      <c r="BH35" s="199"/>
+      <c r="BI35" s="199"/>
+      <c r="BJ35" s="199"/>
+      <c r="BK35" s="199"/>
+      <c r="BL35" s="199"/>
       <c r="CO35" s="78" t="s">
         <v>654</v>
       </c>
-      <c r="DB35" s="191"/>
-      <c r="DC35" s="191"/>
-      <c r="DD35" s="191"/>
-      <c r="DE35" s="191"/>
-      <c r="DF35" s="191"/>
-      <c r="DG35" s="191"/>
-      <c r="DH35" s="191"/>
-      <c r="DI35" s="191"/>
-      <c r="DJ35" s="191"/>
-      <c r="DK35" s="191"/>
-      <c r="DL35" s="191"/>
+      <c r="DB35" s="203"/>
+      <c r="DC35" s="203"/>
+      <c r="DD35" s="203"/>
+      <c r="DE35" s="203"/>
+      <c r="DF35" s="203"/>
+      <c r="DG35" s="203"/>
+      <c r="DH35" s="203"/>
+      <c r="DI35" s="203"/>
+      <c r="DJ35" s="203"/>
+      <c r="DK35" s="203"/>
+      <c r="DL35" s="203"/>
     </row>
     <row r="36" spans="2:119" ht="21.75" customHeight="1">
       <c r="AG36" s="126"/>
@@ -29606,31 +29604,31 @@
       <c r="AL36" s="85"/>
       <c r="BC36" s="63"/>
       <c r="BD36" s="64"/>
-      <c r="BE36" s="192" t="str">
+      <c r="BE36" s="199" t="str">
         <f ca="1">Data!FY31</f>
         <v/>
       </c>
-      <c r="BF36" s="192"/>
-      <c r="BG36" s="192"/>
-      <c r="BH36" s="192"/>
-      <c r="BI36" s="192"/>
-      <c r="BJ36" s="192"/>
-      <c r="BK36" s="192"/>
-      <c r="BL36" s="192"/>
+      <c r="BF36" s="199"/>
+      <c r="BG36" s="199"/>
+      <c r="BH36" s="199"/>
+      <c r="BI36" s="199"/>
+      <c r="BJ36" s="199"/>
+      <c r="BK36" s="199"/>
+      <c r="BL36" s="199"/>
       <c r="CB36" s="58" t="s">
         <v>653</v>
       </c>
-      <c r="DB36" s="191"/>
-      <c r="DC36" s="191"/>
-      <c r="DD36" s="191"/>
-      <c r="DE36" s="191"/>
-      <c r="DF36" s="191"/>
-      <c r="DG36" s="191"/>
-      <c r="DH36" s="191"/>
-      <c r="DI36" s="191"/>
-      <c r="DJ36" s="191"/>
-      <c r="DK36" s="191"/>
-      <c r="DL36" s="191"/>
+      <c r="DB36" s="203"/>
+      <c r="DC36" s="203"/>
+      <c r="DD36" s="203"/>
+      <c r="DE36" s="203"/>
+      <c r="DF36" s="203"/>
+      <c r="DG36" s="203"/>
+      <c r="DH36" s="203"/>
+      <c r="DI36" s="203"/>
+      <c r="DJ36" s="203"/>
+      <c r="DK36" s="203"/>
+      <c r="DL36" s="203"/>
     </row>
     <row r="37" spans="2:119" ht="21.75" customHeight="1">
       <c r="D37" s="46"/>
@@ -29643,41 +29641,41 @@
       <c r="K37" s="55"/>
       <c r="L37" s="55"/>
       <c r="BD37" s="64"/>
-      <c r="BE37" s="192" t="str">
+      <c r="BE37" s="199" t="str">
         <f ca="1">Data!FY32</f>
         <v/>
       </c>
-      <c r="BF37" s="192"/>
-      <c r="BG37" s="192"/>
-      <c r="BH37" s="192"/>
-      <c r="BI37" s="192"/>
-      <c r="BJ37" s="192"/>
-      <c r="BK37" s="192"/>
-      <c r="BL37" s="192"/>
-      <c r="DB37" s="191"/>
-      <c r="DC37" s="191"/>
-      <c r="DD37" s="191"/>
-      <c r="DE37" s="191"/>
-      <c r="DF37" s="191"/>
-      <c r="DG37" s="191"/>
-      <c r="DH37" s="191"/>
-      <c r="DI37" s="191"/>
-      <c r="DJ37" s="191"/>
-      <c r="DK37" s="191"/>
-      <c r="DL37" s="191"/>
+      <c r="BF37" s="199"/>
+      <c r="BG37" s="199"/>
+      <c r="BH37" s="199"/>
+      <c r="BI37" s="199"/>
+      <c r="BJ37" s="199"/>
+      <c r="BK37" s="199"/>
+      <c r="BL37" s="199"/>
+      <c r="DB37" s="203"/>
+      <c r="DC37" s="203"/>
+      <c r="DD37" s="203"/>
+      <c r="DE37" s="203"/>
+      <c r="DF37" s="203"/>
+      <c r="DG37" s="203"/>
+      <c r="DH37" s="203"/>
+      <c r="DI37" s="203"/>
+      <c r="DJ37" s="203"/>
+      <c r="DK37" s="203"/>
+      <c r="DL37" s="203"/>
     </row>
     <row r="38" spans="2:119" ht="21.75" customHeight="1">
-      <c r="DB38" s="191"/>
-      <c r="DC38" s="191"/>
-      <c r="DD38" s="191"/>
-      <c r="DE38" s="191"/>
-      <c r="DF38" s="191"/>
-      <c r="DG38" s="191"/>
-      <c r="DH38" s="191"/>
-      <c r="DI38" s="191"/>
-      <c r="DJ38" s="191"/>
-      <c r="DK38" s="191"/>
-      <c r="DL38" s="191"/>
+      <c r="DB38" s="203"/>
+      <c r="DC38" s="203"/>
+      <c r="DD38" s="203"/>
+      <c r="DE38" s="203"/>
+      <c r="DF38" s="203"/>
+      <c r="DG38" s="203"/>
+      <c r="DH38" s="203"/>
+      <c r="DI38" s="203"/>
+      <c r="DJ38" s="203"/>
+      <c r="DK38" s="203"/>
+      <c r="DL38" s="203"/>
     </row>
     <row r="39" spans="2:119" ht="21.75" customHeight="1">
       <c r="B39" s="41" t="str">
@@ -29774,6 +29772,54 @@
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="DO4:DY5"/>
+    <mergeCell ref="CO14:CY16"/>
+    <mergeCell ref="DB4:DL5"/>
+    <mergeCell ref="BE11:BL11"/>
+    <mergeCell ref="CB4:CL5"/>
+    <mergeCell ref="CO4:CY5"/>
+    <mergeCell ref="CO9:CY10"/>
+    <mergeCell ref="BE12:BL12"/>
+    <mergeCell ref="BO12:BY13"/>
+    <mergeCell ref="BO15:BY20"/>
+    <mergeCell ref="DB7:DL38"/>
+    <mergeCell ref="BO26:BY34"/>
+    <mergeCell ref="BE13:BL13"/>
+    <mergeCell ref="BE14:BL14"/>
+    <mergeCell ref="BO22:BY23"/>
+    <mergeCell ref="BE37:BL37"/>
+    <mergeCell ref="BE36:BL36"/>
+    <mergeCell ref="BE34:BL34"/>
+    <mergeCell ref="BE28:BL28"/>
+    <mergeCell ref="BE29:BL29"/>
+    <mergeCell ref="BE30:BL30"/>
+    <mergeCell ref="BE33:BL33"/>
+    <mergeCell ref="AR35:AX35"/>
+    <mergeCell ref="BE16:BL16"/>
+    <mergeCell ref="AR33:AY34"/>
+    <mergeCell ref="BE31:BL31"/>
+    <mergeCell ref="AB24:AL25"/>
+    <mergeCell ref="BE23:BL23"/>
+    <mergeCell ref="BE24:BL24"/>
+    <mergeCell ref="BE25:BL25"/>
+    <mergeCell ref="BE32:BL32"/>
+    <mergeCell ref="BE20:BL20"/>
+    <mergeCell ref="BE22:BM22"/>
+    <mergeCell ref="BE35:BL35"/>
+    <mergeCell ref="BE18:BL18"/>
+    <mergeCell ref="AE29:AL31"/>
+    <mergeCell ref="BE21:BM21"/>
+    <mergeCell ref="BE26:BL26"/>
+    <mergeCell ref="AR8:AY9"/>
+    <mergeCell ref="AR26:AY26"/>
+    <mergeCell ref="E33:L34"/>
+    <mergeCell ref="E17:L24"/>
+    <mergeCell ref="R14:Y15"/>
+    <mergeCell ref="R16:Y17"/>
+    <mergeCell ref="R20:Y21"/>
+    <mergeCell ref="R29:Y31"/>
+    <mergeCell ref="R23:Y24"/>
+    <mergeCell ref="R32:Y33"/>
     <mergeCell ref="BE27:BL27"/>
     <mergeCell ref="BE15:BL15"/>
     <mergeCell ref="BE17:BL17"/>
@@ -29790,54 +29836,6 @@
     <mergeCell ref="R12:Y12"/>
     <mergeCell ref="R25:Y28"/>
     <mergeCell ref="AO21:AY22"/>
-    <mergeCell ref="AR8:AY9"/>
-    <mergeCell ref="AR26:AY26"/>
-    <mergeCell ref="E33:L34"/>
-    <mergeCell ref="E17:L24"/>
-    <mergeCell ref="R14:Y15"/>
-    <mergeCell ref="R16:Y17"/>
-    <mergeCell ref="R20:Y21"/>
-    <mergeCell ref="R29:Y31"/>
-    <mergeCell ref="R23:Y24"/>
-    <mergeCell ref="R32:Y33"/>
-    <mergeCell ref="AR35:AX35"/>
-    <mergeCell ref="BE16:BL16"/>
-    <mergeCell ref="AR33:AY34"/>
-    <mergeCell ref="BE31:BL31"/>
-    <mergeCell ref="AB24:AL25"/>
-    <mergeCell ref="BE23:BL23"/>
-    <mergeCell ref="BE24:BL24"/>
-    <mergeCell ref="BE25:BL25"/>
-    <mergeCell ref="BE32:BL32"/>
-    <mergeCell ref="BE20:BL20"/>
-    <mergeCell ref="BE22:BM22"/>
-    <mergeCell ref="BE35:BL35"/>
-    <mergeCell ref="BE18:BL18"/>
-    <mergeCell ref="AE29:AL31"/>
-    <mergeCell ref="BE21:BM21"/>
-    <mergeCell ref="BE26:BL26"/>
-    <mergeCell ref="BE36:BL36"/>
-    <mergeCell ref="BE34:BL34"/>
-    <mergeCell ref="BE28:BL28"/>
-    <mergeCell ref="BE29:BL29"/>
-    <mergeCell ref="BE30:BL30"/>
-    <mergeCell ref="BE33:BL33"/>
-    <mergeCell ref="DO4:DY5"/>
-    <mergeCell ref="CO14:CY16"/>
-    <mergeCell ref="DB4:DL5"/>
-    <mergeCell ref="BE11:BL11"/>
-    <mergeCell ref="CB4:CL5"/>
-    <mergeCell ref="CO4:CY5"/>
-    <mergeCell ref="CO9:CY10"/>
-    <mergeCell ref="BE12:BL12"/>
-    <mergeCell ref="BO12:BY13"/>
-    <mergeCell ref="BO15:BY20"/>
-    <mergeCell ref="DB7:DL38"/>
-    <mergeCell ref="BO26:BY34"/>
-    <mergeCell ref="BE13:BL13"/>
-    <mergeCell ref="BE14:BL14"/>
-    <mergeCell ref="BO22:BY23"/>
-    <mergeCell ref="BE37:BL37"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.39370078740157483" footer="0.59055118110236227"/>
@@ -29899,6 +29897,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009653CAAA26001C4AB6B07910C245A3F8" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c65cf8d8a372d227b7a15e3c1be79752">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="df16c1ab-8fe3-4051-b0e6-272656fe8390" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eac862b9bce95cf51278a191cf99db5f" ns2:_="">
     <xsd:import namespace="df16c1ab-8fe3-4051-b0e6-272656fe8390"/>
@@ -30088,15 +30095,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DF7B531-DC3D-4BF0-9DE4-3D9BDBB168B4}">
   <ds:schemaRefs>
@@ -30114,6 +30112,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C05AF1F1-F24E-4D4E-8E9B-4BB300A2FAAF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D86C622-A746-47A5-A436-27B4F16AF16C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -30129,12 +30135,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C05AF1F1-F24E-4D4E-8E9B-4BB300A2FAAF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>